--- a/result/Production_Plan_Report.xlsx
+++ b/result/Production_Plan_Report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="49">
   <si>
     <t>Line</t>
   </si>
@@ -162,9 +162,6 @@
   <si>
     <t>245F042</t>
   </si>
-  <si>
-    <t>245F040</t>
-  </si>
 </sst>
 </file>
 
@@ -199,7 +196,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,12 +218,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF800080"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -303,9 +294,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -685,8 +673,8 @@
       <c r="C2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>45</v>
+      <c r="D2" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>45</v>
@@ -746,7 +734,7 @@
         <v>1588.652482269503</v>
       </c>
       <c r="D3" s="5">
-        <v>2066.420664206642</v>
+        <v>1588.652482269503</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
@@ -755,46 +743,46 @@
         <v>2066.420664206642</v>
       </c>
       <c r="G3" s="5">
+        <v>2066.420664206642</v>
+      </c>
+      <c r="H3" s="5">
         <v>2310.373103731038</v>
       </c>
-      <c r="H3" s="5">
+      <c r="I3" s="5">
         <v>2554.325543255432</v>
       </c>
-      <c r="I3" s="5">
+      <c r="J3" s="5">
         <v>2798.277982779828</v>
       </c>
-      <c r="J3" s="5">
+      <c r="K3" s="5">
         <v>3042.230422304223</v>
       </c>
-      <c r="K3" s="5">
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
         <v>3286.182861828619</v>
       </c>
-      <c r="L3" s="5">
-        <v>0</v>
-      </c>
-      <c r="M3" s="5">
+      <c r="N3" s="5">
         <v>3530.135301353014</v>
       </c>
-      <c r="N3" s="5">
-        <v>3774.08774087741</v>
-      </c>
       <c r="O3" s="5">
-        <v>4018.040180401805</v>
+        <v>3774.087740877409</v>
       </c>
       <c r="P3" s="5">
+        <v>4018.040180401804</v>
+      </c>
+      <c r="Q3" s="5">
         <v>4261.9926199262</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="R3" s="5">
         <v>4391.143911439115</v>
       </c>
-      <c r="R3" s="5">
+      <c r="S3" s="5">
+        <v>0</v>
+      </c>
+      <c r="T3" s="5">
         <v>4520.29520295203</v>
-      </c>
-      <c r="S3" s="5">
-        <v>0</v>
-      </c>
-      <c r="T3" s="5">
-        <v>4649.446494464945</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -815,46 +803,46 @@
         <v>0.32</v>
       </c>
       <c r="G4" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.32</v>
       </c>
       <c r="H4" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="I4" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="I4" s="6">
+      <c r="J4" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="J4" s="6">
+      <c r="K4" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="K4" s="6">
+      <c r="L4" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="L4" s="6">
+      <c r="M4" s="6">
+        <v>0.5088888888888889</v>
+      </c>
+      <c r="N4" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="M4" s="6">
-        <v>0.5466666666666666</v>
-      </c>
-      <c r="N4" s="6">
+      <c r="O4" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="O4" s="6">
+      <c r="P4" s="6">
         <v>0.6222222222222222</v>
       </c>
-      <c r="P4" s="6">
+      <c r="Q4" s="6">
         <v>0.66</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="R4" s="6">
         <v>0.68</v>
       </c>
-      <c r="R4" s="6">
+      <c r="S4" s="6">
         <v>0.7000000000000001</v>
       </c>
-      <c r="S4" s="6">
-        <v>0.7200000000000001</v>
-      </c>
       <c r="T4" s="6">
-        <v>0.7200000000000001</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -866,55 +854,55 @@
         <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>2</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>3</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>4</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>5</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>6</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
+        <v>6</v>
+      </c>
+      <c r="N5" s="2">
         <v>7</v>
       </c>
-      <c r="M5" s="2">
-        <v>7</v>
-      </c>
-      <c r="N5" s="2">
+      <c r="O5" s="2">
         <v>8</v>
       </c>
-      <c r="O5" s="2">
+      <c r="P5" s="2">
         <v>9</v>
       </c>
-      <c r="P5" s="2">
+      <c r="Q5" s="2">
         <v>10</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="R5" s="2">
         <v>11</v>
       </c>
-      <c r="R5" s="2">
+      <c r="S5" s="2">
         <v>12</v>
       </c>
-      <c r="S5" s="2">
-        <v>13</v>
-      </c>
       <c r="T5" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -935,46 +923,46 @@
         <v>0.32</v>
       </c>
       <c r="G6" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.32</v>
       </c>
       <c r="H6" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="I6" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="I6" s="6">
+      <c r="J6" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="J6" s="6">
+      <c r="K6" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="K6" s="6">
+      <c r="L6" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="L6" s="6">
+      <c r="M6" s="6">
+        <v>0.5088888888888889</v>
+      </c>
+      <c r="N6" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="M6" s="6">
-        <v>0.5466666666666666</v>
-      </c>
-      <c r="N6" s="6">
+      <c r="O6" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="O6" s="6">
+      <c r="P6" s="6">
         <v>0.6222222222222222</v>
       </c>
-      <c r="P6" s="6">
+      <c r="Q6" s="6">
         <v>0.66</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="R6" s="6">
         <v>0.68</v>
       </c>
-      <c r="R6" s="6">
+      <c r="S6" s="6">
         <v>0.7000000000000001</v>
       </c>
-      <c r="S6" s="6">
-        <v>0.7200000000000001</v>
-      </c>
       <c r="T6" s="6">
-        <v>0.7200000000000001</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -993,8 +981,8 @@
       <c r="E7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>45</v>
+      <c r="F7" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>45</v>
@@ -1054,49 +1042,49 @@
         <v>0</v>
       </c>
       <c r="F8" s="5">
-        <v>2066.420664206642</v>
+        <v>1776.201733648542</v>
       </c>
       <c r="G8" s="5">
         <v>2066.420664206642</v>
       </c>
       <c r="H8" s="5">
+        <v>2066.420664206642</v>
+      </c>
+      <c r="I8" s="5">
         <v>2310.373103731038</v>
       </c>
-      <c r="I8" s="5">
+      <c r="J8" s="5">
         <v>2554.325543255432</v>
       </c>
-      <c r="J8" s="5">
+      <c r="K8" s="5">
         <v>2798.277982779828</v>
       </c>
-      <c r="K8" s="5">
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
         <v>3042.230422304223</v>
       </c>
-      <c r="L8" s="5">
-        <v>0</v>
-      </c>
-      <c r="M8" s="5">
+      <c r="N8" s="5">
         <v>3286.182861828619</v>
       </c>
-      <c r="N8" s="5">
+      <c r="O8" s="5">
         <v>3530.135301353014</v>
       </c>
-      <c r="O8" s="5">
+      <c r="P8" s="5">
         <v>3774.08774087741</v>
       </c>
-      <c r="P8" s="5">
+      <c r="Q8" s="5">
         <v>4018.040180401804</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="R8" s="5">
         <v>4261.9926199262</v>
       </c>
-      <c r="R8" s="5">
+      <c r="S8" s="5">
+        <v>0</v>
+      </c>
+      <c r="T8" s="5">
         <v>4391.143911439115</v>
-      </c>
-      <c r="S8" s="5">
-        <v>0</v>
-      </c>
-      <c r="T8" s="5">
-        <v>4520.29520295203</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1114,49 +1102,49 @@
         <v>0.3577777777777778</v>
       </c>
       <c r="F9" s="6">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="G9" s="6">
         <v>0.32</v>
       </c>
       <c r="H9" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.32</v>
       </c>
       <c r="I9" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="J9" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="J9" s="6">
+      <c r="K9" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="K9" s="6">
+      <c r="L9" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="L9" s="6">
+      <c r="M9" s="6">
+        <v>0.4711111111111111</v>
+      </c>
+      <c r="N9" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="M9" s="6">
-        <v>0.5088888888888889</v>
-      </c>
-      <c r="N9" s="6">
+      <c r="O9" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="O9" s="6">
+      <c r="P9" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="P9" s="6">
+      <c r="Q9" s="6">
         <v>0.6222222222222222</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="R9" s="6">
         <v>0.66</v>
       </c>
-      <c r="R9" s="6">
+      <c r="S9" s="6">
         <v>0.68</v>
       </c>
-      <c r="S9" s="6">
-        <v>0.7000000000000001</v>
-      </c>
       <c r="T9" s="6">
-        <v>0.7000000000000001</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1174,49 +1162,49 @@
         <v>2</v>
       </c>
       <c r="F10" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
         <v>1</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="2">
         <v>2</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
         <v>3</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>4</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>5</v>
       </c>
-      <c r="L10" s="2">
+      <c r="M10" s="2">
+        <v>5</v>
+      </c>
+      <c r="N10" s="2">
         <v>6</v>
       </c>
-      <c r="M10" s="2">
-        <v>6</v>
-      </c>
-      <c r="N10" s="2">
+      <c r="O10" s="2">
         <v>7</v>
       </c>
-      <c r="O10" s="2">
+      <c r="P10" s="2">
         <v>8</v>
       </c>
-      <c r="P10" s="2">
+      <c r="Q10" s="2">
         <v>9</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="R10" s="2">
         <v>10</v>
       </c>
-      <c r="R10" s="2">
+      <c r="S10" s="2">
         <v>11</v>
       </c>
-      <c r="S10" s="2">
-        <v>12</v>
-      </c>
       <c r="T10" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1234,49 +1222,49 @@
         <v>0.3577777777777778</v>
       </c>
       <c r="F11" s="6">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="G11" s="6">
         <v>0.32</v>
       </c>
       <c r="H11" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.32</v>
       </c>
       <c r="I11" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="J11" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="J11" s="6">
+      <c r="K11" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="K11" s="6">
+      <c r="L11" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="L11" s="6">
+      <c r="M11" s="6">
+        <v>0.4711111111111111</v>
+      </c>
+      <c r="N11" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="M11" s="6">
-        <v>0.5088888888888889</v>
-      </c>
-      <c r="N11" s="6">
+      <c r="O11" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="O11" s="6">
+      <c r="P11" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="P11" s="6">
+      <c r="Q11" s="6">
         <v>0.6222222222222222</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="R11" s="6">
         <v>0.66</v>
       </c>
-      <c r="R11" s="6">
+      <c r="S11" s="6">
         <v>0.68</v>
       </c>
-      <c r="S11" s="6">
-        <v>0.7000000000000001</v>
-      </c>
       <c r="T11" s="6">
-        <v>0.7000000000000001</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1289,8 +1277,8 @@
       <c r="C12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>44</v>
+      <c r="D12" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>45</v>
@@ -1337,8 +1325,8 @@
       <c r="S12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="T12" s="7" t="s">
-        <v>49</v>
+      <c r="T12" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1350,7 +1338,7 @@
         <v>1588.652482269503</v>
       </c>
       <c r="D13" s="5">
-        <v>1588.652482269503</v>
+        <v>2066.420664206642</v>
       </c>
       <c r="E13" s="5">
         <v>0</v>
@@ -1359,46 +1347,46 @@
         <v>2066.420664206642</v>
       </c>
       <c r="G13" s="5">
-        <v>2066.420664206642</v>
+        <v>2310.373103731038</v>
       </c>
       <c r="H13" s="5">
-        <v>2310.373103731038</v>
+        <v>2554.325543255432</v>
       </c>
       <c r="I13" s="5">
-        <v>2554.325543255432</v>
+        <v>2798.277982779828</v>
       </c>
       <c r="J13" s="5">
-        <v>2798.277982779828</v>
+        <v>3042.230422304223</v>
       </c>
       <c r="K13" s="5">
-        <v>3042.230422304223</v>
+        <v>3286.182861828619</v>
       </c>
       <c r="L13" s="5">
         <v>0</v>
       </c>
       <c r="M13" s="5">
-        <v>3286.182861828619</v>
+        <v>3530.135301353014</v>
       </c>
       <c r="N13" s="5">
-        <v>3530.135301353014</v>
+        <v>3774.08774087741</v>
       </c>
       <c r="O13" s="5">
-        <v>3774.08774087741</v>
+        <v>4018.040180401804</v>
       </c>
       <c r="P13" s="5">
-        <v>4018.040180401804</v>
+        <v>4261.9926199262</v>
       </c>
       <c r="Q13" s="5">
-        <v>4261.9926199262</v>
+        <v>4391.143911439115</v>
       </c>
       <c r="R13" s="5">
-        <v>4391.143911439115</v>
+        <v>4520.29520295203</v>
       </c>
       <c r="S13" s="5">
         <v>0</v>
       </c>
       <c r="T13" s="5">
-        <v>1148.089933711474</v>
+        <v>4649.446494464945</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1419,46 +1407,46 @@
         <v>0.32</v>
       </c>
       <c r="G14" s="6">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="H14" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.3955555555555555</v>
       </c>
       <c r="I14" s="6">
-        <v>0.3955555555555555</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="J14" s="6">
-        <v>0.4333333333333333</v>
+        <v>0.4711111111111111</v>
       </c>
       <c r="K14" s="6">
-        <v>0.4711111111111111</v>
+        <v>0.5088888888888889</v>
       </c>
       <c r="L14" s="6">
-        <v>0.5088888888888889</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="M14" s="6">
-        <v>0.5088888888888889</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="N14" s="6">
-        <v>0.5466666666666666</v>
+        <v>0.5844444444444445</v>
       </c>
       <c r="O14" s="6">
-        <v>0.5844444444444445</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="P14" s="6">
-        <v>0.6222222222222222</v>
+        <v>0.66</v>
       </c>
       <c r="Q14" s="6">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="R14" s="6">
-        <v>0.68</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="S14" s="6">
-        <v>0.7000000000000001</v>
+        <v>0.7200000000000001</v>
       </c>
       <c r="T14" s="6">
-        <v>0.32</v>
+        <v>0.7200000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1470,55 +1458,55 @@
         <v>0</v>
       </c>
       <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
         <v>1</v>
       </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
       <c r="F15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J15" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K15" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L15" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M15" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N15" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O15" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P15" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q15" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R15" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S15" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T15" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1539,46 +1527,46 @@
         <v>0.32</v>
       </c>
       <c r="G16" s="6">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="H16" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.3955555555555555</v>
       </c>
       <c r="I16" s="6">
-        <v>0.3955555555555555</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="J16" s="6">
-        <v>0.4333333333333333</v>
+        <v>0.4711111111111111</v>
       </c>
       <c r="K16" s="6">
-        <v>0.4711111111111111</v>
+        <v>0.5088888888888889</v>
       </c>
       <c r="L16" s="6">
-        <v>0.5088888888888889</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="M16" s="6">
-        <v>0.5088888888888889</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="N16" s="6">
-        <v>0.5466666666666666</v>
+        <v>0.5844444444444445</v>
       </c>
       <c r="O16" s="6">
-        <v>0.5844444444444445</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="P16" s="6">
-        <v>0.6222222222222222</v>
+        <v>0.66</v>
       </c>
       <c r="Q16" s="6">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="R16" s="6">
-        <v>0.68</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="S16" s="6">
-        <v>0.7000000000000001</v>
+        <v>0.7200000000000001</v>
       </c>
       <c r="T16" s="6">
-        <v>0.32</v>
+        <v>0.7200000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1890,14 +1878,14 @@
       <c r="B22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>45</v>
+      <c r="C22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>45</v>
@@ -1951,58 +1939,58 @@
         <v>40</v>
       </c>
       <c r="C23" s="5">
+        <v>1588.652482269503</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1588.652482269503</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
         <v>2066.420664206642</v>
       </c>
-      <c r="D23" s="5">
+      <c r="G23" s="5">
         <v>2066.420664206642</v>
       </c>
-      <c r="E23" s="5">
-        <v>0</v>
-      </c>
-      <c r="F23" s="5">
+      <c r="H23" s="5">
         <v>2310.373103731038</v>
       </c>
-      <c r="G23" s="5">
+      <c r="I23" s="5">
         <v>2554.325543255432</v>
       </c>
-      <c r="H23" s="5">
+      <c r="J23" s="5">
         <v>2798.277982779828</v>
       </c>
-      <c r="I23" s="5">
+      <c r="K23" s="5">
         <v>3042.230422304223</v>
       </c>
-      <c r="J23" s="5">
+      <c r="L23" s="5">
+        <v>0</v>
+      </c>
+      <c r="M23" s="5">
         <v>3286.182861828619</v>
       </c>
-      <c r="K23" s="5">
+      <c r="N23" s="5">
         <v>3530.135301353014</v>
       </c>
-      <c r="L23" s="5">
-        <v>0</v>
-      </c>
-      <c r="M23" s="5">
-        <v>3774.08774087741</v>
-      </c>
-      <c r="N23" s="5">
+      <c r="O23" s="5">
+        <v>3774.087740877409</v>
+      </c>
+      <c r="P23" s="5">
         <v>4018.040180401804</v>
       </c>
-      <c r="O23" s="5">
+      <c r="Q23" s="5">
         <v>4261.9926199262</v>
       </c>
-      <c r="P23" s="5">
+      <c r="R23" s="5">
         <v>4391.143911439115</v>
       </c>
-      <c r="Q23" s="5">
+      <c r="S23" s="5">
+        <v>0</v>
+      </c>
+      <c r="T23" s="5">
         <v>4520.29520295203</v>
-      </c>
-      <c r="R23" s="5">
-        <v>4649.446494464945</v>
-      </c>
-      <c r="S23" s="5">
-        <v>0</v>
-      </c>
-      <c r="T23" s="5">
-        <v>4778.59778597786</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2020,49 +2008,49 @@
         <v>0.3577777777777778</v>
       </c>
       <c r="F24" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.32</v>
       </c>
       <c r="G24" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="I24" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="H24" s="6">
+      <c r="J24" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="I24" s="6">
+      <c r="K24" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="J24" s="6">
+      <c r="L24" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="K24" s="6">
+      <c r="M24" s="6">
+        <v>0.5088888888888889</v>
+      </c>
+      <c r="N24" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="L24" s="6">
+      <c r="O24" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="M24" s="6">
-        <v>0.5844444444444445</v>
-      </c>
-      <c r="N24" s="6">
+      <c r="P24" s="6">
         <v>0.6222222222222222</v>
       </c>
-      <c r="O24" s="6">
+      <c r="Q24" s="6">
         <v>0.66</v>
       </c>
-      <c r="P24" s="6">
+      <c r="R24" s="6">
         <v>0.68</v>
       </c>
-      <c r="Q24" s="6">
+      <c r="S24" s="6">
         <v>0.7000000000000001</v>
       </c>
-      <c r="R24" s="6">
-        <v>0.7200000000000001</v>
-      </c>
-      <c r="S24" s="6">
-        <v>0.74</v>
-      </c>
       <c r="T24" s="6">
-        <v>0.74</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2080,49 +2068,49 @@
         <v>2</v>
       </c>
       <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2">
         <v>2</v>
       </c>
-      <c r="G25" s="2">
+      <c r="I25" s="2">
         <v>3</v>
       </c>
-      <c r="H25" s="2">
+      <c r="J25" s="2">
         <v>4</v>
       </c>
-      <c r="I25" s="2">
+      <c r="K25" s="2">
         <v>5</v>
       </c>
-      <c r="J25" s="2">
+      <c r="L25" s="2">
         <v>6</v>
       </c>
-      <c r="K25" s="2">
+      <c r="M25" s="2">
+        <v>6</v>
+      </c>
+      <c r="N25" s="2">
         <v>7</v>
       </c>
-      <c r="L25" s="2">
+      <c r="O25" s="2">
         <v>8</v>
       </c>
-      <c r="M25" s="2">
-        <v>8</v>
-      </c>
-      <c r="N25" s="2">
+      <c r="P25" s="2">
         <v>9</v>
       </c>
-      <c r="O25" s="2">
+      <c r="Q25" s="2">
         <v>10</v>
       </c>
-      <c r="P25" s="2">
+      <c r="R25" s="2">
         <v>11</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="S25" s="2">
         <v>12</v>
       </c>
-      <c r="R25" s="2">
-        <v>13</v>
-      </c>
-      <c r="S25" s="2">
-        <v>14</v>
-      </c>
       <c r="T25" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2140,49 +2128,49 @@
         <v>0.3577777777777778</v>
       </c>
       <c r="F26" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.32</v>
       </c>
       <c r="G26" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="I26" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="H26" s="6">
+      <c r="J26" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="I26" s="6">
+      <c r="K26" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="J26" s="6">
+      <c r="L26" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="K26" s="6">
+      <c r="M26" s="6">
+        <v>0.5088888888888889</v>
+      </c>
+      <c r="N26" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="L26" s="6">
+      <c r="O26" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="M26" s="6">
-        <v>0.5844444444444445</v>
-      </c>
-      <c r="N26" s="6">
+      <c r="P26" s="6">
         <v>0.6222222222222222</v>
       </c>
-      <c r="O26" s="6">
+      <c r="Q26" s="6">
         <v>0.66</v>
       </c>
-      <c r="P26" s="6">
+      <c r="R26" s="6">
         <v>0.68</v>
       </c>
-      <c r="Q26" s="6">
+      <c r="S26" s="6">
         <v>0.7000000000000001</v>
       </c>
-      <c r="R26" s="6">
-        <v>0.7200000000000001</v>
-      </c>
-      <c r="S26" s="6">
-        <v>0.74</v>
-      </c>
       <c r="T26" s="6">
-        <v>0.74</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2198,53 +2186,53 @@
       <c r="D27" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T27" s="3" t="s">
-        <v>44</v>
+      <c r="E27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="R27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="T27" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2262,49 +2250,49 @@
         <v>0</v>
       </c>
       <c r="F28" s="5">
-        <v>1776.201733648542</v>
+        <v>2066.420664206642</v>
       </c>
       <c r="G28" s="5">
-        <v>1963.75098502758</v>
+        <v>2066.420664206642</v>
       </c>
       <c r="H28" s="5">
-        <v>2151.300236406619</v>
+        <v>2310.373103731038</v>
       </c>
       <c r="I28" s="5">
-        <v>2338.849487785658</v>
+        <v>2554.325543255432</v>
       </c>
       <c r="J28" s="5">
-        <v>2526.398739164697</v>
+        <v>1030.011342386806</v>
       </c>
       <c r="K28" s="5">
-        <v>2713.947990543735</v>
+        <v>1030.011342386806</v>
       </c>
       <c r="L28" s="5">
         <v>0</v>
       </c>
       <c r="M28" s="5">
-        <v>2901.497241922774</v>
+        <v>1151.609903640804</v>
       </c>
       <c r="N28" s="5">
-        <v>3089.046493301812</v>
+        <v>1273.208464894802</v>
       </c>
       <c r="O28" s="5">
-        <v>3276.595744680851</v>
+        <v>1394.8070261488</v>
       </c>
       <c r="P28" s="5">
-        <v>3375.886524822695</v>
+        <v>1516.405587402798</v>
       </c>
       <c r="Q28" s="5">
-        <v>3475.177304964539</v>
+        <v>1638.004148656796</v>
       </c>
       <c r="R28" s="5">
-        <v>3574.468085106383</v>
+        <v>1759.602709910793</v>
       </c>
       <c r="S28" s="5">
         <v>0</v>
       </c>
       <c r="T28" s="5">
-        <v>3673.758865248226</v>
+        <v>1881.201271164792</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2319,52 +2307,52 @@
         <v>0.32</v>
       </c>
       <c r="E29" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.32</v>
       </c>
       <c r="F29" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.32</v>
       </c>
       <c r="G29" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="H29" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="I29" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="H29" s="6">
+      <c r="J29" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="K29" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="L29" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="M29" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="N29" s="6">
+        <v>0.3955555555555555</v>
+      </c>
+      <c r="O29" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="I29" s="6">
+      <c r="P29" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="J29" s="6">
+      <c r="Q29" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="K29" s="6">
+      <c r="R29" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="L29" s="6">
+      <c r="S29" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="M29" s="6">
+      <c r="T29" s="6">
         <v>0.5844444444444445</v>
-      </c>
-      <c r="N29" s="6">
-        <v>0.6222222222222222</v>
-      </c>
-      <c r="O29" s="6">
-        <v>0.66</v>
-      </c>
-      <c r="P29" s="6">
-        <v>0.68</v>
-      </c>
-      <c r="Q29" s="6">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="R29" s="6">
-        <v>0.7200000000000001</v>
-      </c>
-      <c r="S29" s="6">
-        <v>0.74</v>
-      </c>
-      <c r="T29" s="6">
-        <v>0.74</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2379,52 +2367,52 @@
         <v>1</v>
       </c>
       <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2">
         <v>2</v>
       </c>
-      <c r="F30" s="2">
+      <c r="I30" s="2">
+        <v>3</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1</v>
+      </c>
+      <c r="L30" s="2">
         <v>2</v>
       </c>
-      <c r="G30" s="2">
+      <c r="M30" s="2">
+        <v>2</v>
+      </c>
+      <c r="N30" s="2">
         <v>3</v>
       </c>
-      <c r="H30" s="2">
+      <c r="O30" s="2">
         <v>4</v>
       </c>
-      <c r="I30" s="2">
+      <c r="P30" s="2">
         <v>5</v>
       </c>
-      <c r="J30" s="2">
+      <c r="Q30" s="2">
         <v>6</v>
       </c>
-      <c r="K30" s="2">
+      <c r="R30" s="2">
         <v>7</v>
       </c>
-      <c r="L30" s="2">
+      <c r="S30" s="2">
         <v>8</v>
       </c>
-      <c r="M30" s="2">
+      <c r="T30" s="2">
         <v>8</v>
-      </c>
-      <c r="N30" s="2">
-        <v>9</v>
-      </c>
-      <c r="O30" s="2">
-        <v>10</v>
-      </c>
-      <c r="P30" s="2">
-        <v>11</v>
-      </c>
-      <c r="Q30" s="2">
-        <v>12</v>
-      </c>
-      <c r="R30" s="2">
-        <v>13</v>
-      </c>
-      <c r="S30" s="2">
-        <v>14</v>
-      </c>
-      <c r="T30" s="2">
-        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2439,52 +2427,52 @@
         <v>0.32</v>
       </c>
       <c r="E31" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.32</v>
       </c>
       <c r="F31" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.32</v>
       </c>
       <c r="G31" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="H31" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="I31" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="H31" s="6">
+      <c r="J31" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="K31" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="L31" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="M31" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="N31" s="6">
+        <v>0.3955555555555555</v>
+      </c>
+      <c r="O31" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="I31" s="6">
+      <c r="P31" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="J31" s="6">
+      <c r="Q31" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="K31" s="6">
+      <c r="R31" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="L31" s="6">
+      <c r="S31" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="M31" s="6">
+      <c r="T31" s="6">
         <v>0.5844444444444445</v>
-      </c>
-      <c r="N31" s="6">
-        <v>0.6222222222222222</v>
-      </c>
-      <c r="O31" s="6">
-        <v>0.66</v>
-      </c>
-      <c r="P31" s="6">
-        <v>0.68</v>
-      </c>
-      <c r="Q31" s="6">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="R31" s="6">
-        <v>0.7200000000000001</v>
-      </c>
-      <c r="S31" s="6">
-        <v>0.74</v>
-      </c>
-      <c r="T31" s="6">
-        <v>0.74</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2494,14 +2482,14 @@
       <c r="B32" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>44</v>
+      <c r="C32" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>44</v>
+      <c r="E32" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>45</v>
@@ -2555,7 +2543,7 @@
         <v>40</v>
       </c>
       <c r="C33" s="5">
-        <v>1588.652482269503</v>
+        <v>2066.420664206642</v>
       </c>
       <c r="D33" s="5">
         <v>1588.652482269503</v>
@@ -2591,7 +2579,7 @@
         <v>3530.135301353014</v>
       </c>
       <c r="O33" s="5">
-        <v>3774.08774087741</v>
+        <v>3774.087740877409</v>
       </c>
       <c r="P33" s="5">
         <v>4018.040180401804</v>
@@ -2621,7 +2609,7 @@
         <v>0.32</v>
       </c>
       <c r="E34" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.32</v>
       </c>
       <c r="F34" s="6">
         <v>0.32</v>
@@ -2678,10 +2666,10 @@
         <v>0</v>
       </c>
       <c r="D35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F35" s="2">
         <v>0</v>
@@ -2741,7 +2729,7 @@
         <v>0.32</v>
       </c>
       <c r="E36" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.32</v>
       </c>
       <c r="F36" s="6">
         <v>0.32</v>
@@ -2805,38 +2793,38 @@
       <c r="E37" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P37" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O37" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P37" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="Q37" s="4" t="s">
         <v>45</v>
@@ -2866,49 +2854,49 @@
         <v>0</v>
       </c>
       <c r="F38" s="5">
-        <v>1776.201733648542</v>
+        <v>2066.420664206642</v>
       </c>
       <c r="G38" s="5">
-        <v>1963.75098502758</v>
+        <v>2066.420664206642</v>
       </c>
       <c r="H38" s="5">
-        <v>2151.300236406619</v>
+        <v>2310.373103731038</v>
       </c>
       <c r="I38" s="5">
-        <v>2338.849487785658</v>
+        <v>2554.325543255432</v>
       </c>
       <c r="J38" s="5">
+        <v>2798.277982779828</v>
+      </c>
+      <c r="K38" s="5">
+        <v>3042.230422304223</v>
+      </c>
+      <c r="L38" s="5">
+        <v>0</v>
+      </c>
+      <c r="M38" s="5">
+        <v>3286.182861828619</v>
+      </c>
+      <c r="N38" s="5">
+        <v>3530.135301353014</v>
+      </c>
+      <c r="O38" s="5">
+        <v>3774.087740877409</v>
+      </c>
+      <c r="P38" s="5">
+        <v>1588.652482269503</v>
+      </c>
+      <c r="Q38" s="5">
         <v>2066.420664206642</v>
       </c>
-      <c r="K38" s="5">
+      <c r="R38" s="5">
         <v>2066.420664206642</v>
       </c>
-      <c r="L38" s="5">
-        <v>0</v>
-      </c>
-      <c r="M38" s="5">
+      <c r="S38" s="5">
+        <v>0</v>
+      </c>
+      <c r="T38" s="5">
         <v>2310.373103731038</v>
-      </c>
-      <c r="N38" s="5">
-        <v>2554.325543255432</v>
-      </c>
-      <c r="O38" s="5">
-        <v>2798.277982779828</v>
-      </c>
-      <c r="P38" s="5">
-        <v>3042.230422304223</v>
-      </c>
-      <c r="Q38" s="5">
-        <v>3286.182861828619</v>
-      </c>
-      <c r="R38" s="5">
-        <v>3530.135301353014</v>
-      </c>
-      <c r="S38" s="5">
-        <v>0</v>
-      </c>
-      <c r="T38" s="5">
-        <v>3774.08774087741</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -2926,49 +2914,49 @@
         <v>0.3577777777777778</v>
       </c>
       <c r="F39" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.32</v>
       </c>
       <c r="G39" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="H39" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="I39" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="H39" s="6">
+      <c r="J39" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="I39" s="6">
+      <c r="K39" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="J39" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="K39" s="6">
-        <v>0.32</v>
-      </c>
       <c r="L39" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.5088888888888889</v>
       </c>
       <c r="M39" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.5088888888888889</v>
       </c>
       <c r="N39" s="6">
-        <v>0.3955555555555555</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="O39" s="6">
-        <v>0.4333333333333333</v>
+        <v>0.5844444444444445</v>
       </c>
       <c r="P39" s="6">
-        <v>0.4711111111111111</v>
+        <v>0.32</v>
       </c>
       <c r="Q39" s="6">
-        <v>0.5088888888888889</v>
+        <v>0.32</v>
       </c>
       <c r="R39" s="6">
-        <v>0.5466666666666666</v>
+        <v>0.32</v>
       </c>
       <c r="S39" s="6">
-        <v>0.5844444444444445</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="T39" s="6">
-        <v>0.5844444444444445</v>
+        <v>0.3577777777777778</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -2986,49 +2974,49 @@
         <v>2</v>
       </c>
       <c r="F40" s="2">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2">
         <v>2</v>
       </c>
-      <c r="G40" s="2">
+      <c r="I40" s="2">
         <v>3</v>
       </c>
-      <c r="H40" s="2">
+      <c r="J40" s="2">
         <v>4</v>
       </c>
-      <c r="I40" s="2">
+      <c r="K40" s="2">
         <v>5</v>
       </c>
-      <c r="J40" s="2">
-        <v>0</v>
-      </c>
-      <c r="K40" s="2">
+      <c r="L40" s="2">
+        <v>6</v>
+      </c>
+      <c r="M40" s="2">
+        <v>6</v>
+      </c>
+      <c r="N40" s="2">
+        <v>7</v>
+      </c>
+      <c r="O40" s="2">
+        <v>8</v>
+      </c>
+      <c r="P40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>0</v>
+      </c>
+      <c r="R40" s="2">
         <v>1</v>
       </c>
-      <c r="L40" s="2">
+      <c r="S40" s="2">
         <v>2</v>
       </c>
-      <c r="M40" s="2">
+      <c r="T40" s="2">
         <v>2</v>
-      </c>
-      <c r="N40" s="2">
-        <v>3</v>
-      </c>
-      <c r="O40" s="2">
-        <v>4</v>
-      </c>
-      <c r="P40" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q40" s="2">
-        <v>6</v>
-      </c>
-      <c r="R40" s="2">
-        <v>7</v>
-      </c>
-      <c r="S40" s="2">
-        <v>8</v>
-      </c>
-      <c r="T40" s="2">
-        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -3046,49 +3034,49 @@
         <v>0.3577777777777778</v>
       </c>
       <c r="F41" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.32</v>
       </c>
       <c r="G41" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="H41" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="I41" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="H41" s="6">
+      <c r="J41" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="I41" s="6">
+      <c r="K41" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="J41" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="K41" s="6">
-        <v>0.32</v>
-      </c>
       <c r="L41" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.5088888888888889</v>
       </c>
       <c r="M41" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.5088888888888889</v>
       </c>
       <c r="N41" s="6">
-        <v>0.3955555555555555</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="O41" s="6">
-        <v>0.4333333333333333</v>
+        <v>0.5844444444444445</v>
       </c>
       <c r="P41" s="6">
-        <v>0.4711111111111111</v>
+        <v>0.32</v>
       </c>
       <c r="Q41" s="6">
-        <v>0.5088888888888889</v>
+        <v>0.32</v>
       </c>
       <c r="R41" s="6">
-        <v>0.5466666666666666</v>
+        <v>0.32</v>
       </c>
       <c r="S41" s="6">
-        <v>0.5844444444444445</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="T41" s="6">
-        <v>0.5844444444444445</v>
+        <v>0.3577777777777778</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -3110,47 +3098,47 @@
       <c r="F42" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G42" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J42" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="K42" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="L42" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="M42" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="N42" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="O42" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="P42" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q42" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="R42" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="S42" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="T42" s="8" t="s">
-        <v>47</v>
+      <c r="G42" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P42" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R42" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S42" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T42" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -3171,46 +3159,46 @@
         <v>1776.201733648542</v>
       </c>
       <c r="G43" s="5">
-        <v>1030.011342386806</v>
+        <v>1963.75098502758</v>
       </c>
       <c r="H43" s="5">
-        <v>1030.011342386806</v>
+        <v>2151.300236406619</v>
       </c>
       <c r="I43" s="5">
-        <v>1151.609903640804</v>
+        <v>2066.420664206642</v>
       </c>
       <c r="J43" s="5">
-        <v>1273.208464894802</v>
+        <v>2066.420664206642</v>
       </c>
       <c r="K43" s="5">
-        <v>1394.8070261488</v>
+        <v>2310.373103731038</v>
       </c>
       <c r="L43" s="5">
         <v>0</v>
       </c>
       <c r="M43" s="5">
-        <v>1516.405587402798</v>
+        <v>2554.325543255432</v>
       </c>
       <c r="N43" s="5">
-        <v>1638.004148656796</v>
+        <v>2798.277982779828</v>
       </c>
       <c r="O43" s="5">
-        <v>1759.602709910793</v>
+        <v>3042.230422304223</v>
       </c>
       <c r="P43" s="5">
-        <v>1881.201271164792</v>
+        <v>3286.182861828619</v>
       </c>
       <c r="Q43" s="5">
-        <v>2002.799832418789</v>
+        <v>3530.135301353014</v>
       </c>
       <c r="R43" s="5">
-        <v>2124.398393672787</v>
+        <v>3774.08774087741</v>
       </c>
       <c r="S43" s="5">
         <v>0</v>
       </c>
       <c r="T43" s="5">
-        <v>2188.774102571963</v>
+        <v>4018.040180401804</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -3231,46 +3219,46 @@
         <v>0.3577777777777778</v>
       </c>
       <c r="G44" s="6">
-        <v>0.32</v>
+        <v>0.3955555555555555</v>
       </c>
       <c r="H44" s="6">
-        <v>0.32</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="I44" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.32</v>
       </c>
       <c r="J44" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="K44" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="L44" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="K44" s="6">
+      <c r="M44" s="6">
+        <v>0.3955555555555555</v>
+      </c>
+      <c r="N44" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="L44" s="6">
+      <c r="O44" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="M44" s="6">
-        <v>0.4711111111111111</v>
-      </c>
-      <c r="N44" s="6">
+      <c r="P44" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="O44" s="6">
+      <c r="Q44" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="P44" s="6">
+      <c r="R44" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="Q44" s="6">
+      <c r="S44" s="6">
         <v>0.6222222222222222</v>
       </c>
-      <c r="R44" s="6">
-        <v>0.66</v>
-      </c>
-      <c r="S44" s="6">
-        <v>0.68</v>
-      </c>
       <c r="T44" s="6">
-        <v>0.68</v>
+        <v>0.6222222222222222</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -3291,46 +3279,46 @@
         <v>2</v>
       </c>
       <c r="G45" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H45" s="2">
+        <v>4</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2">
         <v>1</v>
       </c>
-      <c r="I45" s="2">
+      <c r="K45" s="2">
         <v>2</v>
       </c>
-      <c r="J45" s="2">
+      <c r="L45" s="2">
         <v>3</v>
       </c>
-      <c r="K45" s="2">
+      <c r="M45" s="2">
+        <v>3</v>
+      </c>
+      <c r="N45" s="2">
         <v>4</v>
       </c>
-      <c r="L45" s="2">
+      <c r="O45" s="2">
         <v>5</v>
       </c>
-      <c r="M45" s="2">
-        <v>5</v>
-      </c>
-      <c r="N45" s="2">
+      <c r="P45" s="2">
         <v>6</v>
       </c>
-      <c r="O45" s="2">
+      <c r="Q45" s="2">
         <v>7</v>
       </c>
-      <c r="P45" s="2">
+      <c r="R45" s="2">
         <v>8</v>
       </c>
-      <c r="Q45" s="2">
+      <c r="S45" s="2">
         <v>9</v>
       </c>
-      <c r="R45" s="2">
-        <v>10</v>
-      </c>
-      <c r="S45" s="2">
-        <v>11</v>
-      </c>
       <c r="T45" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -3351,46 +3339,46 @@
         <v>0.3577777777777778</v>
       </c>
       <c r="G46" s="6">
-        <v>0.32</v>
+        <v>0.3955555555555555</v>
       </c>
       <c r="H46" s="6">
-        <v>0.32</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="I46" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.32</v>
       </c>
       <c r="J46" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="K46" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="L46" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="K46" s="6">
+      <c r="M46" s="6">
+        <v>0.3955555555555555</v>
+      </c>
+      <c r="N46" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="L46" s="6">
+      <c r="O46" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="M46" s="6">
-        <v>0.4711111111111111</v>
-      </c>
-      <c r="N46" s="6">
+      <c r="P46" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="O46" s="6">
+      <c r="Q46" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="P46" s="6">
+      <c r="R46" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="Q46" s="6">
+      <c r="S46" s="6">
         <v>0.6222222222222222</v>
       </c>
-      <c r="R46" s="6">
-        <v>0.66</v>
-      </c>
-      <c r="S46" s="6">
-        <v>0.68</v>
-      </c>
       <c r="T46" s="6">
-        <v>0.68</v>
+        <v>0.6222222222222222</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -3406,26 +3394,26 @@
       <c r="D47" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>45</v>
+      <c r="E47" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="L47" s="4" t="s">
         <v>45</v>
@@ -3470,49 +3458,49 @@
         <v>0</v>
       </c>
       <c r="F48" s="5">
+        <v>1776.201733648542</v>
+      </c>
+      <c r="G48" s="5">
+        <v>1963.75098502758</v>
+      </c>
+      <c r="H48" s="5">
+        <v>2151.300236406619</v>
+      </c>
+      <c r="I48" s="5">
+        <v>2338.849487785658</v>
+      </c>
+      <c r="J48" s="5">
+        <v>2526.398739164697</v>
+      </c>
+      <c r="K48" s="5">
+        <v>2713.947990543735</v>
+      </c>
+      <c r="L48" s="5">
+        <v>0</v>
+      </c>
+      <c r="M48" s="5">
         <v>2066.420664206642</v>
       </c>
-      <c r="G48" s="5">
+      <c r="N48" s="5">
         <v>2066.420664206642</v>
       </c>
-      <c r="H48" s="5">
+      <c r="O48" s="5">
         <v>2310.373103731038</v>
       </c>
-      <c r="I48" s="5">
+      <c r="P48" s="5">
         <v>2554.325543255432</v>
       </c>
-      <c r="J48" s="5">
+      <c r="Q48" s="5">
         <v>2798.277982779828</v>
       </c>
-      <c r="K48" s="5">
+      <c r="R48" s="5">
         <v>3042.230422304223</v>
       </c>
-      <c r="L48" s="5">
-        <v>0</v>
-      </c>
-      <c r="M48" s="5">
+      <c r="S48" s="5">
+        <v>0</v>
+      </c>
+      <c r="T48" s="5">
         <v>3286.182861828619</v>
-      </c>
-      <c r="N48" s="5">
-        <v>3530.135301353014</v>
-      </c>
-      <c r="O48" s="5">
-        <v>3774.08774087741</v>
-      </c>
-      <c r="P48" s="5">
-        <v>4018.040180401804</v>
-      </c>
-      <c r="Q48" s="5">
-        <v>4261.9926199262</v>
-      </c>
-      <c r="R48" s="5">
-        <v>4391.143911439115</v>
-      </c>
-      <c r="S48" s="5">
-        <v>0</v>
-      </c>
-      <c r="T48" s="5">
-        <v>4520.29520295203</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -3527,52 +3515,52 @@
         <v>0.32</v>
       </c>
       <c r="E49" s="6">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="F49" s="6">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="G49" s="6">
-        <v>0.32</v>
+        <v>0.3955555555555555</v>
       </c>
       <c r="H49" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="I49" s="6">
+        <v>0.4711111111111111</v>
+      </c>
+      <c r="J49" s="6">
+        <v>0.5088888888888889</v>
+      </c>
+      <c r="K49" s="6">
+        <v>0.5466666666666666</v>
+      </c>
+      <c r="L49" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="M49" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="N49" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="O49" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="P49" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="J49" s="6">
+      <c r="Q49" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="K49" s="6">
+      <c r="R49" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="L49" s="6">
+      <c r="S49" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="M49" s="6">
+      <c r="T49" s="6">
         <v>0.5088888888888889</v>
-      </c>
-      <c r="N49" s="6">
-        <v>0.5466666666666666</v>
-      </c>
-      <c r="O49" s="6">
-        <v>0.5844444444444445</v>
-      </c>
-      <c r="P49" s="6">
-        <v>0.6222222222222222</v>
-      </c>
-      <c r="Q49" s="6">
-        <v>0.66</v>
-      </c>
-      <c r="R49" s="6">
-        <v>0.68</v>
-      </c>
-      <c r="S49" s="6">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="T49" s="6">
-        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -3587,52 +3575,52 @@
         <v>1</v>
       </c>
       <c r="E50" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F50" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G50" s="2">
+        <v>3</v>
+      </c>
+      <c r="H50" s="2">
+        <v>4</v>
+      </c>
+      <c r="I50" s="2">
+        <v>5</v>
+      </c>
+      <c r="J50" s="2">
+        <v>6</v>
+      </c>
+      <c r="K50" s="2">
+        <v>7</v>
+      </c>
+      <c r="L50" s="2">
+        <v>0</v>
+      </c>
+      <c r="M50" s="2">
+        <v>0</v>
+      </c>
+      <c r="N50" s="2">
         <v>1</v>
       </c>
-      <c r="H50" s="2">
+      <c r="O50" s="2">
         <v>2</v>
       </c>
-      <c r="I50" s="2">
+      <c r="P50" s="2">
         <v>3</v>
       </c>
-      <c r="J50" s="2">
+      <c r="Q50" s="2">
         <v>4</v>
       </c>
-      <c r="K50" s="2">
+      <c r="R50" s="2">
         <v>5</v>
       </c>
-      <c r="L50" s="2">
+      <c r="S50" s="2">
         <v>6</v>
       </c>
-      <c r="M50" s="2">
+      <c r="T50" s="2">
         <v>6</v>
-      </c>
-      <c r="N50" s="2">
-        <v>7</v>
-      </c>
-      <c r="O50" s="2">
-        <v>8</v>
-      </c>
-      <c r="P50" s="2">
-        <v>9</v>
-      </c>
-      <c r="Q50" s="2">
-        <v>10</v>
-      </c>
-      <c r="R50" s="2">
-        <v>11</v>
-      </c>
-      <c r="S50" s="2">
-        <v>12</v>
-      </c>
-      <c r="T50" s="2">
-        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -3647,52 +3635,52 @@
         <v>0.32</v>
       </c>
       <c r="E51" s="6">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="F51" s="6">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="G51" s="6">
-        <v>0.32</v>
+        <v>0.3955555555555555</v>
       </c>
       <c r="H51" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="I51" s="6">
+        <v>0.4711111111111111</v>
+      </c>
+      <c r="J51" s="6">
+        <v>0.5088888888888889</v>
+      </c>
+      <c r="K51" s="6">
+        <v>0.5466666666666666</v>
+      </c>
+      <c r="L51" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="M51" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="N51" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="O51" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="P51" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="J51" s="6">
+      <c r="Q51" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="K51" s="6">
+      <c r="R51" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="L51" s="6">
+      <c r="S51" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="M51" s="6">
+      <c r="T51" s="6">
         <v>0.5088888888888889</v>
-      </c>
-      <c r="N51" s="6">
-        <v>0.5466666666666666</v>
-      </c>
-      <c r="O51" s="6">
-        <v>0.5844444444444445</v>
-      </c>
-      <c r="P51" s="6">
-        <v>0.6222222222222222</v>
-      </c>
-      <c r="Q51" s="6">
-        <v>0.66</v>
-      </c>
-      <c r="R51" s="6">
-        <v>0.68</v>
-      </c>
-      <c r="S51" s="6">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="T51" s="6">
-        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -3708,8 +3696,8 @@
       <c r="D52" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>44</v>
+      <c r="E52" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>45</v>
@@ -3741,20 +3729,20 @@
       <c r="O52" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="P52" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q52" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R52" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S52" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T52" s="4" t="s">
-        <v>45</v>
+      <c r="P52" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q52" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="R52" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="S52" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="T52" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:20">
@@ -3799,22 +3787,22 @@
         <v>3530.135301353014</v>
       </c>
       <c r="O53" s="5">
-        <v>3774.08774087741</v>
+        <v>3774.087740877409</v>
       </c>
       <c r="P53" s="5">
-        <v>4018.040180401804</v>
+        <v>1030.011342386806</v>
       </c>
       <c r="Q53" s="5">
-        <v>4261.9926199262</v>
+        <v>1030.011342386806</v>
       </c>
       <c r="R53" s="5">
-        <v>4391.143911439115</v>
+        <v>1151.609903640804</v>
       </c>
       <c r="S53" s="5">
         <v>0</v>
       </c>
       <c r="T53" s="5">
-        <v>4520.29520295203</v>
+        <v>1529.601893792821</v>
       </c>
     </row>
     <row r="54" spans="1:20">
@@ -3829,7 +3817,7 @@
         <v>0.32</v>
       </c>
       <c r="E54" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.32</v>
       </c>
       <c r="F54" s="6">
         <v>0.32</v>
@@ -3862,19 +3850,19 @@
         <v>0.5844444444444445</v>
       </c>
       <c r="P54" s="6">
-        <v>0.6222222222222222</v>
+        <v>0.32</v>
       </c>
       <c r="Q54" s="6">
-        <v>0.66</v>
+        <v>0.32</v>
       </c>
       <c r="R54" s="6">
-        <v>0.68</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="S54" s="6">
-        <v>0.7000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="T54" s="6">
-        <v>0.7000000000000001</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -3889,7 +3877,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F55" s="2">
         <v>0</v>
@@ -3922,19 +3910,19 @@
         <v>8</v>
       </c>
       <c r="P55" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q55" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R55" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="S55" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T55" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:20">
@@ -3949,7 +3937,7 @@
         <v>0.32</v>
       </c>
       <c r="E56" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.32</v>
       </c>
       <c r="F56" s="6">
         <v>0.32</v>
@@ -3982,19 +3970,19 @@
         <v>0.5844444444444445</v>
       </c>
       <c r="P56" s="6">
-        <v>0.6222222222222222</v>
+        <v>0.32</v>
       </c>
       <c r="Q56" s="6">
-        <v>0.66</v>
+        <v>0.32</v>
       </c>
       <c r="R56" s="6">
-        <v>0.68</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="S56" s="6">
-        <v>0.7000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="T56" s="6">
-        <v>0.7000000000000001</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="57" spans="1:20">
@@ -4013,23 +4001,23 @@
       <c r="E57" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F57" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K57" s="4" t="s">
-        <v>45</v>
+      <c r="F57" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="L57" s="4" t="s">
         <v>45</v>
@@ -4043,20 +4031,20 @@
       <c r="O57" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="P57" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q57" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R57" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="S57" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T57" s="4" t="s">
-        <v>45</v>
+      <c r="P57" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q57" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="R57" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="S57" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="T57" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:20">
@@ -4074,49 +4062,49 @@
         <v>0</v>
       </c>
       <c r="F58" s="5">
+        <v>1776.201733648542</v>
+      </c>
+      <c r="G58" s="5">
+        <v>1963.75098502758</v>
+      </c>
+      <c r="H58" s="5">
+        <v>2151.300236406619</v>
+      </c>
+      <c r="I58" s="5">
+        <v>2338.849487785658</v>
+      </c>
+      <c r="J58" s="5">
+        <v>2526.398739164697</v>
+      </c>
+      <c r="K58" s="5">
+        <v>2713.947990543735</v>
+      </c>
+      <c r="L58" s="5">
+        <v>0</v>
+      </c>
+      <c r="M58" s="5">
         <v>2066.420664206642</v>
       </c>
-      <c r="G58" s="5">
+      <c r="N58" s="5">
         <v>2066.420664206642</v>
       </c>
-      <c r="H58" s="5">
+      <c r="O58" s="5">
         <v>2310.373103731038</v>
       </c>
-      <c r="I58" s="5">
-        <v>2554.325543255432</v>
-      </c>
-      <c r="J58" s="5">
-        <v>2798.277982779828</v>
-      </c>
-      <c r="K58" s="5">
-        <v>3042.230422304223</v>
-      </c>
-      <c r="L58" s="5">
-        <v>0</v>
-      </c>
-      <c r="M58" s="5">
-        <v>3286.182861828619</v>
-      </c>
-      <c r="N58" s="5">
-        <v>3530.135301353014</v>
-      </c>
-      <c r="O58" s="5">
-        <v>3774.08774087741</v>
-      </c>
       <c r="P58" s="5">
-        <v>4018.040180401804</v>
+        <v>1030.011342386806</v>
       </c>
       <c r="Q58" s="5">
-        <v>4261.9926199262</v>
+        <v>1030.011342386806</v>
       </c>
       <c r="R58" s="5">
-        <v>1529.601893792821</v>
+        <v>1151.609903640804</v>
       </c>
       <c r="S58" s="5">
         <v>0</v>
       </c>
       <c r="T58" s="5">
-        <v>2066.420664206642</v>
+        <v>1273.208464894802</v>
       </c>
     </row>
     <row r="59" spans="1:20">
@@ -4134,49 +4122,49 @@
         <v>0.3577777777777778</v>
       </c>
       <c r="F59" s="6">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="G59" s="6">
-        <v>0.32</v>
+        <v>0.3955555555555555</v>
       </c>
       <c r="H59" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="I59" s="6">
+        <v>0.4711111111111111</v>
+      </c>
+      <c r="J59" s="6">
+        <v>0.5088888888888889</v>
+      </c>
+      <c r="K59" s="6">
+        <v>0.5466666666666666</v>
+      </c>
+      <c r="L59" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="M59" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="N59" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="O59" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="P59" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="Q59" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="R59" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="S59" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="J59" s="6">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="K59" s="6">
-        <v>0.4711111111111111</v>
-      </c>
-      <c r="L59" s="6">
-        <v>0.5088888888888889</v>
-      </c>
-      <c r="M59" s="6">
-        <v>0.5088888888888889</v>
-      </c>
-      <c r="N59" s="6">
-        <v>0.5466666666666666</v>
-      </c>
-      <c r="O59" s="6">
-        <v>0.5844444444444445</v>
-      </c>
-      <c r="P59" s="6">
-        <v>0.6222222222222222</v>
-      </c>
-      <c r="Q59" s="6">
-        <v>0.66</v>
-      </c>
-      <c r="R59" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="S59" s="6">
-        <v>0.32</v>
-      </c>
       <c r="T59" s="6">
-        <v>0.32</v>
+        <v>0.3955555555555555</v>
       </c>
     </row>
     <row r="60" spans="1:20">
@@ -4194,49 +4182,49 @@
         <v>2</v>
       </c>
       <c r="F60" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G60" s="2">
+        <v>3</v>
+      </c>
+      <c r="H60" s="2">
+        <v>4</v>
+      </c>
+      <c r="I60" s="2">
+        <v>5</v>
+      </c>
+      <c r="J60" s="2">
+        <v>6</v>
+      </c>
+      <c r="K60" s="2">
+        <v>7</v>
+      </c>
+      <c r="L60" s="2">
+        <v>0</v>
+      </c>
+      <c r="M60" s="2">
+        <v>0</v>
+      </c>
+      <c r="N60" s="2">
         <v>1</v>
       </c>
-      <c r="H60" s="2">
+      <c r="O60" s="2">
         <v>2</v>
       </c>
-      <c r="I60" s="2">
+      <c r="P60" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>1</v>
+      </c>
+      <c r="R60" s="2">
+        <v>2</v>
+      </c>
+      <c r="S60" s="2">
         <v>3</v>
       </c>
-      <c r="J60" s="2">
-        <v>4</v>
-      </c>
-      <c r="K60" s="2">
-        <v>5</v>
-      </c>
-      <c r="L60" s="2">
-        <v>6</v>
-      </c>
-      <c r="M60" s="2">
-        <v>6</v>
-      </c>
-      <c r="N60" s="2">
-        <v>7</v>
-      </c>
-      <c r="O60" s="2">
-        <v>8</v>
-      </c>
-      <c r="P60" s="2">
-        <v>9</v>
-      </c>
-      <c r="Q60" s="2">
-        <v>10</v>
-      </c>
-      <c r="R60" s="2">
-        <v>0</v>
-      </c>
-      <c r="S60" s="2">
-        <v>0</v>
-      </c>
       <c r="T60" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:20">
@@ -4254,49 +4242,49 @@
         <v>0.3577777777777778</v>
       </c>
       <c r="F61" s="6">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="G61" s="6">
-        <v>0.32</v>
+        <v>0.3955555555555555</v>
       </c>
       <c r="H61" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="I61" s="6">
+        <v>0.4711111111111111</v>
+      </c>
+      <c r="J61" s="6">
+        <v>0.5088888888888889</v>
+      </c>
+      <c r="K61" s="6">
+        <v>0.5466666666666666</v>
+      </c>
+      <c r="L61" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="M61" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="N61" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="O61" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="P61" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="Q61" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="R61" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="S61" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="J61" s="6">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="K61" s="6">
-        <v>0.4711111111111111</v>
-      </c>
-      <c r="L61" s="6">
-        <v>0.5088888888888889</v>
-      </c>
-      <c r="M61" s="6">
-        <v>0.5088888888888889</v>
-      </c>
-      <c r="N61" s="6">
-        <v>0.5466666666666666</v>
-      </c>
-      <c r="O61" s="6">
-        <v>0.5844444444444445</v>
-      </c>
-      <c r="P61" s="6">
-        <v>0.6222222222222222</v>
-      </c>
-      <c r="Q61" s="6">
-        <v>0.66</v>
-      </c>
-      <c r="R61" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="S61" s="6">
-        <v>0.32</v>
-      </c>
       <c r="T61" s="6">
-        <v>0.32</v>
+        <v>0.3955555555555555</v>
       </c>
     </row>
     <row r="62" spans="1:20">
@@ -4309,8 +4297,8 @@
       <c r="C62" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>44</v>
+      <c r="D62" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>45</v>
@@ -4342,22 +4330,22 @@
       <c r="N62" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O62" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="P62" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q62" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="R62" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="S62" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="T62" s="9" t="s">
+      <c r="O62" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P62" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q62" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R62" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S62" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T62" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4370,7 +4358,7 @@
         <v>1588.652482269503</v>
       </c>
       <c r="D63" s="5">
-        <v>1588.652482269503</v>
+        <v>2066.420664206642</v>
       </c>
       <c r="E63" s="5">
         <v>0</v>
@@ -4379,46 +4367,46 @@
         <v>2066.420664206642</v>
       </c>
       <c r="G63" s="5">
-        <v>2066.420664206642</v>
+        <v>2310.373103731038</v>
       </c>
       <c r="H63" s="5">
-        <v>2310.373103731038</v>
+        <v>2554.325543255432</v>
       </c>
       <c r="I63" s="5">
-        <v>2554.325543255432</v>
+        <v>2798.277982779828</v>
       </c>
       <c r="J63" s="5">
-        <v>2798.277982779828</v>
+        <v>3042.230422304223</v>
       </c>
       <c r="K63" s="5">
-        <v>3042.230422304223</v>
+        <v>3286.182861828619</v>
       </c>
       <c r="L63" s="5">
         <v>0</v>
       </c>
       <c r="M63" s="5">
-        <v>3286.182861828619</v>
+        <v>3530.135301353014</v>
       </c>
       <c r="N63" s="5">
-        <v>3530.135301353014</v>
+        <v>3774.08774087741</v>
       </c>
       <c r="O63" s="5">
-        <v>1030.011342386806</v>
+        <v>4018.040180401804</v>
       </c>
       <c r="P63" s="5">
+        <v>4261.9926199262</v>
+      </c>
+      <c r="Q63" s="5">
+        <v>4391.143911439115</v>
+      </c>
+      <c r="R63" s="5">
+        <v>4520.29520295203</v>
+      </c>
+      <c r="S63" s="5">
+        <v>0</v>
+      </c>
+      <c r="T63" s="5">
         <v>1529.601893792821</v>
-      </c>
-      <c r="Q63" s="5">
-        <v>1529.601893792821</v>
-      </c>
-      <c r="R63" s="5">
-        <v>1710.179895143362</v>
-      </c>
-      <c r="S63" s="5">
-        <v>0</v>
-      </c>
-      <c r="T63" s="5">
-        <v>1890.757896493903</v>
       </c>
     </row>
     <row r="64" spans="1:20">
@@ -4439,46 +4427,46 @@
         <v>0.32</v>
       </c>
       <c r="G64" s="6">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="H64" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.3955555555555555</v>
       </c>
       <c r="I64" s="6">
-        <v>0.3955555555555555</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="J64" s="6">
-        <v>0.4333333333333333</v>
+        <v>0.4711111111111111</v>
       </c>
       <c r="K64" s="6">
-        <v>0.4711111111111111</v>
+        <v>0.5088888888888889</v>
       </c>
       <c r="L64" s="6">
-        <v>0.5088888888888889</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="M64" s="6">
-        <v>0.5088888888888889</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="N64" s="6">
-        <v>0.5466666666666666</v>
+        <v>0.5844444444444445</v>
       </c>
       <c r="O64" s="6">
-        <v>0.32</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="P64" s="6">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="Q64" s="6">
-        <v>0.32</v>
+        <v>0.68</v>
       </c>
       <c r="R64" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="S64" s="6">
-        <v>0.3955555555555555</v>
+        <v>0.7200000000000001</v>
       </c>
       <c r="T64" s="6">
-        <v>0.3955555555555555</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="65" spans="1:20">
@@ -4490,55 +4478,55 @@
         <v>0</v>
       </c>
       <c r="D65" s="2">
+        <v>0</v>
+      </c>
+      <c r="E65" s="2">
         <v>1</v>
       </c>
-      <c r="E65" s="2">
-        <v>0</v>
-      </c>
       <c r="F65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H65" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I65" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J65" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K65" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L65" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M65" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N65" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O65" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P65" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q65" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R65" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="S65" s="2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="T65" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:20">
@@ -4559,46 +4547,46 @@
         <v>0.32</v>
       </c>
       <c r="G66" s="6">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="H66" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.3955555555555555</v>
       </c>
       <c r="I66" s="6">
-        <v>0.3955555555555555</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="J66" s="6">
-        <v>0.4333333333333333</v>
+        <v>0.4711111111111111</v>
       </c>
       <c r="K66" s="6">
-        <v>0.4711111111111111</v>
+        <v>0.5088888888888889</v>
       </c>
       <c r="L66" s="6">
-        <v>0.5088888888888889</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="M66" s="6">
-        <v>0.5088888888888889</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="N66" s="6">
-        <v>0.5466666666666666</v>
+        <v>0.5844444444444445</v>
       </c>
       <c r="O66" s="6">
-        <v>0.32</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="P66" s="6">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="Q66" s="6">
-        <v>0.32</v>
+        <v>0.68</v>
       </c>
       <c r="R66" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="S66" s="6">
-        <v>0.3955555555555555</v>
+        <v>0.7200000000000001</v>
       </c>
       <c r="T66" s="6">
-        <v>0.3955555555555555</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="67" spans="1:20">
@@ -4608,59 +4596,59 @@
       <c r="B67" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C67" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G67" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H67" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I67" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J67" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K67" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L67" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="M67" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="N67" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="O67" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="P67" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q67" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="R67" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="S67" s="9" t="s">
+      <c r="C67" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J67" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K67" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L67" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M67" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N67" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O67" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P67" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q67" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="R67" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="S67" s="8" t="s">
         <v>46</v>
       </c>
       <c r="T67" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:20">
@@ -4720,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="T68" s="5">
-        <v>1030.011342386806</v>
+        <v>3632.80449775795</v>
       </c>
     </row>
     <row r="69" spans="1:20">
@@ -4780,7 +4768,7 @@
         <v>0.76</v>
       </c>
       <c r="T69" s="6">
-        <v>0.32</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="70" spans="1:20">
@@ -4840,7 +4828,7 @@
         <v>15</v>
       </c>
       <c r="T70" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:20">
@@ -4900,7 +4888,7 @@
         <v>0.76</v>
       </c>
       <c r="T71" s="6">
-        <v>0.32</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="72" spans="1:20">
@@ -4910,58 +4898,58 @@
       <c r="B72" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C72" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F72" s="9" t="s">
+      <c r="C72" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F72" s="8" t="s">
         <v>46</v>
       </c>
       <c r="G72" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H72" s="8" t="s">
+      <c r="I72" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I72" s="8" t="s">
+      <c r="J72" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J72" s="8" t="s">
+      <c r="K72" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K72" s="8" t="s">
+      <c r="L72" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="L72" s="8" t="s">
+      <c r="M72" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M72" s="8" t="s">
+      <c r="N72" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="N72" s="8" t="s">
+      <c r="O72" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="O72" s="8" t="s">
+      <c r="P72" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P72" s="8" t="s">
+      <c r="Q72" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="Q72" s="8" t="s">
+      <c r="R72" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="R72" s="8" t="s">
+      <c r="S72" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="S72" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="T72" s="9" t="s">
+      <c r="T72" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4983,40 +4971,40 @@
         <v>1890.757896493903</v>
       </c>
       <c r="G73" s="5">
-        <v>1030.011342386806</v>
+        <v>2071.335897844445</v>
       </c>
       <c r="H73" s="5">
         <v>1030.011342386806</v>
       </c>
       <c r="I73" s="5">
+        <v>1030.011342386806</v>
+      </c>
+      <c r="J73" s="5">
         <v>1151.609903640804</v>
       </c>
-      <c r="J73" s="5">
+      <c r="K73" s="5">
         <v>1273.208464894802</v>
       </c>
-      <c r="K73" s="5">
+      <c r="L73" s="5">
+        <v>0</v>
+      </c>
+      <c r="M73" s="5">
         <v>1394.8070261488</v>
       </c>
-      <c r="L73" s="5">
-        <v>0</v>
-      </c>
-      <c r="M73" s="5">
+      <c r="N73" s="5">
         <v>1516.405587402798</v>
       </c>
-      <c r="N73" s="5">
+      <c r="O73" s="5">
         <v>1638.004148656796</v>
       </c>
-      <c r="O73" s="5">
+      <c r="P73" s="5">
         <v>1759.602709910793</v>
       </c>
-      <c r="P73" s="5">
+      <c r="Q73" s="5">
         <v>1881.201271164792</v>
       </c>
-      <c r="Q73" s="5">
+      <c r="R73" s="5">
         <v>2002.799832418789</v>
-      </c>
-      <c r="R73" s="5">
-        <v>2124.398393672787</v>
       </c>
       <c r="S73" s="5">
         <v>0</v>
@@ -5043,43 +5031,43 @@
         <v>0.3955555555555555</v>
       </c>
       <c r="G74" s="6">
-        <v>0.32</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="H74" s="6">
         <v>0.32</v>
       </c>
       <c r="I74" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.32</v>
       </c>
       <c r="J74" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="K74" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="K74" s="6">
+      <c r="L74" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="L74" s="6">
+      <c r="M74" s="6">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="N74" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="M74" s="6">
-        <v>0.4711111111111111</v>
-      </c>
-      <c r="N74" s="6">
+      <c r="O74" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="O74" s="6">
+      <c r="P74" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="P74" s="6">
+      <c r="Q74" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="Q74" s="6">
+      <c r="R74" s="6">
         <v>0.6222222222222222</v>
       </c>
-      <c r="R74" s="6">
+      <c r="S74" s="6">
         <v>0.66</v>
-      </c>
-      <c r="S74" s="6">
-        <v>0.68</v>
       </c>
       <c r="T74" s="6">
         <v>0.32</v>
@@ -5103,43 +5091,43 @@
         <v>3</v>
       </c>
       <c r="G75" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H75" s="2">
+        <v>0</v>
+      </c>
+      <c r="I75" s="2">
         <v>1</v>
       </c>
-      <c r="I75" s="2">
+      <c r="J75" s="2">
         <v>2</v>
       </c>
-      <c r="J75" s="2">
+      <c r="K75" s="2">
         <v>3</v>
       </c>
-      <c r="K75" s="2">
+      <c r="L75" s="2">
         <v>4</v>
       </c>
-      <c r="L75" s="2">
+      <c r="M75" s="2">
+        <v>4</v>
+      </c>
+      <c r="N75" s="2">
         <v>5</v>
       </c>
-      <c r="M75" s="2">
-        <v>5</v>
-      </c>
-      <c r="N75" s="2">
+      <c r="O75" s="2">
         <v>6</v>
       </c>
-      <c r="O75" s="2">
+      <c r="P75" s="2">
         <v>7</v>
       </c>
-      <c r="P75" s="2">
+      <c r="Q75" s="2">
         <v>8</v>
       </c>
-      <c r="Q75" s="2">
+      <c r="R75" s="2">
         <v>9</v>
       </c>
-      <c r="R75" s="2">
+      <c r="S75" s="2">
         <v>10</v>
-      </c>
-      <c r="S75" s="2">
-        <v>11</v>
       </c>
       <c r="T75" s="2">
         <v>0</v>
@@ -5163,43 +5151,43 @@
         <v>0.3955555555555555</v>
       </c>
       <c r="G76" s="6">
-        <v>0.32</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="H76" s="6">
         <v>0.32</v>
       </c>
       <c r="I76" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.32</v>
       </c>
       <c r="J76" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="K76" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="K76" s="6">
+      <c r="L76" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="L76" s="6">
+      <c r="M76" s="6">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="N76" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="M76" s="6">
-        <v>0.4711111111111111</v>
-      </c>
-      <c r="N76" s="6">
+      <c r="O76" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="O76" s="6">
+      <c r="P76" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="P76" s="6">
+      <c r="Q76" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="Q76" s="6">
+      <c r="R76" s="6">
         <v>0.6222222222222222</v>
       </c>
-      <c r="R76" s="6">
+      <c r="S76" s="6">
         <v>0.66</v>
-      </c>
-      <c r="S76" s="6">
-        <v>0.68</v>
       </c>
       <c r="T76" s="6">
         <v>0.32</v>
@@ -5212,59 +5200,59 @@
       <c r="B77" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C77" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G77" s="9" t="s">
+      <c r="C77" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G77" s="8" t="s">
         <v>46</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L77" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M77" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N77" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O77" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P77" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q77" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R77" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S77" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T77" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -5288,43 +5276,43 @@
         <v>2071.335897844445</v>
       </c>
       <c r="H78" s="5">
-        <v>1030.011342386806</v>
+        <v>2251.913899194986</v>
       </c>
       <c r="I78" s="5">
-        <v>1030.011342386806</v>
+        <v>2432.491900545528</v>
       </c>
       <c r="J78" s="5">
-        <v>1151.609903640804</v>
+        <v>2613.069901896069</v>
       </c>
       <c r="K78" s="5">
-        <v>1273.208464894802</v>
+        <v>2793.647903246611</v>
       </c>
       <c r="L78" s="5">
         <v>0</v>
       </c>
       <c r="M78" s="5">
-        <v>1394.8070261488</v>
+        <v>2974.225904597151</v>
       </c>
       <c r="N78" s="5">
-        <v>1516.405587402798</v>
+        <v>3154.803905947693</v>
       </c>
       <c r="O78" s="5">
-        <v>1638.004148656796</v>
+        <v>3250.404024309745</v>
       </c>
       <c r="P78" s="5">
-        <v>1759.602709910793</v>
+        <v>3346.004142671796</v>
       </c>
       <c r="Q78" s="5">
-        <v>1881.201271164792</v>
+        <v>3441.604261033847</v>
       </c>
       <c r="R78" s="5">
-        <v>2002.799832418789</v>
+        <v>3537.204379395898</v>
       </c>
       <c r="S78" s="5">
         <v>0</v>
       </c>
       <c r="T78" s="5">
-        <v>2124.398393672787</v>
+        <v>3632.80449775795</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -5348,43 +5336,43 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H79" s="6">
-        <v>0.32</v>
+        <v>0.4711111111111111</v>
       </c>
       <c r="I79" s="6">
-        <v>0.32</v>
+        <v>0.5088888888888889</v>
       </c>
       <c r="J79" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="K79" s="6">
-        <v>0.3955555555555555</v>
+        <v>0.5844444444444445</v>
       </c>
       <c r="L79" s="6">
-        <v>0.4333333333333333</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="M79" s="6">
-        <v>0.4333333333333333</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="N79" s="6">
-        <v>0.4711111111111111</v>
+        <v>0.66</v>
       </c>
       <c r="O79" s="6">
-        <v>0.5088888888888889</v>
+        <v>0.68</v>
       </c>
       <c r="P79" s="6">
-        <v>0.5466666666666666</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="Q79" s="6">
-        <v>0.5844444444444445</v>
+        <v>0.7200000000000001</v>
       </c>
       <c r="R79" s="6">
-        <v>0.6222222222222222</v>
+        <v>0.74</v>
       </c>
       <c r="S79" s="6">
-        <v>0.66</v>
+        <v>0.76</v>
       </c>
       <c r="T79" s="6">
-        <v>0.66</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -5408,43 +5396,43 @@
         <v>4</v>
       </c>
       <c r="H80" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I80" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J80" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K80" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L80" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M80" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N80" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O80" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="P80" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q80" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="R80" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="S80" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T80" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:20">
@@ -5468,43 +5456,43 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H81" s="6">
-        <v>0.32</v>
+        <v>0.4711111111111111</v>
       </c>
       <c r="I81" s="6">
-        <v>0.32</v>
+        <v>0.5088888888888889</v>
       </c>
       <c r="J81" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="K81" s="6">
-        <v>0.3955555555555555</v>
+        <v>0.5844444444444445</v>
       </c>
       <c r="L81" s="6">
-        <v>0.4333333333333333</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="M81" s="6">
-        <v>0.4333333333333333</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="N81" s="6">
-        <v>0.4711111111111111</v>
+        <v>0.66</v>
       </c>
       <c r="O81" s="6">
-        <v>0.5088888888888889</v>
+        <v>0.68</v>
       </c>
       <c r="P81" s="6">
-        <v>0.5466666666666666</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="Q81" s="6">
-        <v>0.5844444444444445</v>
+        <v>0.7200000000000001</v>
       </c>
       <c r="R81" s="6">
-        <v>0.6222222222222222</v>
+        <v>0.74</v>
       </c>
       <c r="S81" s="6">
-        <v>0.66</v>
+        <v>0.76</v>
       </c>
       <c r="T81" s="6">
-        <v>0.66</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="82" spans="1:20">
@@ -5515,57 +5503,57 @@
         <v>39</v>
       </c>
       <c r="C82" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G82" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="H82" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E82" s="8" t="s">
+      <c r="I82" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F82" s="8" t="s">
+      <c r="J82" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G82" s="8" t="s">
+      <c r="K82" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H82" s="8" t="s">
+      <c r="L82" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I82" s="8" t="s">
+      <c r="M82" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J82" s="8" t="s">
+      <c r="N82" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K82" s="8" t="s">
+      <c r="O82" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="L82" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M82" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="N82" s="8" t="s">
+      <c r="P82" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="O82" s="8" t="s">
+      <c r="Q82" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P82" s="8" t="s">
+      <c r="R82" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="Q82" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="R82" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="S82" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="T82" s="8" t="s">
+      <c r="S82" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="T82" s="7" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5575,58 +5563,58 @@
         <v>40</v>
       </c>
       <c r="C83" s="5">
+        <v>1529.601893792821</v>
+      </c>
+      <c r="D83" s="5">
+        <v>1710.179895143362</v>
+      </c>
+      <c r="E83" s="5">
+        <v>0</v>
+      </c>
+      <c r="F83" s="5">
+        <v>1890.757896493903</v>
+      </c>
+      <c r="G83" s="5">
         <v>1030.011342386806</v>
       </c>
-      <c r="D83" s="5">
+      <c r="H83" s="5">
         <v>1030.011342386806</v>
       </c>
-      <c r="E83" s="5">
-        <v>0</v>
-      </c>
-      <c r="F83" s="5">
+      <c r="I83" s="5">
         <v>1151.609903640804</v>
       </c>
-      <c r="G83" s="5">
+      <c r="J83" s="5">
         <v>1273.208464894802</v>
       </c>
-      <c r="H83" s="5">
+      <c r="K83" s="5">
         <v>1394.8070261488</v>
       </c>
-      <c r="I83" s="5">
+      <c r="L83" s="5">
+        <v>0</v>
+      </c>
+      <c r="M83" s="5">
         <v>1516.405587402798</v>
       </c>
-      <c r="J83" s="5">
+      <c r="N83" s="5">
         <v>1638.004148656796</v>
       </c>
-      <c r="K83" s="5">
+      <c r="O83" s="5">
         <v>1759.602709910793</v>
       </c>
-      <c r="L83" s="5">
-        <v>0</v>
-      </c>
-      <c r="M83" s="5">
-        <v>533.3333333333334</v>
-      </c>
-      <c r="N83" s="5">
-        <v>1030.011342386806</v>
-      </c>
-      <c r="O83" s="5">
-        <v>1030.011342386806</v>
-      </c>
       <c r="P83" s="5">
-        <v>1151.609903640804</v>
+        <v>1881.201271164792</v>
       </c>
       <c r="Q83" s="5">
-        <v>1529.601893792821</v>
+        <v>2002.799832418789</v>
       </c>
       <c r="R83" s="5">
-        <v>1529.601893792821</v>
+        <v>2124.398393672787</v>
       </c>
       <c r="S83" s="5">
         <v>0</v>
       </c>
       <c r="T83" s="5">
-        <v>1030.011342386806</v>
+        <v>2188.774102571963</v>
       </c>
     </row>
     <row r="84" spans="1:20">
@@ -5638,55 +5626,55 @@
         <v>0.32</v>
       </c>
       <c r="D84" s="6">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="E84" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.3955555555555555</v>
       </c>
       <c r="F84" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.3955555555555555</v>
       </c>
       <c r="G84" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="H84" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="I84" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="J84" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="H84" s="6">
+      <c r="K84" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="I84" s="6">
+      <c r="L84" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="J84" s="6">
+      <c r="M84" s="6">
+        <v>0.4711111111111111</v>
+      </c>
+      <c r="N84" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="K84" s="6">
+      <c r="O84" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="L84" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="M84" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="N84" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="O84" s="6">
-        <v>0.32</v>
-      </c>
       <c r="P84" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.5844444444444445</v>
       </c>
       <c r="Q84" s="6">
-        <v>0.32</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="R84" s="6">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="S84" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.68</v>
       </c>
       <c r="T84" s="6">
-        <v>0.32</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="85" spans="1:20">
@@ -5695,58 +5683,58 @@
         <v>42</v>
       </c>
       <c r="C85" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" s="2">
+        <v>2</v>
+      </c>
+      <c r="E85" s="2">
+        <v>3</v>
+      </c>
+      <c r="F85" s="2">
+        <v>3</v>
+      </c>
+      <c r="G85" s="2">
+        <v>0</v>
+      </c>
+      <c r="H85" s="2">
         <v>1</v>
       </c>
-      <c r="E85" s="2">
+      <c r="I85" s="2">
         <v>2</v>
       </c>
-      <c r="F85" s="2">
-        <v>2</v>
-      </c>
-      <c r="G85" s="2">
+      <c r="J85" s="2">
         <v>3</v>
       </c>
-      <c r="H85" s="2">
+      <c r="K85" s="2">
         <v>4</v>
       </c>
-      <c r="I85" s="2">
+      <c r="L85" s="2">
         <v>5</v>
       </c>
-      <c r="J85" s="2">
+      <c r="M85" s="2">
+        <v>5</v>
+      </c>
+      <c r="N85" s="2">
         <v>6</v>
       </c>
-      <c r="K85" s="2">
+      <c r="O85" s="2">
         <v>7</v>
       </c>
-      <c r="L85" s="2">
-        <v>0</v>
-      </c>
-      <c r="M85" s="2">
-        <v>0</v>
-      </c>
-      <c r="N85" s="2">
-        <v>0</v>
-      </c>
-      <c r="O85" s="2">
-        <v>1</v>
-      </c>
       <c r="P85" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Q85" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R85" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S85" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="T85" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:20">
@@ -5758,55 +5746,55 @@
         <v>0.32</v>
       </c>
       <c r="D86" s="6">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="E86" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.3955555555555555</v>
       </c>
       <c r="F86" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.3955555555555555</v>
       </c>
       <c r="G86" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="H86" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="I86" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="J86" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="H86" s="6">
+      <c r="K86" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="I86" s="6">
+      <c r="L86" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="J86" s="6">
+      <c r="M86" s="6">
+        <v>0.4711111111111111</v>
+      </c>
+      <c r="N86" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="K86" s="6">
+      <c r="O86" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="L86" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="M86" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="N86" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="O86" s="6">
-        <v>0.32</v>
-      </c>
       <c r="P86" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.5844444444444445</v>
       </c>
       <c r="Q86" s="6">
-        <v>0.32</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="R86" s="6">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="S86" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.68</v>
       </c>
       <c r="T86" s="6">
-        <v>0.32</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="87" spans="1:20">
@@ -5817,57 +5805,57 @@
         <v>39</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G87" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H87" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I87" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J87" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K87" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L87" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="M87" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="N87" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="O87" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="P87" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q87" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="R87" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="S87" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="T87" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J87" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K87" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L87" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M87" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N87" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O87" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P87" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q87" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="R87" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="S87" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="T87" s="9" t="s">
         <v>48</v>
       </c>
     </row>
@@ -5877,52 +5865,52 @@
         <v>40</v>
       </c>
       <c r="C88" s="5">
-        <v>1030.011342386806</v>
+        <v>1529.601893792821</v>
       </c>
       <c r="D88" s="5">
-        <v>1030.011342386806</v>
+        <v>1710.179895143362</v>
       </c>
       <c r="E88" s="5">
         <v>0</v>
       </c>
       <c r="F88" s="5">
-        <v>1151.609903640804</v>
+        <v>1890.757896493903</v>
       </c>
       <c r="G88" s="5">
-        <v>1529.601893792821</v>
+        <v>2071.335897844445</v>
       </c>
       <c r="H88" s="5">
-        <v>1529.601893792821</v>
+        <v>2251.913899194986</v>
       </c>
       <c r="I88" s="5">
-        <v>1710.179895143362</v>
+        <v>2432.491900545528</v>
       </c>
       <c r="J88" s="5">
-        <v>1890.757896493903</v>
+        <v>2613.069901896069</v>
       </c>
       <c r="K88" s="5">
-        <v>2071.335897844445</v>
+        <v>2793.647903246611</v>
       </c>
       <c r="L88" s="5">
         <v>0</v>
       </c>
       <c r="M88" s="5">
-        <v>2251.913899194986</v>
+        <v>2974.225904597151</v>
       </c>
       <c r="N88" s="5">
-        <v>2432.491900545528</v>
+        <v>3154.803905947693</v>
       </c>
       <c r="O88" s="5">
-        <v>2613.069901896069</v>
+        <v>3250.404024309745</v>
       </c>
       <c r="P88" s="5">
-        <v>2793.647903246611</v>
+        <v>3346.004142671796</v>
       </c>
       <c r="Q88" s="5">
-        <v>2974.225904597151</v>
+        <v>3441.604261033847</v>
       </c>
       <c r="R88" s="5">
-        <v>533.3333333333334</v>
+        <v>3537.204379395898</v>
       </c>
       <c r="S88" s="5">
         <v>0</v>
@@ -5940,52 +5928,52 @@
         <v>0.32</v>
       </c>
       <c r="D89" s="6">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="E89" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.3955555555555555</v>
       </c>
       <c r="F89" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.3955555555555555</v>
       </c>
       <c r="G89" s="6">
-        <v>0.32</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="H89" s="6">
-        <v>0.32</v>
+        <v>0.4711111111111111</v>
       </c>
       <c r="I89" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.5088888888888889</v>
       </c>
       <c r="J89" s="6">
-        <v>0.3955555555555555</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="K89" s="6">
-        <v>0.4333333333333333</v>
+        <v>0.5844444444444445</v>
       </c>
       <c r="L89" s="6">
-        <v>0.4711111111111111</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="M89" s="6">
-        <v>0.4711111111111111</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="N89" s="6">
-        <v>0.5088888888888889</v>
+        <v>0.66</v>
       </c>
       <c r="O89" s="6">
-        <v>0.5466666666666666</v>
+        <v>0.68</v>
       </c>
       <c r="P89" s="6">
-        <v>0.5844444444444445</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="Q89" s="6">
-        <v>0.6222222222222222</v>
+        <v>0.7200000000000001</v>
       </c>
       <c r="R89" s="6">
-        <v>0.32</v>
+        <v>0.74</v>
       </c>
       <c r="S89" s="6">
-        <v>0.32</v>
+        <v>0.76</v>
       </c>
       <c r="T89" s="6">
         <v>0.32</v>
@@ -5997,58 +5985,58 @@
         <v>42</v>
       </c>
       <c r="C90" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E90" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F90" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G90" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H90" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I90" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J90" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K90" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L90" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M90" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N90" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O90" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="P90" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Q90" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="R90" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="S90" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="T90" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:20">
@@ -6060,52 +6048,52 @@
         <v>0.32</v>
       </c>
       <c r="D91" s="6">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="E91" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.3955555555555555</v>
       </c>
       <c r="F91" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.3955555555555555</v>
       </c>
       <c r="G91" s="6">
-        <v>0.32</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="H91" s="6">
-        <v>0.32</v>
+        <v>0.4711111111111111</v>
       </c>
       <c r="I91" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.5088888888888889</v>
       </c>
       <c r="J91" s="6">
-        <v>0.3955555555555555</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="K91" s="6">
-        <v>0.4333333333333333</v>
+        <v>0.5844444444444445</v>
       </c>
       <c r="L91" s="6">
-        <v>0.4711111111111111</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="M91" s="6">
-        <v>0.4711111111111111</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="N91" s="6">
-        <v>0.5088888888888889</v>
+        <v>0.66</v>
       </c>
       <c r="O91" s="6">
-        <v>0.5466666666666666</v>
+        <v>0.68</v>
       </c>
       <c r="P91" s="6">
-        <v>0.5844444444444445</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="Q91" s="6">
-        <v>0.6222222222222222</v>
+        <v>0.7200000000000001</v>
       </c>
       <c r="R91" s="6">
-        <v>0.32</v>
+        <v>0.74</v>
       </c>
       <c r="S91" s="6">
-        <v>0.32</v>
+        <v>0.76</v>
       </c>
       <c r="T91" s="6">
         <v>0.32</v>
@@ -6118,58 +6106,58 @@
       <c r="B92" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C92" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E92" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F92" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G92" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H92" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I92" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J92" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K92" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L92" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="M92" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="N92" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="O92" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="P92" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q92" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="R92" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="S92" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="T92" s="9" t="s">
+      <c r="C92" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J92" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K92" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L92" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M92" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N92" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="O92" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P92" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q92" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="R92" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="S92" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="T92" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6182,55 +6170,55 @@
         <v>1529.601893792821</v>
       </c>
       <c r="D93" s="5">
-        <v>1710.179895143362</v>
+        <v>1030.011342386806</v>
       </c>
       <c r="E93" s="5">
         <v>0</v>
       </c>
       <c r="F93" s="5">
-        <v>1890.757896493903</v>
+        <v>1030.011342386806</v>
       </c>
       <c r="G93" s="5">
-        <v>2071.335897844445</v>
+        <v>1151.609903640804</v>
       </c>
       <c r="H93" s="5">
-        <v>2251.913899194986</v>
+        <v>1273.208464894802</v>
       </c>
       <c r="I93" s="5">
-        <v>2432.491900545528</v>
+        <v>1394.8070261488</v>
       </c>
       <c r="J93" s="5">
-        <v>2613.069901896069</v>
+        <v>1516.405587402798</v>
       </c>
       <c r="K93" s="5">
-        <v>2793.647903246611</v>
+        <v>1638.004148656796</v>
       </c>
       <c r="L93" s="5">
         <v>0</v>
       </c>
       <c r="M93" s="5">
-        <v>2974.225904597151</v>
+        <v>1759.602709910793</v>
       </c>
       <c r="N93" s="5">
-        <v>3154.803905947693</v>
+        <v>1881.201271164792</v>
       </c>
       <c r="O93" s="5">
-        <v>3250.404024309745</v>
+        <v>2002.799832418789</v>
       </c>
       <c r="P93" s="5">
-        <v>3346.004142671796</v>
+        <v>2124.398393672787</v>
       </c>
       <c r="Q93" s="5">
-        <v>3441.604261033847</v>
+        <v>2188.774102571963</v>
       </c>
       <c r="R93" s="5">
-        <v>3537.204379395898</v>
+        <v>2253.149811471138</v>
       </c>
       <c r="S93" s="5">
         <v>0</v>
       </c>
       <c r="T93" s="5">
-        <v>3632.80449775795</v>
+        <v>1529.601893792821</v>
       </c>
     </row>
     <row r="94" spans="1:20">
@@ -6242,55 +6230,55 @@
         <v>0.32</v>
       </c>
       <c r="D94" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.32</v>
       </c>
       <c r="E94" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="F94" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="G94" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="H94" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="F94" s="6">
-        <v>0.3955555555555555</v>
-      </c>
-      <c r="G94" s="6">
+      <c r="I94" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="H94" s="6">
+      <c r="J94" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="I94" s="6">
+      <c r="K94" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="J94" s="6">
+      <c r="L94" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="K94" s="6">
+      <c r="M94" s="6">
+        <v>0.5466666666666666</v>
+      </c>
+      <c r="N94" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="L94" s="6">
+      <c r="O94" s="6">
         <v>0.6222222222222222</v>
       </c>
-      <c r="M94" s="6">
-        <v>0.6222222222222222</v>
-      </c>
-      <c r="N94" s="6">
+      <c r="P94" s="6">
         <v>0.66</v>
       </c>
-      <c r="O94" s="6">
+      <c r="Q94" s="6">
         <v>0.68</v>
       </c>
-      <c r="P94" s="6">
+      <c r="R94" s="6">
         <v>0.7000000000000001</v>
       </c>
-      <c r="Q94" s="6">
+      <c r="S94" s="6">
         <v>0.7200000000000001</v>
       </c>
-      <c r="R94" s="6">
-        <v>0.74</v>
-      </c>
-      <c r="S94" s="6">
-        <v>0.76</v>
-      </c>
       <c r="T94" s="6">
-        <v>0.76</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="95" spans="1:20">
@@ -6302,55 +6290,55 @@
         <v>1</v>
       </c>
       <c r="D95" s="2">
+        <v>0</v>
+      </c>
+      <c r="E95" s="2">
+        <v>1</v>
+      </c>
+      <c r="F95" s="2">
+        <v>1</v>
+      </c>
+      <c r="G95" s="2">
         <v>2</v>
       </c>
-      <c r="E95" s="2">
+      <c r="H95" s="2">
         <v>3</v>
       </c>
-      <c r="F95" s="2">
-        <v>3</v>
-      </c>
-      <c r="G95" s="2">
+      <c r="I95" s="2">
         <v>4</v>
       </c>
-      <c r="H95" s="2">
+      <c r="J95" s="2">
         <v>5</v>
       </c>
-      <c r="I95" s="2">
+      <c r="K95" s="2">
         <v>6</v>
       </c>
-      <c r="J95" s="2">
+      <c r="L95" s="2">
         <v>7</v>
       </c>
-      <c r="K95" s="2">
+      <c r="M95" s="2">
+        <v>7</v>
+      </c>
+      <c r="N95" s="2">
         <v>8</v>
       </c>
-      <c r="L95" s="2">
+      <c r="O95" s="2">
         <v>9</v>
       </c>
-      <c r="M95" s="2">
-        <v>9</v>
-      </c>
-      <c r="N95" s="2">
+      <c r="P95" s="2">
         <v>10</v>
       </c>
-      <c r="O95" s="2">
+      <c r="Q95" s="2">
         <v>11</v>
       </c>
-      <c r="P95" s="2">
+      <c r="R95" s="2">
         <v>12</v>
       </c>
-      <c r="Q95" s="2">
+      <c r="S95" s="2">
         <v>13</v>
       </c>
-      <c r="R95" s="2">
-        <v>14</v>
-      </c>
-      <c r="S95" s="2">
-        <v>15</v>
-      </c>
       <c r="T95" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:20">
@@ -6362,55 +6350,55 @@
         <v>0.32</v>
       </c>
       <c r="D96" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.32</v>
       </c>
       <c r="E96" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="F96" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="G96" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="H96" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="F96" s="6">
-        <v>0.3955555555555555</v>
-      </c>
-      <c r="G96" s="6">
+      <c r="I96" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="H96" s="6">
+      <c r="J96" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="I96" s="6">
+      <c r="K96" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="J96" s="6">
+      <c r="L96" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="K96" s="6">
+      <c r="M96" s="6">
+        <v>0.5466666666666666</v>
+      </c>
+      <c r="N96" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="L96" s="6">
+      <c r="O96" s="6">
         <v>0.6222222222222222</v>
       </c>
-      <c r="M96" s="6">
-        <v>0.6222222222222222</v>
-      </c>
-      <c r="N96" s="6">
+      <c r="P96" s="6">
         <v>0.66</v>
       </c>
-      <c r="O96" s="6">
+      <c r="Q96" s="6">
         <v>0.68</v>
       </c>
-      <c r="P96" s="6">
+      <c r="R96" s="6">
         <v>0.7000000000000001</v>
       </c>
-      <c r="Q96" s="6">
+      <c r="S96" s="6">
         <v>0.7200000000000001</v>
       </c>
-      <c r="R96" s="6">
-        <v>0.74</v>
-      </c>
-      <c r="S96" s="6">
-        <v>0.76</v>
-      </c>
       <c r="T96" s="6">
-        <v>0.76</v>
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>

--- a/result/Production_Plan_Report.xlsx
+++ b/result/Production_Plan_Report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="50">
   <si>
     <t>Line</t>
   </si>
@@ -160,6 +160,9 @@
     <t>245N010</t>
   </si>
   <si>
+    <t>245F040</t>
+  </si>
+  <si>
     <t>245F042</t>
   </si>
 </sst>
@@ -196,7 +199,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,6 +227,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -294,6 +303,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -676,32 +688,32 @@
       <c r="D2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>45</v>
+      <c r="E2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>45</v>
@@ -740,49 +752,49 @@
         <v>0</v>
       </c>
       <c r="F3" s="5">
+        <v>1776.201733648542</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1963.75098502758</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2151.300236406619</v>
+      </c>
+      <c r="I3" s="5">
+        <v>2338.849487785658</v>
+      </c>
+      <c r="J3" s="5">
+        <v>2526.398739164697</v>
+      </c>
+      <c r="K3" s="5">
+        <v>2713.947990543735</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>2901.497241922774</v>
+      </c>
+      <c r="N3" s="5">
         <v>2066.420664206642</v>
       </c>
-      <c r="G3" s="5">
+      <c r="O3" s="5">
         <v>2066.420664206642</v>
       </c>
-      <c r="H3" s="5">
+      <c r="P3" s="5">
         <v>2310.373103731038</v>
       </c>
-      <c r="I3" s="5">
+      <c r="Q3" s="5">
         <v>2554.325543255432</v>
       </c>
-      <c r="J3" s="5">
+      <c r="R3" s="5">
         <v>2798.277982779828</v>
       </c>
-      <c r="K3" s="5">
+      <c r="S3" s="5">
+        <v>0</v>
+      </c>
+      <c r="T3" s="5">
         <v>3042.230422304223</v>
-      </c>
-      <c r="L3" s="5">
-        <v>0</v>
-      </c>
-      <c r="M3" s="5">
-        <v>3286.182861828619</v>
-      </c>
-      <c r="N3" s="5">
-        <v>3530.135301353014</v>
-      </c>
-      <c r="O3" s="5">
-        <v>3774.087740877409</v>
-      </c>
-      <c r="P3" s="5">
-        <v>4018.040180401804</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>4261.9926199262</v>
-      </c>
-      <c r="R3" s="5">
-        <v>4391.143911439115</v>
-      </c>
-      <c r="S3" s="5">
-        <v>0</v>
-      </c>
-      <c r="T3" s="5">
-        <v>4520.29520295203</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -797,52 +809,52 @@
         <v>0.32</v>
       </c>
       <c r="E4" s="6">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="F4" s="6">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="G4" s="6">
-        <v>0.32</v>
+        <v>0.3955555555555555</v>
       </c>
       <c r="H4" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="I4" s="6">
+        <v>0.4711111111111111</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.5088888888888889</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0.5466666666666666</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0.5844444444444445</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0.5844444444444445</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="Q4" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="J4" s="6">
+      <c r="R4" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="K4" s="6">
+      <c r="S4" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="L4" s="6">
-        <v>0.5088888888888889</v>
-      </c>
-      <c r="M4" s="6">
-        <v>0.5088888888888889</v>
-      </c>
-      <c r="N4" s="6">
-        <v>0.5466666666666666</v>
-      </c>
-      <c r="O4" s="6">
-        <v>0.5844444444444445</v>
-      </c>
-      <c r="P4" s="6">
-        <v>0.6222222222222222</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>0.66</v>
-      </c>
-      <c r="R4" s="6">
-        <v>0.68</v>
-      </c>
-      <c r="S4" s="6">
-        <v>0.7000000000000001</v>
-      </c>
       <c r="T4" s="6">
-        <v>0.7000000000000001</v>
+        <v>0.4711111111111111</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -857,52 +869,52 @@
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" s="2">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2">
+        <v>5</v>
+      </c>
+      <c r="J5" s="2">
+        <v>6</v>
+      </c>
+      <c r="K5" s="2">
+        <v>7</v>
+      </c>
+      <c r="L5" s="2">
+        <v>8</v>
+      </c>
+      <c r="M5" s="2">
+        <v>8</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
         <v>1</v>
       </c>
-      <c r="H5" s="2">
+      <c r="P5" s="2">
         <v>2</v>
       </c>
-      <c r="I5" s="2">
+      <c r="Q5" s="2">
         <v>3</v>
       </c>
-      <c r="J5" s="2">
+      <c r="R5" s="2">
         <v>4</v>
       </c>
-      <c r="K5" s="2">
+      <c r="S5" s="2">
         <v>5</v>
       </c>
-      <c r="L5" s="2">
-        <v>6</v>
-      </c>
-      <c r="M5" s="2">
-        <v>6</v>
-      </c>
-      <c r="N5" s="2">
-        <v>7</v>
-      </c>
-      <c r="O5" s="2">
-        <v>8</v>
-      </c>
-      <c r="P5" s="2">
-        <v>9</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>10</v>
-      </c>
-      <c r="R5" s="2">
-        <v>11</v>
-      </c>
-      <c r="S5" s="2">
-        <v>12</v>
-      </c>
       <c r="T5" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -917,52 +929,52 @@
         <v>0.32</v>
       </c>
       <c r="E6" s="6">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="F6" s="6">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="G6" s="6">
-        <v>0.32</v>
+        <v>0.3955555555555555</v>
       </c>
       <c r="H6" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="I6" s="6">
+        <v>0.4711111111111111</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.5088888888888889</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0.5466666666666666</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0.5844444444444445</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0.5844444444444445</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="Q6" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="J6" s="6">
+      <c r="R6" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="K6" s="6">
+      <c r="S6" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="L6" s="6">
-        <v>0.5088888888888889</v>
-      </c>
-      <c r="M6" s="6">
-        <v>0.5088888888888889</v>
-      </c>
-      <c r="N6" s="6">
-        <v>0.5466666666666666</v>
-      </c>
-      <c r="O6" s="6">
-        <v>0.5844444444444445</v>
-      </c>
-      <c r="P6" s="6">
-        <v>0.6222222222222222</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>0.66</v>
-      </c>
-      <c r="R6" s="6">
-        <v>0.68</v>
-      </c>
-      <c r="S6" s="6">
-        <v>0.7000000000000001</v>
-      </c>
       <c r="T6" s="6">
-        <v>0.7000000000000001</v>
+        <v>0.4711111111111111</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -984,47 +996,47 @@
       <c r="F7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>45</v>
+      <c r="G7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1045,46 +1057,46 @@
         <v>1776.201733648542</v>
       </c>
       <c r="G8" s="5">
-        <v>2066.420664206642</v>
+        <v>1963.75098502758</v>
       </c>
       <c r="H8" s="5">
-        <v>2066.420664206642</v>
+        <v>2151.300236406619</v>
       </c>
       <c r="I8" s="5">
-        <v>2310.373103731038</v>
+        <v>2338.849487785658</v>
       </c>
       <c r="J8" s="5">
-        <v>2554.325543255432</v>
+        <v>2526.398739164697</v>
       </c>
       <c r="K8" s="5">
-        <v>2798.277982779828</v>
+        <v>2713.947990543735</v>
       </c>
       <c r="L8" s="5">
         <v>0</v>
       </c>
       <c r="M8" s="5">
-        <v>3042.230422304223</v>
+        <v>2901.497241922774</v>
       </c>
       <c r="N8" s="5">
-        <v>3286.182861828619</v>
+        <v>3089.046493301812</v>
       </c>
       <c r="O8" s="5">
-        <v>3530.135301353014</v>
+        <v>3276.595744680851</v>
       </c>
       <c r="P8" s="5">
-        <v>3774.08774087741</v>
+        <v>3375.886524822695</v>
       </c>
       <c r="Q8" s="5">
-        <v>4018.040180401804</v>
+        <v>3475.177304964539</v>
       </c>
       <c r="R8" s="5">
-        <v>4261.9926199262</v>
+        <v>3574.468085106383</v>
       </c>
       <c r="S8" s="5">
         <v>0</v>
       </c>
       <c r="T8" s="5">
-        <v>4391.143911439115</v>
+        <v>3673.758865248226</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1105,46 +1117,46 @@
         <v>0.3577777777777778</v>
       </c>
       <c r="G9" s="6">
-        <v>0.32</v>
+        <v>0.3955555555555555</v>
       </c>
       <c r="H9" s="6">
-        <v>0.32</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="I9" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.4711111111111111</v>
       </c>
       <c r="J9" s="6">
-        <v>0.3955555555555555</v>
+        <v>0.5088888888888889</v>
       </c>
       <c r="K9" s="6">
-        <v>0.4333333333333333</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="L9" s="6">
-        <v>0.4711111111111111</v>
+        <v>0.5844444444444445</v>
       </c>
       <c r="M9" s="6">
-        <v>0.4711111111111111</v>
+        <v>0.5844444444444445</v>
       </c>
       <c r="N9" s="6">
-        <v>0.5088888888888889</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="O9" s="6">
-        <v>0.5466666666666666</v>
+        <v>0.66</v>
       </c>
       <c r="P9" s="6">
-        <v>0.5844444444444445</v>
+        <v>0.68</v>
       </c>
       <c r="Q9" s="6">
-        <v>0.6222222222222222</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="R9" s="6">
-        <v>0.66</v>
+        <v>0.7200000000000001</v>
       </c>
       <c r="S9" s="6">
-        <v>0.68</v>
+        <v>0.74</v>
       </c>
       <c r="T9" s="6">
-        <v>0.68</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1165,46 +1177,46 @@
         <v>2</v>
       </c>
       <c r="G10" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H10" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I10" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J10" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K10" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L10" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M10" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N10" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O10" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P10" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R10" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="S10" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="T10" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1225,46 +1237,46 @@
         <v>0.3577777777777778</v>
       </c>
       <c r="G11" s="6">
-        <v>0.32</v>
+        <v>0.3955555555555555</v>
       </c>
       <c r="H11" s="6">
-        <v>0.32</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="I11" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.4711111111111111</v>
       </c>
       <c r="J11" s="6">
-        <v>0.3955555555555555</v>
+        <v>0.5088888888888889</v>
       </c>
       <c r="K11" s="6">
-        <v>0.4333333333333333</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="L11" s="6">
-        <v>0.4711111111111111</v>
+        <v>0.5844444444444445</v>
       </c>
       <c r="M11" s="6">
-        <v>0.4711111111111111</v>
+        <v>0.5844444444444445</v>
       </c>
       <c r="N11" s="6">
-        <v>0.5088888888888889</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="O11" s="6">
-        <v>0.5466666666666666</v>
+        <v>0.66</v>
       </c>
       <c r="P11" s="6">
-        <v>0.5844444444444445</v>
+        <v>0.68</v>
       </c>
       <c r="Q11" s="6">
-        <v>0.6222222222222222</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="R11" s="6">
-        <v>0.66</v>
+        <v>0.7200000000000001</v>
       </c>
       <c r="S11" s="6">
-        <v>0.68</v>
+        <v>0.74</v>
       </c>
       <c r="T11" s="6">
-        <v>0.68</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1585,50 +1597,50 @@
       <c r="E17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>44</v>
+      <c r="F17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1646,49 +1658,49 @@
         <v>0</v>
       </c>
       <c r="F18" s="5">
-        <v>1776.201733648542</v>
+        <v>2066.420664206642</v>
       </c>
       <c r="G18" s="5">
-        <v>1963.75098502758</v>
+        <v>2066.420664206642</v>
       </c>
       <c r="H18" s="5">
-        <v>2151.300236406619</v>
+        <v>2310.373103731038</v>
       </c>
       <c r="I18" s="5">
-        <v>2338.849487785658</v>
+        <v>2554.325543255432</v>
       </c>
       <c r="J18" s="5">
-        <v>2526.398739164697</v>
+        <v>2798.277982779829</v>
       </c>
       <c r="K18" s="5">
-        <v>2713.947990543735</v>
+        <v>3042.230422304223</v>
       </c>
       <c r="L18" s="5">
         <v>0</v>
       </c>
       <c r="M18" s="5">
-        <v>2901.497241922774</v>
+        <v>3286.182861828619</v>
       </c>
       <c r="N18" s="5">
-        <v>3089.046493301812</v>
+        <v>3530.135301353014</v>
       </c>
       <c r="O18" s="5">
-        <v>3276.595744680851</v>
+        <v>3774.08774087741</v>
       </c>
       <c r="P18" s="5">
-        <v>3375.886524822695</v>
+        <v>4018.040180401804</v>
       </c>
       <c r="Q18" s="5">
-        <v>3475.177304964539</v>
+        <v>4261.9926199262</v>
       </c>
       <c r="R18" s="5">
-        <v>3574.468085106383</v>
+        <v>4391.143911439115</v>
       </c>
       <c r="S18" s="5">
         <v>0</v>
       </c>
       <c r="T18" s="5">
-        <v>3673.758865248226</v>
+        <v>4520.29520295203</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1706,49 +1718,49 @@
         <v>0.3577777777777778</v>
       </c>
       <c r="F19" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.32</v>
       </c>
       <c r="G19" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="I19" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="H19" s="6">
+      <c r="J19" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="I19" s="6">
+      <c r="K19" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="J19" s="6">
+      <c r="L19" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="K19" s="6">
+      <c r="M19" s="6">
+        <v>0.5088888888888889</v>
+      </c>
+      <c r="N19" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="L19" s="6">
+      <c r="O19" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="M19" s="6">
-        <v>0.5844444444444445</v>
-      </c>
-      <c r="N19" s="6">
+      <c r="P19" s="6">
         <v>0.6222222222222222</v>
       </c>
-      <c r="O19" s="6">
+      <c r="Q19" s="6">
         <v>0.66</v>
       </c>
-      <c r="P19" s="6">
+      <c r="R19" s="6">
         <v>0.68</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="S19" s="6">
         <v>0.7000000000000001</v>
       </c>
-      <c r="R19" s="6">
-        <v>0.7200000000000001</v>
-      </c>
-      <c r="S19" s="6">
-        <v>0.74</v>
-      </c>
       <c r="T19" s="6">
-        <v>0.74</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1766,49 +1778,49 @@
         <v>2</v>
       </c>
       <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
         <v>2</v>
       </c>
-      <c r="G20" s="2">
+      <c r="I20" s="2">
         <v>3</v>
       </c>
-      <c r="H20" s="2">
+      <c r="J20" s="2">
         <v>4</v>
       </c>
-      <c r="I20" s="2">
+      <c r="K20" s="2">
         <v>5</v>
       </c>
-      <c r="J20" s="2">
+      <c r="L20" s="2">
         <v>6</v>
       </c>
-      <c r="K20" s="2">
+      <c r="M20" s="2">
+        <v>6</v>
+      </c>
+      <c r="N20" s="2">
         <v>7</v>
       </c>
-      <c r="L20" s="2">
+      <c r="O20" s="2">
         <v>8</v>
       </c>
-      <c r="M20" s="2">
-        <v>8</v>
-      </c>
-      <c r="N20" s="2">
+      <c r="P20" s="2">
         <v>9</v>
       </c>
-      <c r="O20" s="2">
+      <c r="Q20" s="2">
         <v>10</v>
       </c>
-      <c r="P20" s="2">
+      <c r="R20" s="2">
         <v>11</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="S20" s="2">
         <v>12</v>
       </c>
-      <c r="R20" s="2">
-        <v>13</v>
-      </c>
-      <c r="S20" s="2">
-        <v>14</v>
-      </c>
       <c r="T20" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1826,49 +1838,49 @@
         <v>0.3577777777777778</v>
       </c>
       <c r="F21" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.32</v>
       </c>
       <c r="G21" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="I21" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="H21" s="6">
+      <c r="J21" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="I21" s="6">
+      <c r="K21" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="J21" s="6">
+      <c r="L21" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="K21" s="6">
+      <c r="M21" s="6">
+        <v>0.5088888888888889</v>
+      </c>
+      <c r="N21" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="L21" s="6">
+      <c r="O21" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="M21" s="6">
-        <v>0.5844444444444445</v>
-      </c>
-      <c r="N21" s="6">
+      <c r="P21" s="6">
         <v>0.6222222222222222</v>
       </c>
-      <c r="O21" s="6">
+      <c r="Q21" s="6">
         <v>0.66</v>
       </c>
-      <c r="P21" s="6">
+      <c r="R21" s="6">
         <v>0.68</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="S21" s="6">
         <v>0.7000000000000001</v>
       </c>
-      <c r="R21" s="6">
-        <v>0.7200000000000001</v>
-      </c>
-      <c r="S21" s="6">
-        <v>0.74</v>
-      </c>
       <c r="T21" s="6">
-        <v>0.74</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1960,7 +1972,7 @@
         <v>2554.325543255432</v>
       </c>
       <c r="J23" s="5">
-        <v>2798.277982779828</v>
+        <v>2798.277982779829</v>
       </c>
       <c r="K23" s="5">
         <v>3042.230422304223</v>
@@ -1975,7 +1987,7 @@
         <v>3530.135301353014</v>
       </c>
       <c r="O23" s="5">
-        <v>3774.087740877409</v>
+        <v>3774.08774087741</v>
       </c>
       <c r="P23" s="5">
         <v>4018.040180401804</v>
@@ -2186,11 +2198,11 @@
       <c r="D27" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>45</v>
+      <c r="E27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>45</v>
@@ -2201,38 +2213,38 @@
       <c r="I27" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="N27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="R27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="S27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="T27" s="7" t="s">
-        <v>47</v>
+      <c r="J27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2250,49 +2262,49 @@
         <v>0</v>
       </c>
       <c r="F28" s="5">
-        <v>2066.420664206642</v>
+        <v>1776.201733648542</v>
       </c>
       <c r="G28" s="5">
         <v>2066.420664206642</v>
       </c>
       <c r="H28" s="5">
+        <v>2066.420664206642</v>
+      </c>
+      <c r="I28" s="5">
         <v>2310.373103731038</v>
       </c>
-      <c r="I28" s="5">
+      <c r="J28" s="5">
         <v>2554.325543255432</v>
       </c>
-      <c r="J28" s="5">
-        <v>1030.011342386806</v>
-      </c>
       <c r="K28" s="5">
-        <v>1030.011342386806</v>
+        <v>2798.277982779828</v>
       </c>
       <c r="L28" s="5">
         <v>0</v>
       </c>
       <c r="M28" s="5">
-        <v>1151.609903640804</v>
+        <v>3042.230422304223</v>
       </c>
       <c r="N28" s="5">
-        <v>1273.208464894802</v>
+        <v>3286.182861828619</v>
       </c>
       <c r="O28" s="5">
-        <v>1394.8070261488</v>
+        <v>3530.135301353014</v>
       </c>
       <c r="P28" s="5">
-        <v>1516.405587402798</v>
+        <v>3774.08774087741</v>
       </c>
       <c r="Q28" s="5">
-        <v>1638.004148656796</v>
+        <v>4018.040180401804</v>
       </c>
       <c r="R28" s="5">
-        <v>1759.602709910793</v>
+        <v>4261.9926199262</v>
       </c>
       <c r="S28" s="5">
         <v>0</v>
       </c>
       <c r="T28" s="5">
-        <v>1881.201271164792</v>
+        <v>4391.143911439115</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2307,52 +2319,52 @@
         <v>0.32</v>
       </c>
       <c r="E29" s="6">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="F29" s="6">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="G29" s="6">
         <v>0.32</v>
       </c>
       <c r="H29" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.32</v>
       </c>
       <c r="I29" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="J29" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="J29" s="6">
-        <v>0.32</v>
-      </c>
       <c r="K29" s="6">
-        <v>0.32</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="L29" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.4711111111111111</v>
       </c>
       <c r="M29" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.4711111111111111</v>
       </c>
       <c r="N29" s="6">
-        <v>0.3955555555555555</v>
+        <v>0.5088888888888889</v>
       </c>
       <c r="O29" s="6">
-        <v>0.4333333333333333</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="P29" s="6">
-        <v>0.4711111111111111</v>
+        <v>0.5844444444444445</v>
       </c>
       <c r="Q29" s="6">
-        <v>0.5088888888888889</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="R29" s="6">
-        <v>0.5466666666666666</v>
+        <v>0.66</v>
       </c>
       <c r="S29" s="6">
-        <v>0.5844444444444445</v>
+        <v>0.68</v>
       </c>
       <c r="T29" s="6">
-        <v>0.5844444444444445</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2367,52 +2379,52 @@
         <v>1</v>
       </c>
       <c r="E30" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F30" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
         <v>1</v>
       </c>
-      <c r="H30" s="2">
+      <c r="I30" s="2">
         <v>2</v>
       </c>
-      <c r="I30" s="2">
+      <c r="J30" s="2">
         <v>3</v>
       </c>
-      <c r="J30" s="2">
-        <v>0</v>
-      </c>
       <c r="K30" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L30" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M30" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N30" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O30" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P30" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q30" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R30" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S30" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="T30" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2427,52 +2439,52 @@
         <v>0.32</v>
       </c>
       <c r="E31" s="6">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="F31" s="6">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="G31" s="6">
         <v>0.32</v>
       </c>
       <c r="H31" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.32</v>
       </c>
       <c r="I31" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="J31" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="J31" s="6">
-        <v>0.32</v>
-      </c>
       <c r="K31" s="6">
-        <v>0.32</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="L31" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.4711111111111111</v>
       </c>
       <c r="M31" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.4711111111111111</v>
       </c>
       <c r="N31" s="6">
-        <v>0.3955555555555555</v>
+        <v>0.5088888888888889</v>
       </c>
       <c r="O31" s="6">
-        <v>0.4333333333333333</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="P31" s="6">
-        <v>0.4711111111111111</v>
+        <v>0.5844444444444445</v>
       </c>
       <c r="Q31" s="6">
-        <v>0.5088888888888889</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="R31" s="6">
-        <v>0.5466666666666666</v>
+        <v>0.66</v>
       </c>
       <c r="S31" s="6">
-        <v>0.5844444444444445</v>
+        <v>0.68</v>
       </c>
       <c r="T31" s="6">
-        <v>0.5844444444444445</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2482,14 +2494,14 @@
       <c r="B32" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>45</v>
+      <c r="C32" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>45</v>
+      <c r="E32" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>45</v>
@@ -2543,7 +2555,7 @@
         <v>40</v>
       </c>
       <c r="C33" s="5">
-        <v>2066.420664206642</v>
+        <v>1588.652482269503</v>
       </c>
       <c r="D33" s="5">
         <v>1588.652482269503</v>
@@ -2564,7 +2576,7 @@
         <v>2554.325543255432</v>
       </c>
       <c r="J33" s="5">
-        <v>2798.277982779828</v>
+        <v>2798.277982779829</v>
       </c>
       <c r="K33" s="5">
         <v>3042.230422304223</v>
@@ -2579,7 +2591,7 @@
         <v>3530.135301353014</v>
       </c>
       <c r="O33" s="5">
-        <v>3774.087740877409</v>
+        <v>3774.08774087741</v>
       </c>
       <c r="P33" s="5">
         <v>4018.040180401804</v>
@@ -2609,7 +2621,7 @@
         <v>0.32</v>
       </c>
       <c r="E34" s="6">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="F34" s="6">
         <v>0.32</v>
@@ -2666,10 +2678,10 @@
         <v>0</v>
       </c>
       <c r="D35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F35" s="2">
         <v>0</v>
@@ -2729,7 +2741,7 @@
         <v>0.32</v>
       </c>
       <c r="E36" s="6">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="F36" s="6">
         <v>0.32</v>
@@ -2793,14 +2805,14 @@
       <c r="E37" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>45</v>
+      <c r="F37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>45</v>
@@ -2823,8 +2835,8 @@
       <c r="O37" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="P37" s="3" t="s">
-        <v>44</v>
+      <c r="P37" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="Q37" s="4" t="s">
         <v>45</v>
@@ -2854,49 +2866,49 @@
         <v>0</v>
       </c>
       <c r="F38" s="5">
+        <v>1776.201733648542</v>
+      </c>
+      <c r="G38" s="5">
+        <v>1963.75098502758</v>
+      </c>
+      <c r="H38" s="5">
+        <v>2151.300236406619</v>
+      </c>
+      <c r="I38" s="5">
         <v>2066.420664206642</v>
       </c>
-      <c r="G38" s="5">
+      <c r="J38" s="5">
         <v>2066.420664206642</v>
       </c>
-      <c r="H38" s="5">
+      <c r="K38" s="5">
         <v>2310.373103731038</v>
       </c>
-      <c r="I38" s="5">
+      <c r="L38" s="5">
+        <v>0</v>
+      </c>
+      <c r="M38" s="5">
         <v>2554.325543255432</v>
       </c>
-      <c r="J38" s="5">
+      <c r="N38" s="5">
         <v>2798.277982779828</v>
       </c>
-      <c r="K38" s="5">
+      <c r="O38" s="5">
         <v>3042.230422304223</v>
       </c>
-      <c r="L38" s="5">
-        <v>0</v>
-      </c>
-      <c r="M38" s="5">
+      <c r="P38" s="5">
         <v>3286.182861828619</v>
       </c>
-      <c r="N38" s="5">
+      <c r="Q38" s="5">
         <v>3530.135301353014</v>
       </c>
-      <c r="O38" s="5">
-        <v>3774.087740877409</v>
-      </c>
-      <c r="P38" s="5">
-        <v>1588.652482269503</v>
-      </c>
-      <c r="Q38" s="5">
-        <v>2066.420664206642</v>
-      </c>
       <c r="R38" s="5">
-        <v>2066.420664206642</v>
+        <v>3774.08774087741</v>
       </c>
       <c r="S38" s="5">
         <v>0</v>
       </c>
       <c r="T38" s="5">
-        <v>2310.373103731038</v>
+        <v>4018.040180401805</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -2914,49 +2926,49 @@
         <v>0.3577777777777778</v>
       </c>
       <c r="F39" s="6">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="G39" s="6">
-        <v>0.32</v>
+        <v>0.3955555555555555</v>
       </c>
       <c r="H39" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="I39" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="J39" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="K39" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="L39" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="J39" s="6">
+      <c r="M39" s="6">
+        <v>0.3955555555555555</v>
+      </c>
+      <c r="N39" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="K39" s="6">
+      <c r="O39" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="L39" s="6">
+      <c r="P39" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="M39" s="6">
-        <v>0.5088888888888889</v>
-      </c>
-      <c r="N39" s="6">
+      <c r="Q39" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="O39" s="6">
+      <c r="R39" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="P39" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="Q39" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="R39" s="6">
-        <v>0.32</v>
-      </c>
       <c r="S39" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="T39" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.6222222222222222</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -2974,49 +2986,49 @@
         <v>2</v>
       </c>
       <c r="F40" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G40" s="2">
+        <v>3</v>
+      </c>
+      <c r="H40" s="2">
+        <v>4</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2">
         <v>1</v>
       </c>
-      <c r="H40" s="2">
+      <c r="K40" s="2">
         <v>2</v>
       </c>
-      <c r="I40" s="2">
+      <c r="L40" s="2">
         <v>3</v>
       </c>
-      <c r="J40" s="2">
+      <c r="M40" s="2">
+        <v>3</v>
+      </c>
+      <c r="N40" s="2">
         <v>4</v>
       </c>
-      <c r="K40" s="2">
+      <c r="O40" s="2">
         <v>5</v>
       </c>
-      <c r="L40" s="2">
+      <c r="P40" s="2">
         <v>6</v>
       </c>
-      <c r="M40" s="2">
-        <v>6</v>
-      </c>
-      <c r="N40" s="2">
+      <c r="Q40" s="2">
         <v>7</v>
       </c>
-      <c r="O40" s="2">
+      <c r="R40" s="2">
         <v>8</v>
       </c>
-      <c r="P40" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="2">
-        <v>0</v>
-      </c>
-      <c r="R40" s="2">
-        <v>1</v>
-      </c>
       <c r="S40" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="T40" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -3034,49 +3046,49 @@
         <v>0.3577777777777778</v>
       </c>
       <c r="F41" s="6">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="G41" s="6">
-        <v>0.32</v>
+        <v>0.3955555555555555</v>
       </c>
       <c r="H41" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="I41" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="J41" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="K41" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="L41" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="J41" s="6">
+      <c r="M41" s="6">
+        <v>0.3955555555555555</v>
+      </c>
+      <c r="N41" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="K41" s="6">
+      <c r="O41" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="L41" s="6">
+      <c r="P41" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="M41" s="6">
-        <v>0.5088888888888889</v>
-      </c>
-      <c r="N41" s="6">
+      <c r="Q41" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="O41" s="6">
+      <c r="R41" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="P41" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="Q41" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="R41" s="6">
-        <v>0.32</v>
-      </c>
       <c r="S41" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="T41" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.6222222222222222</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -3104,41 +3116,41 @@
       <c r="H42" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T42" s="4" t="s">
-        <v>45</v>
+      <c r="I42" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N42" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="R42" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="S42" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="T42" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -3165,40 +3177,40 @@
         <v>2151.300236406619</v>
       </c>
       <c r="I43" s="5">
-        <v>2066.420664206642</v>
+        <v>2338.849487785658</v>
       </c>
       <c r="J43" s="5">
-        <v>2066.420664206642</v>
+        <v>2526.398739164697</v>
       </c>
       <c r="K43" s="5">
-        <v>2310.373103731038</v>
+        <v>1030.011342386806</v>
       </c>
       <c r="L43" s="5">
         <v>0</v>
       </c>
       <c r="M43" s="5">
-        <v>2554.325543255432</v>
+        <v>1030.011342386806</v>
       </c>
       <c r="N43" s="5">
-        <v>2798.277982779828</v>
+        <v>1151.609903640804</v>
       </c>
       <c r="O43" s="5">
-        <v>3042.230422304223</v>
+        <v>1273.208464894801</v>
       </c>
       <c r="P43" s="5">
-        <v>3286.182861828619</v>
+        <v>1394.8070261488</v>
       </c>
       <c r="Q43" s="5">
-        <v>3530.135301353014</v>
+        <v>1516.405587402798</v>
       </c>
       <c r="R43" s="5">
-        <v>3774.08774087741</v>
+        <v>1638.004148656796</v>
       </c>
       <c r="S43" s="5">
         <v>0</v>
       </c>
       <c r="T43" s="5">
-        <v>4018.040180401804</v>
+        <v>1759.602709910793</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -3225,40 +3237,40 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="I44" s="6">
-        <v>0.32</v>
+        <v>0.4711111111111111</v>
       </c>
       <c r="J44" s="6">
-        <v>0.32</v>
+        <v>0.5088888888888889</v>
       </c>
       <c r="K44" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.32</v>
       </c>
       <c r="L44" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="M44" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="N44" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="O44" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="M44" s="6">
-        <v>0.3955555555555555</v>
-      </c>
-      <c r="N44" s="6">
+      <c r="P44" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="O44" s="6">
+      <c r="Q44" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="P44" s="6">
+      <c r="R44" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="Q44" s="6">
+      <c r="S44" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="R44" s="6">
-        <v>0.5844444444444445</v>
-      </c>
-      <c r="S44" s="6">
-        <v>0.6222222222222222</v>
-      </c>
       <c r="T44" s="6">
-        <v>0.6222222222222222</v>
+        <v>0.5466666666666666</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -3285,40 +3297,40 @@
         <v>4</v>
       </c>
       <c r="I45" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J45" s="2">
+        <v>6</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2">
         <v>1</v>
       </c>
-      <c r="K45" s="2">
+      <c r="M45" s="2">
+        <v>1</v>
+      </c>
+      <c r="N45" s="2">
         <v>2</v>
       </c>
-      <c r="L45" s="2">
+      <c r="O45" s="2">
         <v>3</v>
       </c>
-      <c r="M45" s="2">
-        <v>3</v>
-      </c>
-      <c r="N45" s="2">
+      <c r="P45" s="2">
         <v>4</v>
       </c>
-      <c r="O45" s="2">
+      <c r="Q45" s="2">
         <v>5</v>
       </c>
-      <c r="P45" s="2">
+      <c r="R45" s="2">
         <v>6</v>
       </c>
-      <c r="Q45" s="2">
+      <c r="S45" s="2">
         <v>7</v>
       </c>
-      <c r="R45" s="2">
-        <v>8</v>
-      </c>
-      <c r="S45" s="2">
-        <v>9</v>
-      </c>
       <c r="T45" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -3345,40 +3357,40 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="I46" s="6">
-        <v>0.32</v>
+        <v>0.4711111111111111</v>
       </c>
       <c r="J46" s="6">
-        <v>0.32</v>
+        <v>0.5088888888888889</v>
       </c>
       <c r="K46" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.32</v>
       </c>
       <c r="L46" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="M46" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="N46" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="O46" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="M46" s="6">
-        <v>0.3955555555555555</v>
-      </c>
-      <c r="N46" s="6">
+      <c r="P46" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="O46" s="6">
+      <c r="Q46" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="P46" s="6">
+      <c r="R46" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="Q46" s="6">
+      <c r="S46" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="R46" s="6">
-        <v>0.5844444444444445</v>
-      </c>
-      <c r="S46" s="6">
-        <v>0.6222222222222222</v>
-      </c>
       <c r="T46" s="6">
-        <v>0.6222222222222222</v>
+        <v>0.5466666666666666</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -3397,50 +3409,50 @@
       <c r="E47" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>44</v>
+      <c r="F47" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="L47" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="M47" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N47" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O47" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P47" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q47" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R47" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S47" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T47" s="4" t="s">
-        <v>45</v>
+      <c r="M47" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="O47" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="P47" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="R47" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="S47" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="T47" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -3458,49 +3470,49 @@
         <v>0</v>
       </c>
       <c r="F48" s="5">
-        <v>1776.201733648542</v>
+        <v>2066.420664206642</v>
       </c>
       <c r="G48" s="5">
-        <v>1963.75098502758</v>
+        <v>2066.420664206642</v>
       </c>
       <c r="H48" s="5">
-        <v>2151.300236406619</v>
+        <v>2310.373103731038</v>
       </c>
       <c r="I48" s="5">
-        <v>2338.849487785658</v>
+        <v>2554.325543255432</v>
       </c>
       <c r="J48" s="5">
-        <v>2526.398739164697</v>
+        <v>2798.277982779829</v>
       </c>
       <c r="K48" s="5">
-        <v>2713.947990543735</v>
+        <v>3042.230422304223</v>
       </c>
       <c r="L48" s="5">
         <v>0</v>
       </c>
       <c r="M48" s="5">
-        <v>2066.420664206642</v>
+        <v>1148.089933711474</v>
       </c>
       <c r="N48" s="5">
-        <v>2066.420664206642</v>
+        <v>1148.089933711474</v>
       </c>
       <c r="O48" s="5">
-        <v>2310.373103731038</v>
+        <v>1283.628328663523</v>
       </c>
       <c r="P48" s="5">
-        <v>2554.325543255432</v>
+        <v>1419.166723615572</v>
       </c>
       <c r="Q48" s="5">
-        <v>2798.277982779828</v>
+        <v>1030.011342386806</v>
       </c>
       <c r="R48" s="5">
-        <v>3042.230422304223</v>
+        <v>1030.011342386806</v>
       </c>
       <c r="S48" s="5">
         <v>0</v>
       </c>
       <c r="T48" s="5">
-        <v>3286.182861828619</v>
+        <v>1151.609903640804</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -3518,25 +3530,25 @@
         <v>0.3577777777777778</v>
       </c>
       <c r="F49" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.32</v>
       </c>
       <c r="G49" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="H49" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="I49" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="H49" s="6">
+      <c r="J49" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="I49" s="6">
+      <c r="K49" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="J49" s="6">
+      <c r="L49" s="6">
         <v>0.5088888888888889</v>
-      </c>
-      <c r="K49" s="6">
-        <v>0.5466666666666666</v>
-      </c>
-      <c r="L49" s="6">
-        <v>0.32</v>
       </c>
       <c r="M49" s="6">
         <v>0.32</v>
@@ -3551,16 +3563,16 @@
         <v>0.3955555555555555</v>
       </c>
       <c r="Q49" s="6">
-        <v>0.4333333333333333</v>
+        <v>0.32</v>
       </c>
       <c r="R49" s="6">
-        <v>0.4711111111111111</v>
+        <v>0.32</v>
       </c>
       <c r="S49" s="6">
-        <v>0.5088888888888889</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="T49" s="6">
-        <v>0.5088888888888889</v>
+        <v>0.3577777777777778</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -3578,25 +3590,25 @@
         <v>2</v>
       </c>
       <c r="F50" s="2">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2">
         <v>2</v>
       </c>
-      <c r="G50" s="2">
+      <c r="I50" s="2">
         <v>3</v>
       </c>
-      <c r="H50" s="2">
+      <c r="J50" s="2">
         <v>4</v>
       </c>
-      <c r="I50" s="2">
+      <c r="K50" s="2">
         <v>5</v>
       </c>
-      <c r="J50" s="2">
+      <c r="L50" s="2">
         <v>6</v>
-      </c>
-      <c r="K50" s="2">
-        <v>7</v>
-      </c>
-      <c r="L50" s="2">
-        <v>0</v>
       </c>
       <c r="M50" s="2">
         <v>0</v>
@@ -3611,16 +3623,16 @@
         <v>3</v>
       </c>
       <c r="Q50" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R50" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S50" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T50" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -3638,25 +3650,25 @@
         <v>0.3577777777777778</v>
       </c>
       <c r="F51" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.32</v>
       </c>
       <c r="G51" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="H51" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="I51" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="H51" s="6">
+      <c r="J51" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="I51" s="6">
+      <c r="K51" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="J51" s="6">
+      <c r="L51" s="6">
         <v>0.5088888888888889</v>
-      </c>
-      <c r="K51" s="6">
-        <v>0.5466666666666666</v>
-      </c>
-      <c r="L51" s="6">
-        <v>0.32</v>
       </c>
       <c r="M51" s="6">
         <v>0.32</v>
@@ -3671,16 +3683,16 @@
         <v>0.3955555555555555</v>
       </c>
       <c r="Q51" s="6">
-        <v>0.4333333333333333</v>
+        <v>0.32</v>
       </c>
       <c r="R51" s="6">
-        <v>0.4711111111111111</v>
+        <v>0.32</v>
       </c>
       <c r="S51" s="6">
-        <v>0.5088888888888889</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="T51" s="6">
-        <v>0.5088888888888889</v>
+        <v>0.3577777777777778</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -3690,11 +3702,11 @@
       <c r="B52" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>44</v>
+      <c r="C52" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>45</v>
@@ -3729,20 +3741,20 @@
       <c r="O52" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="P52" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="R52" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="S52" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="T52" s="8" t="s">
-        <v>46</v>
+      <c r="P52" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q52" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R52" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S52" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T52" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:20">
@@ -3751,58 +3763,58 @@
         <v>40</v>
       </c>
       <c r="C53" s="5">
-        <v>1588.652482269503</v>
+        <v>2066.420664206642</v>
       </c>
       <c r="D53" s="5">
-        <v>1588.652482269503</v>
+        <v>2066.420664206642</v>
       </c>
       <c r="E53" s="5">
         <v>0</v>
       </c>
       <c r="F53" s="5">
-        <v>2066.420664206642</v>
+        <v>2310.373103731038</v>
       </c>
       <c r="G53" s="5">
-        <v>2066.420664206642</v>
+        <v>2554.325543255432</v>
       </c>
       <c r="H53" s="5">
-        <v>2310.373103731038</v>
+        <v>2798.277982779828</v>
       </c>
       <c r="I53" s="5">
-        <v>2554.325543255432</v>
+        <v>3042.230422304223</v>
       </c>
       <c r="J53" s="5">
-        <v>2798.277982779828</v>
+        <v>3286.182861828619</v>
       </c>
       <c r="K53" s="5">
-        <v>3042.230422304223</v>
+        <v>3530.135301353014</v>
       </c>
       <c r="L53" s="5">
         <v>0</v>
       </c>
       <c r="M53" s="5">
-        <v>3286.182861828619</v>
+        <v>3774.08774087741</v>
       </c>
       <c r="N53" s="5">
-        <v>3530.135301353014</v>
+        <v>4018.040180401805</v>
       </c>
       <c r="O53" s="5">
-        <v>3774.087740877409</v>
+        <v>4261.9926199262</v>
       </c>
       <c r="P53" s="5">
-        <v>1030.011342386806</v>
+        <v>4391.143911439115</v>
       </c>
       <c r="Q53" s="5">
-        <v>1030.011342386806</v>
+        <v>4520.29520295203</v>
       </c>
       <c r="R53" s="5">
-        <v>1151.609903640804</v>
+        <v>4649.446494464945</v>
       </c>
       <c r="S53" s="5">
         <v>0</v>
       </c>
       <c r="T53" s="5">
-        <v>1529.601893792821</v>
+        <v>4778.59778597786</v>
       </c>
     </row>
     <row r="54" spans="1:20">
@@ -3817,52 +3829,52 @@
         <v>0.32</v>
       </c>
       <c r="E54" s="6">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="F54" s="6">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="G54" s="6">
-        <v>0.32</v>
+        <v>0.3955555555555555</v>
       </c>
       <c r="H54" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="I54" s="6">
-        <v>0.3955555555555555</v>
+        <v>0.4711111111111111</v>
       </c>
       <c r="J54" s="6">
-        <v>0.4333333333333333</v>
+        <v>0.5088888888888889</v>
       </c>
       <c r="K54" s="6">
-        <v>0.4711111111111111</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="L54" s="6">
-        <v>0.5088888888888889</v>
+        <v>0.5844444444444445</v>
       </c>
       <c r="M54" s="6">
-        <v>0.5088888888888889</v>
+        <v>0.5844444444444445</v>
       </c>
       <c r="N54" s="6">
-        <v>0.5466666666666666</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="O54" s="6">
-        <v>0.5844444444444445</v>
+        <v>0.66</v>
       </c>
       <c r="P54" s="6">
-        <v>0.32</v>
+        <v>0.68</v>
       </c>
       <c r="Q54" s="6">
-        <v>0.32</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="R54" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.7200000000000001</v>
       </c>
       <c r="S54" s="6">
-        <v>0.32</v>
+        <v>0.74</v>
       </c>
       <c r="T54" s="6">
-        <v>0.32</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -3877,52 +3889,52 @@
         <v>1</v>
       </c>
       <c r="E55" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F55" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G55" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H55" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I55" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J55" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K55" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L55" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M55" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N55" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O55" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P55" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q55" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="R55" s="2">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="S55" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T55" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:20">
@@ -3937,52 +3949,52 @@
         <v>0.32</v>
       </c>
       <c r="E56" s="6">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="F56" s="6">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="G56" s="6">
-        <v>0.32</v>
+        <v>0.3955555555555555</v>
       </c>
       <c r="H56" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="I56" s="6">
-        <v>0.3955555555555555</v>
+        <v>0.4711111111111111</v>
       </c>
       <c r="J56" s="6">
-        <v>0.4333333333333333</v>
+        <v>0.5088888888888889</v>
       </c>
       <c r="K56" s="6">
-        <v>0.4711111111111111</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="L56" s="6">
-        <v>0.5088888888888889</v>
+        <v>0.5844444444444445</v>
       </c>
       <c r="M56" s="6">
-        <v>0.5088888888888889</v>
+        <v>0.5844444444444445</v>
       </c>
       <c r="N56" s="6">
-        <v>0.5466666666666666</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="O56" s="6">
-        <v>0.5844444444444445</v>
+        <v>0.66</v>
       </c>
       <c r="P56" s="6">
-        <v>0.32</v>
+        <v>0.68</v>
       </c>
       <c r="Q56" s="6">
-        <v>0.32</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="R56" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.7200000000000001</v>
       </c>
       <c r="S56" s="6">
-        <v>0.32</v>
+        <v>0.74</v>
       </c>
       <c r="T56" s="6">
-        <v>0.32</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="57" spans="1:20">
@@ -3998,26 +4010,26 @@
       <c r="D57" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>44</v>
+      <c r="E57" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="L57" s="4" t="s">
         <v>45</v>
@@ -4031,20 +4043,20 @@
       <c r="O57" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="P57" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q57" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="R57" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="S57" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="T57" s="7" t="s">
-        <v>47</v>
+      <c r="P57" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q57" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R57" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S57" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T57" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:20">
@@ -4062,49 +4074,49 @@
         <v>0</v>
       </c>
       <c r="F58" s="5">
-        <v>1776.201733648542</v>
+        <v>2066.420664206642</v>
       </c>
       <c r="G58" s="5">
-        <v>1963.75098502758</v>
+        <v>2066.420664206642</v>
       </c>
       <c r="H58" s="5">
-        <v>2151.300236406619</v>
+        <v>2310.373103731038</v>
       </c>
       <c r="I58" s="5">
-        <v>2338.849487785658</v>
+        <v>2554.325543255432</v>
       </c>
       <c r="J58" s="5">
-        <v>2526.398739164697</v>
+        <v>2798.277982779829</v>
       </c>
       <c r="K58" s="5">
-        <v>2713.947990543735</v>
+        <v>3042.230422304223</v>
       </c>
       <c r="L58" s="5">
         <v>0</v>
       </c>
       <c r="M58" s="5">
-        <v>2066.420664206642</v>
+        <v>3286.182861828619</v>
       </c>
       <c r="N58" s="5">
-        <v>2066.420664206642</v>
+        <v>3530.135301353014</v>
       </c>
       <c r="O58" s="5">
-        <v>2310.373103731038</v>
+        <v>3774.08774087741</v>
       </c>
       <c r="P58" s="5">
-        <v>1030.011342386806</v>
+        <v>4018.040180401804</v>
       </c>
       <c r="Q58" s="5">
-        <v>1030.011342386806</v>
+        <v>4261.9926199262</v>
       </c>
       <c r="R58" s="5">
-        <v>1151.609903640804</v>
+        <v>4391.143911439115</v>
       </c>
       <c r="S58" s="5">
         <v>0</v>
       </c>
       <c r="T58" s="5">
-        <v>1273.208464894802</v>
+        <v>4520.29520295203</v>
       </c>
     </row>
     <row r="59" spans="1:20">
@@ -4119,52 +4131,52 @@
         <v>0.32</v>
       </c>
       <c r="E59" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.32</v>
       </c>
       <c r="F59" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.32</v>
       </c>
       <c r="G59" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="H59" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="I59" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="H59" s="6">
+      <c r="J59" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="I59" s="6">
+      <c r="K59" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="J59" s="6">
+      <c r="L59" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="K59" s="6">
+      <c r="M59" s="6">
+        <v>0.5088888888888889</v>
+      </c>
+      <c r="N59" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="L59" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="M59" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="N59" s="6">
-        <v>0.32</v>
-      </c>
       <c r="O59" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.5844444444444445</v>
       </c>
       <c r="P59" s="6">
-        <v>0.32</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="Q59" s="6">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="R59" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.68</v>
       </c>
       <c r="S59" s="6">
-        <v>0.3955555555555555</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="T59" s="6">
-        <v>0.3955555555555555</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:20">
@@ -4179,52 +4191,52 @@
         <v>1</v>
       </c>
       <c r="E60" s="2">
+        <v>0</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0</v>
+      </c>
+      <c r="G60" s="2">
+        <v>1</v>
+      </c>
+      <c r="H60" s="2">
         <v>2</v>
       </c>
-      <c r="F60" s="2">
-        <v>2</v>
-      </c>
-      <c r="G60" s="2">
+      <c r="I60" s="2">
         <v>3</v>
       </c>
-      <c r="H60" s="2">
+      <c r="J60" s="2">
         <v>4</v>
       </c>
-      <c r="I60" s="2">
+      <c r="K60" s="2">
         <v>5</v>
       </c>
-      <c r="J60" s="2">
+      <c r="L60" s="2">
         <v>6</v>
       </c>
-      <c r="K60" s="2">
+      <c r="M60" s="2">
+        <v>6</v>
+      </c>
+      <c r="N60" s="2">
         <v>7</v>
       </c>
-      <c r="L60" s="2">
-        <v>0</v>
-      </c>
-      <c r="M60" s="2">
-        <v>0</v>
-      </c>
-      <c r="N60" s="2">
-        <v>1</v>
-      </c>
       <c r="O60" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P60" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q60" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R60" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="S60" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="T60" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:20">
@@ -4239,52 +4251,52 @@
         <v>0.32</v>
       </c>
       <c r="E61" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.32</v>
       </c>
       <c r="F61" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.32</v>
       </c>
       <c r="G61" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="H61" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="I61" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="H61" s="6">
+      <c r="J61" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="I61" s="6">
+      <c r="K61" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="J61" s="6">
+      <c r="L61" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="K61" s="6">
+      <c r="M61" s="6">
+        <v>0.5088888888888889</v>
+      </c>
+      <c r="N61" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="L61" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="M61" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="N61" s="6">
-        <v>0.32</v>
-      </c>
       <c r="O61" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.5844444444444445</v>
       </c>
       <c r="P61" s="6">
-        <v>0.32</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="Q61" s="6">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="R61" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.68</v>
       </c>
       <c r="S61" s="6">
-        <v>0.3955555555555555</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="T61" s="6">
-        <v>0.3955555555555555</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:20">
@@ -4297,8 +4309,8 @@
       <c r="C62" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D62" s="4" t="s">
-        <v>45</v>
+      <c r="D62" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>45</v>
@@ -4345,8 +4357,8 @@
       <c r="S62" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="T62" s="8" t="s">
-        <v>46</v>
+      <c r="T62" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:20">
@@ -4358,7 +4370,7 @@
         <v>1588.652482269503</v>
       </c>
       <c r="D63" s="5">
-        <v>2066.420664206642</v>
+        <v>1588.652482269503</v>
       </c>
       <c r="E63" s="5">
         <v>0</v>
@@ -4367,46 +4379,46 @@
         <v>2066.420664206642</v>
       </c>
       <c r="G63" s="5">
+        <v>2066.420664206642</v>
+      </c>
+      <c r="H63" s="5">
         <v>2310.373103731038</v>
       </c>
-      <c r="H63" s="5">
+      <c r="I63" s="5">
         <v>2554.325543255432</v>
       </c>
-      <c r="I63" s="5">
-        <v>2798.277982779828</v>
-      </c>
       <c r="J63" s="5">
+        <v>2798.277982779829</v>
+      </c>
+      <c r="K63" s="5">
         <v>3042.230422304223</v>
       </c>
-      <c r="K63" s="5">
+      <c r="L63" s="5">
+        <v>0</v>
+      </c>
+      <c r="M63" s="5">
         <v>3286.182861828619</v>
       </c>
-      <c r="L63" s="5">
-        <v>0</v>
-      </c>
-      <c r="M63" s="5">
+      <c r="N63" s="5">
         <v>3530.135301353014</v>
       </c>
-      <c r="N63" s="5">
+      <c r="O63" s="5">
         <v>3774.08774087741</v>
       </c>
-      <c r="O63" s="5">
+      <c r="P63" s="5">
         <v>4018.040180401804</v>
       </c>
-      <c r="P63" s="5">
+      <c r="Q63" s="5">
         <v>4261.9926199262</v>
       </c>
-      <c r="Q63" s="5">
+      <c r="R63" s="5">
         <v>4391.143911439115</v>
       </c>
-      <c r="R63" s="5">
+      <c r="S63" s="5">
+        <v>0</v>
+      </c>
+      <c r="T63" s="5">
         <v>4520.29520295203</v>
-      </c>
-      <c r="S63" s="5">
-        <v>0</v>
-      </c>
-      <c r="T63" s="5">
-        <v>1529.601893792821</v>
       </c>
     </row>
     <row r="64" spans="1:20">
@@ -4427,46 +4439,46 @@
         <v>0.32</v>
       </c>
       <c r="G64" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.32</v>
       </c>
       <c r="H64" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="I64" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="I64" s="6">
+      <c r="J64" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="J64" s="6">
+      <c r="K64" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="K64" s="6">
+      <c r="L64" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="L64" s="6">
+      <c r="M64" s="6">
+        <v>0.5088888888888889</v>
+      </c>
+      <c r="N64" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="M64" s="6">
-        <v>0.5466666666666666</v>
-      </c>
-      <c r="N64" s="6">
+      <c r="O64" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="O64" s="6">
+      <c r="P64" s="6">
         <v>0.6222222222222222</v>
       </c>
-      <c r="P64" s="6">
+      <c r="Q64" s="6">
         <v>0.66</v>
       </c>
-      <c r="Q64" s="6">
+      <c r="R64" s="6">
         <v>0.68</v>
       </c>
-      <c r="R64" s="6">
+      <c r="S64" s="6">
         <v>0.7000000000000001</v>
       </c>
-      <c r="S64" s="6">
-        <v>0.7200000000000001</v>
-      </c>
       <c r="T64" s="6">
-        <v>0.32</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:20">
@@ -4478,55 +4490,55 @@
         <v>0</v>
       </c>
       <c r="D65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" s="2">
+        <v>0</v>
+      </c>
+      <c r="F65" s="2">
+        <v>0</v>
+      </c>
+      <c r="G65" s="2">
         <v>1</v>
       </c>
-      <c r="F65" s="2">
-        <v>1</v>
-      </c>
-      <c r="G65" s="2">
+      <c r="H65" s="2">
         <v>2</v>
       </c>
-      <c r="H65" s="2">
+      <c r="I65" s="2">
         <v>3</v>
       </c>
-      <c r="I65" s="2">
+      <c r="J65" s="2">
         <v>4</v>
       </c>
-      <c r="J65" s="2">
+      <c r="K65" s="2">
         <v>5</v>
       </c>
-      <c r="K65" s="2">
+      <c r="L65" s="2">
         <v>6</v>
       </c>
-      <c r="L65" s="2">
+      <c r="M65" s="2">
+        <v>6</v>
+      </c>
+      <c r="N65" s="2">
         <v>7</v>
       </c>
-      <c r="M65" s="2">
-        <v>7</v>
-      </c>
-      <c r="N65" s="2">
+      <c r="O65" s="2">
         <v>8</v>
       </c>
-      <c r="O65" s="2">
+      <c r="P65" s="2">
         <v>9</v>
       </c>
-      <c r="P65" s="2">
+      <c r="Q65" s="2">
         <v>10</v>
       </c>
-      <c r="Q65" s="2">
+      <c r="R65" s="2">
         <v>11</v>
       </c>
-      <c r="R65" s="2">
+      <c r="S65" s="2">
         <v>12</v>
       </c>
-      <c r="S65" s="2">
-        <v>13</v>
-      </c>
       <c r="T65" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:20">
@@ -4547,46 +4559,46 @@
         <v>0.32</v>
       </c>
       <c r="G66" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.32</v>
       </c>
       <c r="H66" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="I66" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="I66" s="6">
+      <c r="J66" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="J66" s="6">
+      <c r="K66" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="K66" s="6">
+      <c r="L66" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="L66" s="6">
+      <c r="M66" s="6">
+        <v>0.5088888888888889</v>
+      </c>
+      <c r="N66" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="M66" s="6">
-        <v>0.5466666666666666</v>
-      </c>
-      <c r="N66" s="6">
+      <c r="O66" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="O66" s="6">
+      <c r="P66" s="6">
         <v>0.6222222222222222</v>
       </c>
-      <c r="P66" s="6">
+      <c r="Q66" s="6">
         <v>0.66</v>
       </c>
-      <c r="Q66" s="6">
+      <c r="R66" s="6">
         <v>0.68</v>
       </c>
-      <c r="R66" s="6">
+      <c r="S66" s="6">
         <v>0.7000000000000001</v>
       </c>
-      <c r="S66" s="6">
-        <v>0.7200000000000001</v>
-      </c>
       <c r="T66" s="6">
-        <v>0.32</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:20">
@@ -4596,58 +4608,58 @@
       <c r="B67" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G67" s="8" t="s">
+      <c r="G67" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H67" s="8" t="s">
+      <c r="H67" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="I67" s="8" t="s">
+      <c r="I67" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="J67" s="8" t="s">
+      <c r="J67" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K67" s="8" t="s">
+      <c r="K67" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="L67" s="8" t="s">
+      <c r="L67" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="M67" s="8" t="s">
+      <c r="M67" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="N67" s="8" t="s">
+      <c r="N67" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="O67" s="8" t="s">
+      <c r="O67" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="P67" s="8" t="s">
+      <c r="P67" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="Q67" s="8" t="s">
+      <c r="Q67" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="R67" s="8" t="s">
+      <c r="R67" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="S67" s="8" t="s">
+      <c r="S67" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="T67" s="8" t="s">
+      <c r="T67" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4708,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="T68" s="5">
-        <v>3632.80449775795</v>
+        <v>3632.804497757949</v>
       </c>
     </row>
     <row r="69" spans="1:20">
@@ -4898,20 +4910,20 @@
       <c r="B72" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D72" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G72" s="8" t="s">
-        <v>46</v>
+      <c r="D72" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="H72" s="7" t="s">
         <v>47</v>
@@ -4949,8 +4961,8 @@
       <c r="S72" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="T72" s="8" t="s">
-        <v>46</v>
+      <c r="T72" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="1:20">
@@ -4962,55 +4974,55 @@
         <v>1529.601893792821</v>
       </c>
       <c r="D73" s="5">
-        <v>1710.179895143362</v>
+        <v>1030.011342386806</v>
       </c>
       <c r="E73" s="5">
         <v>0</v>
       </c>
       <c r="F73" s="5">
-        <v>1890.757896493903</v>
+        <v>1030.011342386806</v>
       </c>
       <c r="G73" s="5">
-        <v>2071.335897844445</v>
+        <v>1151.609903640804</v>
       </c>
       <c r="H73" s="5">
-        <v>1030.011342386806</v>
+        <v>1273.208464894802</v>
       </c>
       <c r="I73" s="5">
-        <v>1030.011342386806</v>
+        <v>1394.8070261488</v>
       </c>
       <c r="J73" s="5">
-        <v>1151.609903640804</v>
+        <v>1516.405587402798</v>
       </c>
       <c r="K73" s="5">
-        <v>1273.208464894802</v>
+        <v>1638.004148656796</v>
       </c>
       <c r="L73" s="5">
         <v>0</v>
       </c>
       <c r="M73" s="5">
-        <v>1394.8070261488</v>
+        <v>1759.602709910793</v>
       </c>
       <c r="N73" s="5">
-        <v>1516.405587402798</v>
+        <v>1881.201271164792</v>
       </c>
       <c r="O73" s="5">
-        <v>1638.004148656796</v>
+        <v>2002.799832418789</v>
       </c>
       <c r="P73" s="5">
-        <v>1759.602709910793</v>
+        <v>2124.398393672787</v>
       </c>
       <c r="Q73" s="5">
-        <v>1881.201271164792</v>
+        <v>2188.774102571963</v>
       </c>
       <c r="R73" s="5">
-        <v>2002.799832418789</v>
+        <v>2253.149811471138</v>
       </c>
       <c r="S73" s="5">
         <v>0</v>
       </c>
       <c r="T73" s="5">
-        <v>1529.601893792821</v>
+        <v>2317.525520370314</v>
       </c>
     </row>
     <row r="74" spans="1:20">
@@ -5022,55 +5034,55 @@
         <v>0.32</v>
       </c>
       <c r="D74" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.32</v>
       </c>
       <c r="E74" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="F74" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="G74" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="H74" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="F74" s="6">
-        <v>0.3955555555555555</v>
-      </c>
-      <c r="G74" s="6">
+      <c r="I74" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="H74" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="I74" s="6">
-        <v>0.32</v>
-      </c>
       <c r="J74" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.4711111111111111</v>
       </c>
       <c r="K74" s="6">
-        <v>0.3955555555555555</v>
+        <v>0.5088888888888889</v>
       </c>
       <c r="L74" s="6">
-        <v>0.4333333333333333</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="M74" s="6">
-        <v>0.4333333333333333</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="N74" s="6">
-        <v>0.4711111111111111</v>
+        <v>0.5844444444444445</v>
       </c>
       <c r="O74" s="6">
-        <v>0.5088888888888889</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="P74" s="6">
-        <v>0.5466666666666666</v>
+        <v>0.66</v>
       </c>
       <c r="Q74" s="6">
-        <v>0.5844444444444445</v>
+        <v>0.68</v>
       </c>
       <c r="R74" s="6">
-        <v>0.6222222222222222</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="S74" s="6">
-        <v>0.66</v>
+        <v>0.7200000000000001</v>
       </c>
       <c r="T74" s="6">
-        <v>0.32</v>
+        <v>0.7200000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -5082,55 +5094,55 @@
         <v>1</v>
       </c>
       <c r="D75" s="2">
+        <v>0</v>
+      </c>
+      <c r="E75" s="2">
+        <v>1</v>
+      </c>
+      <c r="F75" s="2">
+        <v>1</v>
+      </c>
+      <c r="G75" s="2">
         <v>2</v>
       </c>
-      <c r="E75" s="2">
+      <c r="H75" s="2">
         <v>3</v>
       </c>
-      <c r="F75" s="2">
-        <v>3</v>
-      </c>
-      <c r="G75" s="2">
+      <c r="I75" s="2">
         <v>4</v>
       </c>
-      <c r="H75" s="2">
-        <v>0</v>
-      </c>
-      <c r="I75" s="2">
-        <v>1</v>
-      </c>
       <c r="J75" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K75" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L75" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M75" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N75" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O75" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P75" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Q75" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R75" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S75" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T75" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -5142,55 +5154,55 @@
         <v>0.32</v>
       </c>
       <c r="D76" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.32</v>
       </c>
       <c r="E76" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="F76" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="G76" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="H76" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="F76" s="6">
-        <v>0.3955555555555555</v>
-      </c>
-      <c r="G76" s="6">
+      <c r="I76" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="H76" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="I76" s="6">
-        <v>0.32</v>
-      </c>
       <c r="J76" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.4711111111111111</v>
       </c>
       <c r="K76" s="6">
-        <v>0.3955555555555555</v>
+        <v>0.5088888888888889</v>
       </c>
       <c r="L76" s="6">
-        <v>0.4333333333333333</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="M76" s="6">
-        <v>0.4333333333333333</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="N76" s="6">
-        <v>0.4711111111111111</v>
+        <v>0.5844444444444445</v>
       </c>
       <c r="O76" s="6">
-        <v>0.5088888888888889</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="P76" s="6">
-        <v>0.5466666666666666</v>
+        <v>0.66</v>
       </c>
       <c r="Q76" s="6">
-        <v>0.5844444444444445</v>
+        <v>0.68</v>
       </c>
       <c r="R76" s="6">
-        <v>0.6222222222222222</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="S76" s="6">
-        <v>0.66</v>
+        <v>0.7200000000000001</v>
       </c>
       <c r="T76" s="6">
-        <v>0.32</v>
+        <v>0.7200000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -5200,59 +5212,59 @@
       <c r="B77" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L77" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M77" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N77" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="O77" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P77" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q77" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="R77" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="S77" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D77" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H77" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I77" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J77" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K77" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="L77" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="M77" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="N77" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="O77" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="P77" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q77" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="R77" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="S77" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="T77" s="8" t="s">
-        <v>46</v>
+      <c r="T77" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -5261,58 +5273,58 @@
         <v>40</v>
       </c>
       <c r="C78" s="5">
-        <v>1529.601893792821</v>
+        <v>1030.011342386806</v>
       </c>
       <c r="D78" s="5">
-        <v>1710.179895143362</v>
+        <v>1030.011342386806</v>
       </c>
       <c r="E78" s="5">
         <v>0</v>
       </c>
       <c r="F78" s="5">
-        <v>1890.757896493903</v>
+        <v>1151.609903640804</v>
       </c>
       <c r="G78" s="5">
-        <v>2071.335897844445</v>
+        <v>1273.208464894802</v>
       </c>
       <c r="H78" s="5">
-        <v>2251.913899194986</v>
+        <v>1394.8070261488</v>
       </c>
       <c r="I78" s="5">
-        <v>2432.491900545528</v>
+        <v>1516.405587402798</v>
       </c>
       <c r="J78" s="5">
-        <v>2613.069901896069</v>
+        <v>1638.004148656796</v>
       </c>
       <c r="K78" s="5">
-        <v>2793.647903246611</v>
+        <v>1759.602709910793</v>
       </c>
       <c r="L78" s="5">
         <v>0</v>
       </c>
       <c r="M78" s="5">
-        <v>2974.225904597151</v>
+        <v>1881.201271164792</v>
       </c>
       <c r="N78" s="5">
-        <v>3154.803905947693</v>
+        <v>2002.799832418789</v>
       </c>
       <c r="O78" s="5">
-        <v>3250.404024309745</v>
+        <v>2124.398393672787</v>
       </c>
       <c r="P78" s="5">
-        <v>3346.004142671796</v>
+        <v>2188.774102571963</v>
       </c>
       <c r="Q78" s="5">
-        <v>3441.604261033847</v>
+        <v>2253.149811471138</v>
       </c>
       <c r="R78" s="5">
-        <v>3537.204379395898</v>
+        <v>2317.525520370314</v>
       </c>
       <c r="S78" s="5">
         <v>0</v>
       </c>
       <c r="T78" s="5">
-        <v>3632.80449775795</v>
+        <v>533.3333333333334</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -5324,55 +5336,55 @@
         <v>0.32</v>
       </c>
       <c r="D79" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.32</v>
       </c>
       <c r="E79" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="F79" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="G79" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="F79" s="6">
-        <v>0.3955555555555555</v>
-      </c>
-      <c r="G79" s="6">
+      <c r="H79" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="H79" s="6">
+      <c r="I79" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="I79" s="6">
+      <c r="J79" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="J79" s="6">
+      <c r="K79" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="K79" s="6">
+      <c r="L79" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="L79" s="6">
+      <c r="M79" s="6">
+        <v>0.5844444444444445</v>
+      </c>
+      <c r="N79" s="6">
         <v>0.6222222222222222</v>
       </c>
-      <c r="M79" s="6">
-        <v>0.6222222222222222</v>
-      </c>
-      <c r="N79" s="6">
+      <c r="O79" s="6">
         <v>0.66</v>
       </c>
-      <c r="O79" s="6">
+      <c r="P79" s="6">
         <v>0.68</v>
       </c>
-      <c r="P79" s="6">
+      <c r="Q79" s="6">
         <v>0.7000000000000001</v>
       </c>
-      <c r="Q79" s="6">
+      <c r="R79" s="6">
         <v>0.7200000000000001</v>
       </c>
-      <c r="R79" s="6">
-        <v>0.74</v>
-      </c>
       <c r="S79" s="6">
-        <v>0.76</v>
+        <v>0.32</v>
       </c>
       <c r="T79" s="6">
-        <v>0.76</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -5381,58 +5393,58 @@
         <v>42</v>
       </c>
       <c r="C80" s="2">
+        <v>0</v>
+      </c>
+      <c r="D80" s="2">
         <v>1</v>
       </c>
-      <c r="D80" s="2">
+      <c r="E80" s="2">
         <v>2</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
+        <v>2</v>
+      </c>
+      <c r="G80" s="2">
         <v>3</v>
       </c>
-      <c r="F80" s="2">
-        <v>3</v>
-      </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>4</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>5</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>6</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>7</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>8</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
+        <v>8</v>
+      </c>
+      <c r="N80" s="2">
         <v>9</v>
       </c>
-      <c r="M80" s="2">
-        <v>9</v>
-      </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>10</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>11</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>12</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>13</v>
       </c>
-      <c r="R80" s="2">
-        <v>14</v>
-      </c>
       <c r="S80" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T80" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:20">
@@ -5444,55 +5456,55 @@
         <v>0.32</v>
       </c>
       <c r="D81" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.32</v>
       </c>
       <c r="E81" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="F81" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="G81" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="F81" s="6">
-        <v>0.3955555555555555</v>
-      </c>
-      <c r="G81" s="6">
+      <c r="H81" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="H81" s="6">
+      <c r="I81" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="I81" s="6">
+      <c r="J81" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="J81" s="6">
+      <c r="K81" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="K81" s="6">
+      <c r="L81" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="L81" s="6">
+      <c r="M81" s="6">
+        <v>0.5844444444444445</v>
+      </c>
+      <c r="N81" s="6">
         <v>0.6222222222222222</v>
       </c>
-      <c r="M81" s="6">
-        <v>0.6222222222222222</v>
-      </c>
-      <c r="N81" s="6">
+      <c r="O81" s="6">
         <v>0.66</v>
       </c>
-      <c r="O81" s="6">
+      <c r="P81" s="6">
         <v>0.68</v>
       </c>
-      <c r="P81" s="6">
+      <c r="Q81" s="6">
         <v>0.7000000000000001</v>
       </c>
-      <c r="Q81" s="6">
+      <c r="R81" s="6">
         <v>0.7200000000000001</v>
       </c>
-      <c r="R81" s="6">
-        <v>0.74</v>
-      </c>
       <c r="S81" s="6">
-        <v>0.76</v>
+        <v>0.32</v>
       </c>
       <c r="T81" s="6">
-        <v>0.76</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="82" spans="1:20">
@@ -5502,59 +5514,59 @@
       <c r="B82" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="D82" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E82" s="8" t="s">
+      <c r="E82" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F82" s="8" t="s">
+      <c r="F82" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G82" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I82" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J82" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K82" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L82" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M82" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="N82" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="O82" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P82" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q82" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="R82" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="S82" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="T82" s="7" t="s">
-        <v>47</v>
+      <c r="G82" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J82" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K82" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L82" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M82" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="N82" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O82" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P82" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q82" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="R82" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="S82" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="T82" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="83" spans="1:20">
@@ -5575,46 +5587,46 @@
         <v>1890.757896493903</v>
       </c>
       <c r="G83" s="5">
-        <v>1030.011342386806</v>
+        <v>2071.335897844445</v>
       </c>
       <c r="H83" s="5">
-        <v>1030.011342386806</v>
+        <v>2251.913899194986</v>
       </c>
       <c r="I83" s="5">
-        <v>1151.609903640804</v>
+        <v>2432.491900545528</v>
       </c>
       <c r="J83" s="5">
-        <v>1273.208464894802</v>
+        <v>2613.069901896069</v>
       </c>
       <c r="K83" s="5">
-        <v>1394.8070261488</v>
+        <v>2793.647903246611</v>
       </c>
       <c r="L83" s="5">
         <v>0</v>
       </c>
       <c r="M83" s="5">
-        <v>1516.405587402798</v>
+        <v>2974.225904597151</v>
       </c>
       <c r="N83" s="5">
-        <v>1638.004148656796</v>
+        <v>3154.803905947693</v>
       </c>
       <c r="O83" s="5">
-        <v>1759.602709910793</v>
+        <v>3250.404024309745</v>
       </c>
       <c r="P83" s="5">
-        <v>1881.201271164792</v>
+        <v>3346.004142671796</v>
       </c>
       <c r="Q83" s="5">
-        <v>2002.799832418789</v>
+        <v>3441.604261033847</v>
       </c>
       <c r="R83" s="5">
-        <v>2124.398393672787</v>
+        <v>3537.204379395898</v>
       </c>
       <c r="S83" s="5">
         <v>0</v>
       </c>
       <c r="T83" s="5">
-        <v>2188.774102571963</v>
+        <v>3632.804497757949</v>
       </c>
     </row>
     <row r="84" spans="1:20">
@@ -5635,46 +5647,46 @@
         <v>0.3955555555555555</v>
       </c>
       <c r="G84" s="6">
-        <v>0.32</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="H84" s="6">
-        <v>0.32</v>
+        <v>0.4711111111111111</v>
       </c>
       <c r="I84" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.5088888888888889</v>
       </c>
       <c r="J84" s="6">
-        <v>0.3955555555555555</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="K84" s="6">
-        <v>0.4333333333333333</v>
+        <v>0.5844444444444445</v>
       </c>
       <c r="L84" s="6">
-        <v>0.4711111111111111</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="M84" s="6">
-        <v>0.4711111111111111</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="N84" s="6">
-        <v>0.5088888888888889</v>
+        <v>0.66</v>
       </c>
       <c r="O84" s="6">
-        <v>0.5466666666666666</v>
+        <v>0.68</v>
       </c>
       <c r="P84" s="6">
-        <v>0.5844444444444445</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="Q84" s="6">
-        <v>0.6222222222222222</v>
+        <v>0.7200000000000001</v>
       </c>
       <c r="R84" s="6">
-        <v>0.66</v>
+        <v>0.74</v>
       </c>
       <c r="S84" s="6">
-        <v>0.68</v>
+        <v>0.76</v>
       </c>
       <c r="T84" s="6">
-        <v>0.68</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="85" spans="1:20">
@@ -5695,46 +5707,46 @@
         <v>3</v>
       </c>
       <c r="G85" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H85" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I85" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J85" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K85" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L85" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M85" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N85" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O85" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="P85" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Q85" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="R85" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="S85" s="2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="T85" s="2">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:20">
@@ -5755,46 +5767,46 @@
         <v>0.3955555555555555</v>
       </c>
       <c r="G86" s="6">
-        <v>0.32</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="H86" s="6">
-        <v>0.32</v>
+        <v>0.4711111111111111</v>
       </c>
       <c r="I86" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.5088888888888889</v>
       </c>
       <c r="J86" s="6">
-        <v>0.3955555555555555</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="K86" s="6">
-        <v>0.4333333333333333</v>
+        <v>0.5844444444444445</v>
       </c>
       <c r="L86" s="6">
-        <v>0.4711111111111111</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="M86" s="6">
-        <v>0.4711111111111111</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="N86" s="6">
-        <v>0.5088888888888889</v>
+        <v>0.66</v>
       </c>
       <c r="O86" s="6">
-        <v>0.5466666666666666</v>
+        <v>0.68</v>
       </c>
       <c r="P86" s="6">
-        <v>0.5844444444444445</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="Q86" s="6">
-        <v>0.6222222222222222</v>
+        <v>0.7200000000000001</v>
       </c>
       <c r="R86" s="6">
-        <v>0.66</v>
+        <v>0.74</v>
       </c>
       <c r="S86" s="6">
-        <v>0.68</v>
+        <v>0.76</v>
       </c>
       <c r="T86" s="6">
-        <v>0.68</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="87" spans="1:20">
@@ -5804,59 +5816,59 @@
       <c r="B87" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D87" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E87" s="8" t="s">
+      <c r="E87" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F87" s="8" t="s">
+      <c r="F87" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G87" s="8" t="s">
+      <c r="G87" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H87" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I87" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J87" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K87" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="L87" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="M87" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="N87" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="O87" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="P87" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q87" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="R87" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="S87" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="T87" s="9" t="s">
-        <v>48</v>
+      <c r="H87" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K87" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L87" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M87" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N87" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="O87" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P87" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q87" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="R87" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="S87" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="T87" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="88" spans="1:20">
@@ -5880,37 +5892,37 @@
         <v>2071.335897844445</v>
       </c>
       <c r="H88" s="5">
-        <v>2251.913899194986</v>
+        <v>1030.011342386806</v>
       </c>
       <c r="I88" s="5">
-        <v>2432.491900545528</v>
+        <v>1030.011342386806</v>
       </c>
       <c r="J88" s="5">
-        <v>2613.069901896069</v>
+        <v>1151.609903640804</v>
       </c>
       <c r="K88" s="5">
-        <v>2793.647903246611</v>
+        <v>1273.208464894802</v>
       </c>
       <c r="L88" s="5">
         <v>0</v>
       </c>
       <c r="M88" s="5">
-        <v>2974.225904597151</v>
+        <v>1394.8070261488</v>
       </c>
       <c r="N88" s="5">
-        <v>3154.803905947693</v>
+        <v>1516.405587402798</v>
       </c>
       <c r="O88" s="5">
-        <v>3250.404024309745</v>
+        <v>1638.004148656796</v>
       </c>
       <c r="P88" s="5">
-        <v>3346.004142671796</v>
+        <v>1759.602709910793</v>
       </c>
       <c r="Q88" s="5">
-        <v>3441.604261033847</v>
+        <v>1881.201271164792</v>
       </c>
       <c r="R88" s="5">
-        <v>3537.204379395898</v>
+        <v>2002.799832418789</v>
       </c>
       <c r="S88" s="5">
         <v>0</v>
@@ -5940,40 +5952,40 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H89" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="I89" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="J89" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="K89" s="6">
+        <v>0.3955555555555555</v>
+      </c>
+      <c r="L89" s="6">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="M89" s="6">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="N89" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="I89" s="6">
+      <c r="O89" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="J89" s="6">
+      <c r="P89" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="K89" s="6">
+      <c r="Q89" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="L89" s="6">
+      <c r="R89" s="6">
         <v>0.6222222222222222</v>
       </c>
-      <c r="M89" s="6">
-        <v>0.6222222222222222</v>
-      </c>
-      <c r="N89" s="6">
-        <v>0.66</v>
-      </c>
-      <c r="O89" s="6">
-        <v>0.68</v>
-      </c>
-      <c r="P89" s="6">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="Q89" s="6">
-        <v>0.7200000000000001</v>
-      </c>
-      <c r="R89" s="6">
-        <v>0.74</v>
-      </c>
       <c r="S89" s="6">
-        <v>0.76</v>
+        <v>0.32</v>
       </c>
       <c r="T89" s="6">
         <v>0.32</v>
@@ -6000,40 +6012,40 @@
         <v>4</v>
       </c>
       <c r="H90" s="2">
+        <v>0</v>
+      </c>
+      <c r="I90" s="2">
+        <v>1</v>
+      </c>
+      <c r="J90" s="2">
+        <v>2</v>
+      </c>
+      <c r="K90" s="2">
+        <v>3</v>
+      </c>
+      <c r="L90" s="2">
+        <v>4</v>
+      </c>
+      <c r="M90" s="2">
+        <v>4</v>
+      </c>
+      <c r="N90" s="2">
         <v>5</v>
       </c>
-      <c r="I90" s="2">
+      <c r="O90" s="2">
         <v>6</v>
       </c>
-      <c r="J90" s="2">
+      <c r="P90" s="2">
         <v>7</v>
       </c>
-      <c r="K90" s="2">
+      <c r="Q90" s="2">
         <v>8</v>
       </c>
-      <c r="L90" s="2">
+      <c r="R90" s="2">
         <v>9</v>
       </c>
-      <c r="M90" s="2">
-        <v>9</v>
-      </c>
-      <c r="N90" s="2">
-        <v>10</v>
-      </c>
-      <c r="O90" s="2">
-        <v>11</v>
-      </c>
-      <c r="P90" s="2">
-        <v>12</v>
-      </c>
-      <c r="Q90" s="2">
-        <v>13</v>
-      </c>
-      <c r="R90" s="2">
-        <v>14</v>
-      </c>
       <c r="S90" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T90" s="2">
         <v>0</v>
@@ -6060,40 +6072,40 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H91" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="I91" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="J91" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="K91" s="6">
+        <v>0.3955555555555555</v>
+      </c>
+      <c r="L91" s="6">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="M91" s="6">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="N91" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="I91" s="6">
+      <c r="O91" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="J91" s="6">
+      <c r="P91" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="K91" s="6">
+      <c r="Q91" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="L91" s="6">
+      <c r="R91" s="6">
         <v>0.6222222222222222</v>
       </c>
-      <c r="M91" s="6">
-        <v>0.6222222222222222</v>
-      </c>
-      <c r="N91" s="6">
-        <v>0.66</v>
-      </c>
-      <c r="O91" s="6">
-        <v>0.68</v>
-      </c>
-      <c r="P91" s="6">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="Q91" s="6">
-        <v>0.7200000000000001</v>
-      </c>
-      <c r="R91" s="6">
-        <v>0.74</v>
-      </c>
       <c r="S91" s="6">
-        <v>0.76</v>
+        <v>0.32</v>
       </c>
       <c r="T91" s="6">
         <v>0.32</v>
@@ -6106,58 +6118,58 @@
       <c r="B92" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D92" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H92" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I92" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J92" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K92" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L92" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M92" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="N92" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="O92" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P92" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q92" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="R92" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="S92" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="T92" s="8" t="s">
+      <c r="D92" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I92" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J92" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K92" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L92" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M92" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="N92" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O92" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P92" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q92" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="R92" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="S92" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="T92" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6170,55 +6182,55 @@
         <v>1529.601893792821</v>
       </c>
       <c r="D93" s="5">
-        <v>1030.011342386806</v>
+        <v>1710.179895143362</v>
       </c>
       <c r="E93" s="5">
         <v>0</v>
       </c>
       <c r="F93" s="5">
-        <v>1030.011342386806</v>
+        <v>1890.757896493903</v>
       </c>
       <c r="G93" s="5">
-        <v>1151.609903640804</v>
+        <v>2071.335897844445</v>
       </c>
       <c r="H93" s="5">
-        <v>1273.208464894802</v>
+        <v>2251.913899194986</v>
       </c>
       <c r="I93" s="5">
-        <v>1394.8070261488</v>
+        <v>2432.491900545528</v>
       </c>
       <c r="J93" s="5">
-        <v>1516.405587402798</v>
+        <v>2613.069901896069</v>
       </c>
       <c r="K93" s="5">
-        <v>1638.004148656796</v>
+        <v>2793.647903246611</v>
       </c>
       <c r="L93" s="5">
         <v>0</v>
       </c>
       <c r="M93" s="5">
-        <v>1759.602709910793</v>
+        <v>2974.225904597151</v>
       </c>
       <c r="N93" s="5">
-        <v>1881.201271164792</v>
+        <v>3154.803905947693</v>
       </c>
       <c r="O93" s="5">
-        <v>2002.799832418789</v>
+        <v>3250.404024309745</v>
       </c>
       <c r="P93" s="5">
-        <v>2124.398393672787</v>
+        <v>3346.004142671796</v>
       </c>
       <c r="Q93" s="5">
-        <v>2188.774102571963</v>
+        <v>3441.604261033847</v>
       </c>
       <c r="R93" s="5">
-        <v>2253.149811471138</v>
+        <v>3537.204379395898</v>
       </c>
       <c r="S93" s="5">
         <v>0</v>
       </c>
       <c r="T93" s="5">
-        <v>1529.601893792821</v>
+        <v>3632.804497757949</v>
       </c>
     </row>
     <row r="94" spans="1:20">
@@ -6230,55 +6242,55 @@
         <v>0.32</v>
       </c>
       <c r="D94" s="6">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="E94" s="6">
-        <v>0.32</v>
+        <v>0.3955555555555555</v>
       </c>
       <c r="F94" s="6">
-        <v>0.32</v>
+        <v>0.3955555555555555</v>
       </c>
       <c r="G94" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="H94" s="6">
-        <v>0.3955555555555555</v>
+        <v>0.4711111111111111</v>
       </c>
       <c r="I94" s="6">
-        <v>0.4333333333333333</v>
+        <v>0.5088888888888889</v>
       </c>
       <c r="J94" s="6">
-        <v>0.4711111111111111</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="K94" s="6">
-        <v>0.5088888888888889</v>
+        <v>0.5844444444444445</v>
       </c>
       <c r="L94" s="6">
-        <v>0.5466666666666666</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="M94" s="6">
-        <v>0.5466666666666666</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="N94" s="6">
-        <v>0.5844444444444445</v>
+        <v>0.66</v>
       </c>
       <c r="O94" s="6">
-        <v>0.6222222222222222</v>
+        <v>0.68</v>
       </c>
       <c r="P94" s="6">
-        <v>0.66</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="Q94" s="6">
-        <v>0.68</v>
+        <v>0.7200000000000001</v>
       </c>
       <c r="R94" s="6">
-        <v>0.7000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="S94" s="6">
-        <v>0.7200000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="T94" s="6">
-        <v>0.32</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="95" spans="1:20">
@@ -6290,55 +6302,55 @@
         <v>1</v>
       </c>
       <c r="D95" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E95" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F95" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G95" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H95" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I95" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J95" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K95" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L95" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M95" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N95" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O95" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="P95" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q95" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="R95" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S95" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="T95" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:20">
@@ -6350,55 +6362,55 @@
         <v>0.32</v>
       </c>
       <c r="D96" s="6">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="E96" s="6">
-        <v>0.32</v>
+        <v>0.3955555555555555</v>
       </c>
       <c r="F96" s="6">
-        <v>0.32</v>
+        <v>0.3955555555555555</v>
       </c>
       <c r="G96" s="6">
-        <v>0.3577777777777778</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="H96" s="6">
-        <v>0.3955555555555555</v>
+        <v>0.4711111111111111</v>
       </c>
       <c r="I96" s="6">
-        <v>0.4333333333333333</v>
+        <v>0.5088888888888889</v>
       </c>
       <c r="J96" s="6">
-        <v>0.4711111111111111</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="K96" s="6">
-        <v>0.5088888888888889</v>
+        <v>0.5844444444444445</v>
       </c>
       <c r="L96" s="6">
-        <v>0.5466666666666666</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="M96" s="6">
-        <v>0.5466666666666666</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="N96" s="6">
-        <v>0.5844444444444445</v>
+        <v>0.66</v>
       </c>
       <c r="O96" s="6">
-        <v>0.6222222222222222</v>
+        <v>0.68</v>
       </c>
       <c r="P96" s="6">
-        <v>0.66</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="Q96" s="6">
-        <v>0.68</v>
+        <v>0.7200000000000001</v>
       </c>
       <c r="R96" s="6">
-        <v>0.7000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="S96" s="6">
-        <v>0.7200000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="T96" s="6">
-        <v>0.32</v>
+        <v>0.76</v>
       </c>
     </row>
   </sheetData>

--- a/result/Production_Plan_Report.xlsx
+++ b/result/Production_Plan_Report.xlsx
@@ -730,29 +730,29 @@
       <c r="E2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>46</v>
+      <c r="F2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>48</v>
@@ -760,20 +760,20 @@
       <c r="O2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>46</v>
+      <c r="P2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -791,43 +791,43 @@
         <v>0</v>
       </c>
       <c r="F3" s="6">
-        <v>1588.652482269503</v>
+        <v>2066.420664206642</v>
       </c>
       <c r="G3" s="6">
-        <v>1776.201733648542</v>
+        <v>2066.420664206642</v>
       </c>
       <c r="H3" s="6">
-        <v>1963.75098502758</v>
+        <v>2310.373103731038</v>
       </c>
       <c r="I3" s="6">
-        <v>2151.300236406619</v>
+        <v>2554.325543255432</v>
       </c>
       <c r="J3" s="6">
-        <v>2338.849487785658</v>
+        <v>2798.277982779828</v>
       </c>
       <c r="K3" s="6">
-        <v>2526.398739164697</v>
+        <v>3042.230422304223</v>
       </c>
       <c r="L3" s="6">
         <v>0</v>
       </c>
       <c r="M3" s="6">
-        <v>2713.947990543735</v>
+        <v>3286.182861828619</v>
       </c>
       <c r="N3" s="6">
-        <v>2066.420664206642</v>
+        <v>3530.135301353014</v>
       </c>
       <c r="O3" s="6">
-        <v>2066.420664206642</v>
+        <v>3774.087740877409</v>
       </c>
       <c r="P3" s="6">
-        <v>1588.652482269503</v>
+        <v>2124.748569765485</v>
       </c>
       <c r="Q3" s="6">
-        <v>1588.652482269503</v>
+        <v>0</v>
       </c>
       <c r="R3" s="6">
-        <v>1667.125803714445</v>
+        <v>0</v>
       </c>
       <c r="S3" s="6">
         <v>0</v>
@@ -854,46 +854,46 @@
         <v>0.32</v>
       </c>
       <c r="G4" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="H4" s="7">
         <v>0.3577777777777778</v>
       </c>
-      <c r="H4" s="7">
+      <c r="I4" s="7">
         <v>0.3955555555555555</v>
       </c>
-      <c r="I4" s="7">
+      <c r="J4" s="7">
         <v>0.4333333333333333</v>
       </c>
-      <c r="J4" s="7">
+      <c r="K4" s="7">
         <v>0.4711111111111111</v>
       </c>
-      <c r="K4" s="7">
+      <c r="L4" s="7">
         <v>0.5088888888888889</v>
       </c>
-      <c r="L4" s="7">
+      <c r="M4" s="7">
+        <v>0.5088888888888889</v>
+      </c>
+      <c r="N4" s="7">
         <v>0.5466666666666666</v>
       </c>
-      <c r="M4" s="7">
-        <v>0.5466666666666666</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0.32</v>
-      </c>
       <c r="O4" s="7">
-        <v>0.32</v>
+        <v>0.5844444444444445</v>
       </c>
       <c r="P4" s="7">
-        <v>0.32</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="Q4" s="7">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="R4" s="7">
-        <v>0.3577777777777778</v>
+        <v>0.66</v>
       </c>
       <c r="S4" s="7">
-        <v>0.3955555555555555</v>
+        <v>0.66</v>
       </c>
       <c r="T4" s="7">
-        <v>0.3955555555555555</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -911,49 +911,49 @@
         <v>1</v>
       </c>
       <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>1</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>2</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>3</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>4</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>5</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>6</v>
       </c>
-      <c r="L5">
+      <c r="M5">
+        <v>6</v>
+      </c>
+      <c r="N5">
         <v>7</v>
       </c>
-      <c r="M5">
-        <v>7</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
       <c r="O5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -974,46 +974,46 @@
         <v>0.32</v>
       </c>
       <c r="G6">
+        <v>0.32</v>
+      </c>
+      <c r="H6">
         <v>0.3577777777777778</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="L6">
+      <c r="M6">
+        <v>0.5088888888888889</v>
+      </c>
+      <c r="N6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="M6">
-        <v>0.5466666666666666</v>
-      </c>
-      <c r="N6">
-        <v>0.32</v>
-      </c>
       <c r="O6">
-        <v>0.32</v>
+        <v>0.5844444444444445</v>
       </c>
       <c r="P6">
-        <v>0.32</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="Q6">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="R6">
-        <v>0.3577777777777778</v>
+        <v>0.66</v>
       </c>
       <c r="S6">
-        <v>0.3955555555555555</v>
+        <v>0.66</v>
       </c>
       <c r="T6">
-        <v>0.3955555555555555</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1029,8 +1029,8 @@
       <c r="D7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>46</v>
+      <c r="E7" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>48</v>
@@ -1065,17 +1065,17 @@
       <c r="P7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="Q7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>48</v>
+      <c r="Q7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1123,13 +1123,13 @@
         <v>3774.087740877409</v>
       </c>
       <c r="P8" s="6">
-        <v>2265.164267918103</v>
+        <v>2124.748569765485</v>
       </c>
       <c r="Q8" s="6">
-        <v>0</v>
+        <v>1529.601893792821</v>
       </c>
       <c r="R8" s="6">
-        <v>0</v>
+        <v>1277.300823983304</v>
       </c>
       <c r="S8" s="6">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>0.6222222222222222</v>
       </c>
       <c r="Q9" s="7">
-        <v>0.66</v>
+        <v>0.32</v>
       </c>
       <c r="R9" s="7">
-        <v>0.66</v>
+        <v>0.32</v>
       </c>
       <c r="S9" s="7">
-        <v>0.66</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="T9" s="7">
-        <v>0.66</v>
+        <v>0.3577777777777778</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1246,16 +1246,16 @@
         <v>9</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S10">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T10">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1306,16 +1306,16 @@
         <v>0.6222222222222222</v>
       </c>
       <c r="Q11">
-        <v>0.66</v>
+        <v>0.32</v>
       </c>
       <c r="R11">
-        <v>0.66</v>
+        <v>0.32</v>
       </c>
       <c r="S11">
-        <v>0.66</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="T11">
-        <v>0.66</v>
+        <v>0.3577777777777778</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1331,8 +1331,8 @@
       <c r="D12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>46</v>
+      <c r="E12" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>48</v>
@@ -1346,14 +1346,14 @@
       <c r="I12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>46</v>
+      <c r="J12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>48</v>
@@ -1407,31 +1407,31 @@
         <v>2554.325543255432</v>
       </c>
       <c r="J13" s="6">
-        <v>1588.652482269503</v>
+        <v>2798.277982779828</v>
       </c>
       <c r="K13" s="6">
-        <v>1588.652482269503</v>
+        <v>3042.230422304223</v>
       </c>
       <c r="L13" s="6">
         <v>0</v>
       </c>
       <c r="M13" s="6">
-        <v>2066.420664206642</v>
+        <v>3286.182861828619</v>
       </c>
       <c r="N13" s="6">
-        <v>2066.420664206642</v>
+        <v>3530.135301353014</v>
       </c>
       <c r="O13" s="6">
-        <v>2310.373103731038</v>
+        <v>3774.087740877409</v>
       </c>
       <c r="P13" s="6">
-        <v>1439.99728460508</v>
+        <v>2124.748569765485</v>
       </c>
       <c r="Q13" s="6">
         <v>1529.601893792821</v>
       </c>
       <c r="R13" s="6">
-        <v>1285.117529889643</v>
+        <v>1277.300823983304</v>
       </c>
       <c r="S13" s="6">
         <v>0</v>
@@ -1467,25 +1467,25 @@
         <v>0.3955555555555555</v>
       </c>
       <c r="J14" s="7">
-        <v>0.32</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="K14" s="7">
-        <v>0.32</v>
+        <v>0.4711111111111111</v>
       </c>
       <c r="L14" s="7">
-        <v>0.3577777777777778</v>
+        <v>0.5088888888888889</v>
       </c>
       <c r="M14" s="7">
-        <v>0.32</v>
+        <v>0.5088888888888889</v>
       </c>
       <c r="N14" s="7">
-        <v>0.32</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="O14" s="7">
-        <v>0.3577777777777778</v>
+        <v>0.5844444444444445</v>
       </c>
       <c r="P14" s="7">
-        <v>0.3955555555555555</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="Q14" s="7">
         <v>0.32</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1527,25 +1527,25 @@
         <v>3</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O15">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P15">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -1587,25 +1587,25 @@
         <v>0.3955555555555555</v>
       </c>
       <c r="J16">
-        <v>0.32</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="K16">
-        <v>0.32</v>
+        <v>0.4711111111111111</v>
       </c>
       <c r="L16">
-        <v>0.3577777777777778</v>
+        <v>0.5088888888888889</v>
       </c>
       <c r="M16">
-        <v>0.32</v>
+        <v>0.5088888888888889</v>
       </c>
       <c r="N16">
-        <v>0.32</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="O16">
-        <v>0.3577777777777778</v>
+        <v>0.5844444444444445</v>
       </c>
       <c r="P16">
-        <v>0.3955555555555555</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="Q16">
         <v>0.32</v>
@@ -1727,13 +1727,13 @@
         <v>3774.087740877409</v>
       </c>
       <c r="P18" s="6">
-        <v>2265.164267918103</v>
+        <v>2124.748569765485</v>
       </c>
       <c r="Q18" s="6">
         <v>1588.652482269503</v>
       </c>
       <c r="R18" s="6">
-        <v>1491.093886552051</v>
+        <v>1504.661134885716</v>
       </c>
       <c r="S18" s="6">
         <v>0</v>
@@ -1968,8 +1968,8 @@
       <c r="O22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="P22" s="4" t="s">
-        <v>46</v>
+      <c r="P22" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="Q22" s="4" t="s">
         <v>46</v>
@@ -2029,13 +2029,13 @@
         <v>3774.087740877409</v>
       </c>
       <c r="P23" s="6">
-        <v>1588.652482269503</v>
+        <v>2124.748569765485</v>
       </c>
       <c r="Q23" s="6">
         <v>1588.652482269503</v>
       </c>
       <c r="R23" s="6">
-        <v>1667.125803714445</v>
+        <v>1504.661134885716</v>
       </c>
       <c r="S23" s="6">
         <v>0</v>
@@ -2089,19 +2089,19 @@
         <v>0.5844444444444445</v>
       </c>
       <c r="P24" s="7">
-        <v>0.32</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="Q24" s="7">
         <v>0.32</v>
       </c>
       <c r="R24" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="S24" s="7">
         <v>0.3577777777777778</v>
       </c>
-      <c r="S24" s="7">
-        <v>0.3955555555555555</v>
-      </c>
       <c r="T24" s="7">
-        <v>0.3955555555555555</v>
+        <v>0.3577777777777778</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2149,19 +2149,19 @@
         <v>8</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
         <v>1</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>2</v>
       </c>
-      <c r="S25">
-        <v>3</v>
-      </c>
       <c r="T25">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2209,19 +2209,19 @@
         <v>0.5844444444444445</v>
       </c>
       <c r="P26">
-        <v>0.32</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="Q26">
         <v>0.32</v>
       </c>
       <c r="R26">
+        <v>0.32</v>
+      </c>
+      <c r="S26">
         <v>0.3577777777777778</v>
       </c>
-      <c r="S26">
-        <v>0.3955555555555555</v>
-      </c>
       <c r="T26">
-        <v>0.3955555555555555</v>
+        <v>0.3577777777777778</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2240,26 +2240,26 @@
       <c r="E27" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>48</v>
+      <c r="F27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="M27" s="5" t="s">
         <v>48</v>
@@ -2276,14 +2276,14 @@
       <c r="Q27" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T27" s="3" t="s">
-        <v>44</v>
+      <c r="R27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2301,43 +2301,43 @@
         <v>0</v>
       </c>
       <c r="F28" s="6">
+        <v>1588.652482269503</v>
+      </c>
+      <c r="G28" s="6">
+        <v>1776.201733648542</v>
+      </c>
+      <c r="H28" s="6">
+        <v>1963.75098502758</v>
+      </c>
+      <c r="I28" s="6">
+        <v>2151.300236406619</v>
+      </c>
+      <c r="J28" s="6">
+        <v>2338.849487785658</v>
+      </c>
+      <c r="K28" s="6">
+        <v>2526.398739164697</v>
+      </c>
+      <c r="L28" s="6">
+        <v>0</v>
+      </c>
+      <c r="M28" s="6">
         <v>2066.420664206642</v>
       </c>
-      <c r="G28" s="6">
+      <c r="N28" s="6">
         <v>2066.420664206642</v>
       </c>
-      <c r="H28" s="6">
+      <c r="O28" s="6">
         <v>2310.373103731038</v>
       </c>
-      <c r="I28" s="6">
-        <v>2554.325543255432</v>
-      </c>
-      <c r="J28" s="6">
-        <v>2798.277982779828</v>
-      </c>
-      <c r="K28" s="6">
-        <v>3042.230422304223</v>
-      </c>
-      <c r="L28" s="6">
-        <v>0</v>
-      </c>
-      <c r="M28" s="6">
-        <v>3286.182861828619</v>
-      </c>
-      <c r="N28" s="6">
-        <v>3530.135301353014</v>
-      </c>
-      <c r="O28" s="6">
-        <v>3774.087740877409</v>
-      </c>
       <c r="P28" s="6">
-        <v>2265.164267918103</v>
+        <v>1350.733019350915</v>
       </c>
       <c r="Q28" s="6">
         <v>1588.652482269503</v>
       </c>
       <c r="R28" s="6">
-        <v>1285.117529889643</v>
+        <v>1504.661134885716</v>
       </c>
       <c r="S28" s="6">
         <v>0</v>
@@ -2364,35 +2364,35 @@
         <v>0.32</v>
       </c>
       <c r="G29" s="7">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="H29" s="7">
+        <v>0.3955555555555555</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="J29" s="7">
+        <v>0.4711111111111111</v>
+      </c>
+      <c r="K29" s="7">
+        <v>0.5088888888888889</v>
+      </c>
+      <c r="L29" s="7">
+        <v>0.5466666666666666</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="O29" s="7">
         <v>0.3577777777777778</v>
       </c>
-      <c r="I29" s="7">
+      <c r="P29" s="7">
         <v>0.3955555555555555</v>
       </c>
-      <c r="J29" s="7">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="K29" s="7">
-        <v>0.4711111111111111</v>
-      </c>
-      <c r="L29" s="7">
-        <v>0.5088888888888889</v>
-      </c>
-      <c r="M29" s="7">
-        <v>0.5088888888888889</v>
-      </c>
-      <c r="N29" s="7">
-        <v>0.5466666666666666</v>
-      </c>
-      <c r="O29" s="7">
-        <v>0.5844444444444445</v>
-      </c>
-      <c r="P29" s="7">
-        <v>0.6222222222222222</v>
-      </c>
       <c r="Q29" s="7">
         <v>0.32</v>
       </c>
@@ -2400,10 +2400,10 @@
         <v>0.32</v>
       </c>
       <c r="S29" s="7">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="T29" s="7">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2421,49 +2421,49 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="J30">
+        <v>5</v>
+      </c>
+      <c r="K30">
+        <v>6</v>
+      </c>
+      <c r="L30">
+        <v>7</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
         <v>1</v>
       </c>
-      <c r="H30">
+      <c r="O30">
         <v>2</v>
       </c>
-      <c r="I30">
+      <c r="P30">
         <v>3</v>
       </c>
-      <c r="J30">
-        <v>4</v>
-      </c>
-      <c r="K30">
-        <v>5</v>
-      </c>
-      <c r="L30">
-        <v>6</v>
-      </c>
-      <c r="M30">
-        <v>6</v>
-      </c>
-      <c r="N30">
-        <v>7</v>
-      </c>
-      <c r="O30">
-        <v>8</v>
-      </c>
-      <c r="P30">
-        <v>9</v>
-      </c>
       <c r="Q30">
         <v>0</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2484,35 +2484,35 @@
         <v>0.32</v>
       </c>
       <c r="G31">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="H31">
+        <v>0.3955555555555555</v>
+      </c>
+      <c r="I31">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="J31">
+        <v>0.4711111111111111</v>
+      </c>
+      <c r="K31">
+        <v>0.5088888888888889</v>
+      </c>
+      <c r="L31">
+        <v>0.5466666666666666</v>
+      </c>
+      <c r="M31">
+        <v>0.32</v>
+      </c>
+      <c r="N31">
+        <v>0.32</v>
+      </c>
+      <c r="O31">
         <v>0.3577777777777778</v>
       </c>
-      <c r="I31">
+      <c r="P31">
         <v>0.3955555555555555</v>
       </c>
-      <c r="J31">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="K31">
-        <v>0.4711111111111111</v>
-      </c>
-      <c r="L31">
-        <v>0.5088888888888889</v>
-      </c>
-      <c r="M31">
-        <v>0.5088888888888889</v>
-      </c>
-      <c r="N31">
-        <v>0.5466666666666666</v>
-      </c>
-      <c r="O31">
-        <v>0.5844444444444445</v>
-      </c>
-      <c r="P31">
-        <v>0.6222222222222222</v>
-      </c>
       <c r="Q31">
         <v>0.32</v>
       </c>
@@ -2520,10 +2520,10 @@
         <v>0.32</v>
       </c>
       <c r="S31">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="T31">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2539,8 +2539,8 @@
       <c r="D32" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>48</v>
+      <c r="E32" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>48</v>
@@ -2575,17 +2575,17 @@
       <c r="P32" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="Q32" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="R32" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="S32" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="T32" s="4" t="s">
-        <v>46</v>
+      <c r="Q32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2633,13 +2633,13 @@
         <v>3774.087740877409</v>
       </c>
       <c r="P33" s="6">
-        <v>2265.164267918103</v>
+        <v>2124.748569765485</v>
       </c>
       <c r="Q33" s="6">
-        <v>939.6366009417862</v>
+        <v>1529.601893792821</v>
       </c>
       <c r="R33" s="6">
-        <v>1491.093886552051</v>
+        <v>1277.300823983304</v>
       </c>
       <c r="S33" s="6">
         <v>0</v>
@@ -2702,10 +2702,10 @@
         <v>0.32</v>
       </c>
       <c r="S34" s="7">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="T34" s="7">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2720,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2759,13 +2759,13 @@
         <v>0</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2822,10 +2822,10 @@
         <v>0.32</v>
       </c>
       <c r="S36">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="T36">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2844,17 +2844,17 @@
       <c r="E37" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>46</v>
+      <c r="F37" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>46</v>
@@ -2865,8 +2865,8 @@
       <c r="L37" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M37" s="4" t="s">
-        <v>46</v>
+      <c r="M37" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="N37" s="5" t="s">
         <v>48</v>
@@ -2877,8 +2877,8 @@
       <c r="P37" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="Q37" s="4" t="s">
-        <v>46</v>
+      <c r="Q37" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="R37" s="4" t="s">
         <v>46</v>
@@ -2905,43 +2905,43 @@
         <v>0</v>
       </c>
       <c r="F38" s="6">
+        <v>2066.420664206642</v>
+      </c>
+      <c r="G38" s="6">
+        <v>2066.420664206642</v>
+      </c>
+      <c r="H38" s="6">
+        <v>2310.373103731038</v>
+      </c>
+      <c r="I38" s="6">
+        <v>2554.325543255432</v>
+      </c>
+      <c r="J38" s="6">
         <v>1588.652482269503</v>
       </c>
-      <c r="G38" s="6">
-        <v>1776.201733648542</v>
-      </c>
-      <c r="H38" s="6">
-        <v>1963.75098502758</v>
-      </c>
-      <c r="I38" s="6">
-        <v>2151.300236406619</v>
-      </c>
-      <c r="J38" s="6">
-        <v>2338.849487785658</v>
-      </c>
       <c r="K38" s="6">
-        <v>2526.398739164697</v>
+        <v>1588.652482269503</v>
       </c>
       <c r="L38" s="6">
         <v>0</v>
       </c>
       <c r="M38" s="6">
-        <v>2713.947990543735</v>
+        <v>2066.420664206642</v>
       </c>
       <c r="N38" s="6">
         <v>2066.420664206642</v>
       </c>
       <c r="O38" s="6">
-        <v>2066.420664206642</v>
+        <v>2310.373103731038</v>
       </c>
       <c r="P38" s="6">
-        <v>1302.469454052909</v>
+        <v>1350.733019350915</v>
       </c>
       <c r="Q38" s="6">
-        <v>1588.652482269503</v>
+        <v>1529.601893792821</v>
       </c>
       <c r="R38" s="6">
-        <v>1491.093886552051</v>
+        <v>1504.661134885716</v>
       </c>
       <c r="S38" s="6">
         <v>0</v>
@@ -2968,34 +2968,34 @@
         <v>0.32</v>
       </c>
       <c r="G39" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="H39" s="7">
         <v>0.3577777777777778</v>
       </c>
-      <c r="H39" s="7">
+      <c r="I39" s="7">
         <v>0.3955555555555555</v>
       </c>
-      <c r="I39" s="7">
-        <v>0.4333333333333333</v>
-      </c>
       <c r="J39" s="7">
-        <v>0.4711111111111111</v>
+        <v>0.32</v>
       </c>
       <c r="K39" s="7">
-        <v>0.5088888888888889</v>
+        <v>0.32</v>
       </c>
       <c r="L39" s="7">
-        <v>0.5466666666666666</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="M39" s="7">
-        <v>0.5466666666666666</v>
+        <v>0.32</v>
       </c>
       <c r="N39" s="7">
         <v>0.32</v>
       </c>
       <c r="O39" s="7">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="P39" s="7">
-        <v>0.3577777777777778</v>
+        <v>0.3955555555555555</v>
       </c>
       <c r="Q39" s="7">
         <v>0.32</v>
@@ -3004,10 +3004,10 @@
         <v>0.32</v>
       </c>
       <c r="S39" s="7">
-        <v>0.3577777777777778</v>
+        <v>0.32</v>
       </c>
       <c r="T39" s="7">
-        <v>0.3577777777777778</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -3025,49 +3025,49 @@
         <v>1</v>
       </c>
       <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
         <v>1</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>2</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>3</v>
       </c>
-      <c r="I40">
-        <v>4</v>
-      </c>
       <c r="J40">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L40">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M40">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40">
+        <v>2</v>
+      </c>
+      <c r="P40">
+        <v>3</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
         <v>1</v>
       </c>
-      <c r="P40">
-        <v>2</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40">
+      <c r="T40">
         <v>1</v>
-      </c>
-      <c r="S40">
-        <v>2</v>
-      </c>
-      <c r="T40">
-        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -3088,34 +3088,34 @@
         <v>0.32</v>
       </c>
       <c r="G41">
+        <v>0.32</v>
+      </c>
+      <c r="H41">
         <v>0.3577777777777778</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>0.3955555555555555</v>
       </c>
-      <c r="I41">
-        <v>0.4333333333333333</v>
-      </c>
       <c r="J41">
-        <v>0.4711111111111111</v>
+        <v>0.32</v>
       </c>
       <c r="K41">
-        <v>0.5088888888888889</v>
+        <v>0.32</v>
       </c>
       <c r="L41">
-        <v>0.5466666666666666</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="M41">
-        <v>0.5466666666666666</v>
+        <v>0.32</v>
       </c>
       <c r="N41">
         <v>0.32</v>
       </c>
       <c r="O41">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="P41">
-        <v>0.3577777777777778</v>
+        <v>0.3955555555555555</v>
       </c>
       <c r="Q41">
         <v>0.32</v>
@@ -3124,10 +3124,10 @@
         <v>0.32</v>
       </c>
       <c r="S41">
-        <v>0.3577777777777778</v>
+        <v>0.32</v>
       </c>
       <c r="T41">
-        <v>0.3577777777777778</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -3143,53 +3143,53 @@
       <c r="D42" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="L42" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M42" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="N42" s="5" t="s">
-        <v>48</v>
+      <c r="E42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="O42" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T42" s="3" t="s">
-        <v>44</v>
+      <c r="P42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T42" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -3207,43 +3207,43 @@
         <v>0</v>
       </c>
       <c r="F43" s="6">
+        <v>1588.652482269503</v>
+      </c>
+      <c r="G43" s="6">
+        <v>1776.201733648542</v>
+      </c>
+      <c r="H43" s="6">
+        <v>1963.75098502758</v>
+      </c>
+      <c r="I43" s="6">
+        <v>2151.300236406619</v>
+      </c>
+      <c r="J43" s="6">
+        <v>2338.849487785658</v>
+      </c>
+      <c r="K43" s="6">
+        <v>2526.398739164697</v>
+      </c>
+      <c r="L43" s="6">
+        <v>0</v>
+      </c>
+      <c r="M43" s="6">
+        <v>2713.947990543735</v>
+      </c>
+      <c r="N43" s="6">
+        <v>2901.497241922774</v>
+      </c>
+      <c r="O43" s="6">
         <v>2066.420664206642</v>
       </c>
-      <c r="G43" s="6">
-        <v>2066.420664206642</v>
-      </c>
-      <c r="H43" s="6">
-        <v>2310.373103731038</v>
-      </c>
-      <c r="I43" s="6">
-        <v>2554.325543255432</v>
-      </c>
-      <c r="J43" s="6">
-        <v>2798.277982779828</v>
-      </c>
-      <c r="K43" s="6">
-        <v>3042.230422304223</v>
-      </c>
-      <c r="L43" s="6">
-        <v>0</v>
-      </c>
-      <c r="M43" s="6">
-        <v>3286.182861828619</v>
-      </c>
-      <c r="N43" s="6">
-        <v>3530.135301353014</v>
-      </c>
-      <c r="O43" s="6">
-        <v>3774.087740877409</v>
-      </c>
       <c r="P43" s="6">
-        <v>1529.601893792821</v>
+        <v>1588.652482269503</v>
       </c>
       <c r="Q43" s="6">
-        <v>1529.601893792821</v>
+        <v>1588.652482269503</v>
       </c>
       <c r="R43" s="6">
-        <v>1436.832793834948</v>
+        <v>1682.294741087503</v>
       </c>
       <c r="S43" s="6">
         <v>0</v>
@@ -3270,31 +3270,31 @@
         <v>0.32</v>
       </c>
       <c r="G44" s="7">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="H44" s="7">
-        <v>0.3577777777777778</v>
+        <v>0.3955555555555555</v>
       </c>
       <c r="I44" s="7">
-        <v>0.3955555555555555</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="J44" s="7">
-        <v>0.4333333333333333</v>
+        <v>0.4711111111111111</v>
       </c>
       <c r="K44" s="7">
-        <v>0.4711111111111111</v>
+        <v>0.5088888888888889</v>
       </c>
       <c r="L44" s="7">
-        <v>0.5088888888888889</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="M44" s="7">
-        <v>0.5088888888888889</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="N44" s="7">
-        <v>0.5466666666666666</v>
+        <v>0.5844444444444445</v>
       </c>
       <c r="O44" s="7">
-        <v>0.5844444444444445</v>
+        <v>0.32</v>
       </c>
       <c r="P44" s="7">
         <v>0.32</v>
@@ -3324,37 +3324,37 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K45">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L45">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M45">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N45">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O45">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P45">
         <v>0</v>
@@ -3390,31 +3390,31 @@
         <v>0.32</v>
       </c>
       <c r="G46">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="H46">
-        <v>0.3577777777777778</v>
+        <v>0.3955555555555555</v>
       </c>
       <c r="I46">
-        <v>0.3955555555555555</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="J46">
-        <v>0.4333333333333333</v>
+        <v>0.4711111111111111</v>
       </c>
       <c r="K46">
-        <v>0.4711111111111111</v>
+        <v>0.5088888888888889</v>
       </c>
       <c r="L46">
-        <v>0.5088888888888889</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="M46">
-        <v>0.5088888888888889</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="N46">
-        <v>0.5466666666666666</v>
+        <v>0.5844444444444445</v>
       </c>
       <c r="O46">
-        <v>0.5844444444444445</v>
+        <v>0.32</v>
       </c>
       <c r="P46">
         <v>0.32</v>
@@ -3451,14 +3451,14 @@
       <c r="F47" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G47" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>46</v>
+      <c r="G47" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>46</v>
@@ -3478,11 +3478,11 @@
       <c r="O47" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="P47" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q47" s="4" t="s">
-        <v>46</v>
+      <c r="P47" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>44</v>
@@ -3512,19 +3512,19 @@
         <v>1588.652482269503</v>
       </c>
       <c r="G48" s="6">
-        <v>1776.201733648542</v>
+        <v>2066.420664206642</v>
       </c>
       <c r="H48" s="6">
-        <v>1963.75098502758</v>
+        <v>2066.420664206642</v>
       </c>
       <c r="I48" s="6">
-        <v>2151.300236406619</v>
+        <v>2310.373103731038</v>
       </c>
       <c r="J48" s="6">
-        <v>2338.849487785658</v>
+        <v>1588.652482269503</v>
       </c>
       <c r="K48" s="6">
-        <v>2526.398739164697</v>
+        <v>1588.652482269503</v>
       </c>
       <c r="L48" s="6">
         <v>0</v>
@@ -3539,13 +3539,13 @@
         <v>2310.373103731038</v>
       </c>
       <c r="P48" s="6">
-        <v>1588.652482269503</v>
+        <v>1529.601893792821</v>
       </c>
       <c r="Q48" s="6">
-        <v>1588.652482269503</v>
+        <v>1529.601893792821</v>
       </c>
       <c r="R48" s="6">
-        <v>1285.117529889643</v>
+        <v>1428.093282370222</v>
       </c>
       <c r="S48" s="6">
         <v>0</v>
@@ -3572,22 +3572,22 @@
         <v>0.32</v>
       </c>
       <c r="G49" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="I49" s="7">
         <v>0.3577777777777778</v>
       </c>
-      <c r="H49" s="7">
-        <v>0.3955555555555555</v>
-      </c>
-      <c r="I49" s="7">
-        <v>0.4333333333333333</v>
-      </c>
       <c r="J49" s="7">
-        <v>0.4711111111111111</v>
+        <v>0.32</v>
       </c>
       <c r="K49" s="7">
-        <v>0.5088888888888889</v>
+        <v>0.32</v>
       </c>
       <c r="L49" s="7">
-        <v>0.5466666666666666</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="M49" s="7">
         <v>0.32</v>
@@ -3605,13 +3605,13 @@
         <v>0.32</v>
       </c>
       <c r="R49" s="7">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="S49" s="7">
-        <v>0.32</v>
+        <v>0.3955555555555555</v>
       </c>
       <c r="T49" s="7">
-        <v>0.32</v>
+        <v>0.3955555555555555</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -3632,22 +3632,22 @@
         <v>1</v>
       </c>
       <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
         <v>2</v>
       </c>
-      <c r="H50">
-        <v>3</v>
-      </c>
-      <c r="I50">
-        <v>4</v>
-      </c>
       <c r="J50">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K50">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L50">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -3665,13 +3665,13 @@
         <v>1</v>
       </c>
       <c r="R50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T50">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -3692,22 +3692,22 @@
         <v>0.32</v>
       </c>
       <c r="G51">
+        <v>0.32</v>
+      </c>
+      <c r="H51">
+        <v>0.32</v>
+      </c>
+      <c r="I51">
         <v>0.3577777777777778</v>
       </c>
-      <c r="H51">
-        <v>0.3955555555555555</v>
-      </c>
-      <c r="I51">
-        <v>0.4333333333333333</v>
-      </c>
       <c r="J51">
-        <v>0.4711111111111111</v>
+        <v>0.32</v>
       </c>
       <c r="K51">
-        <v>0.5088888888888889</v>
+        <v>0.32</v>
       </c>
       <c r="L51">
-        <v>0.5466666666666666</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="M51">
         <v>0.32</v>
@@ -3725,13 +3725,13 @@
         <v>0.32</v>
       </c>
       <c r="R51">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="S51">
-        <v>0.32</v>
+        <v>0.3955555555555555</v>
       </c>
       <c r="T51">
-        <v>0.32</v>
+        <v>0.3955555555555555</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -3750,29 +3750,29 @@
       <c r="E52" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F52" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K52" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="L52" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M52" s="5" t="s">
-        <v>48</v>
+      <c r="F52" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="N52" s="5" t="s">
         <v>48</v>
@@ -3780,20 +3780,20 @@
       <c r="O52" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>44</v>
+      <c r="P52" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q52" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R52" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S52" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T52" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:20">
@@ -3811,43 +3811,43 @@
         <v>0</v>
       </c>
       <c r="F53" s="6">
+        <v>1588.652482269503</v>
+      </c>
+      <c r="G53" s="6">
+        <v>1776.201733648542</v>
+      </c>
+      <c r="H53" s="6">
+        <v>1963.75098502758</v>
+      </c>
+      <c r="I53" s="6">
+        <v>2151.300236406619</v>
+      </c>
+      <c r="J53" s="6">
+        <v>2338.849487785658</v>
+      </c>
+      <c r="K53" s="6">
+        <v>2526.398739164697</v>
+      </c>
+      <c r="L53" s="6">
+        <v>0</v>
+      </c>
+      <c r="M53" s="6">
+        <v>2713.947990543735</v>
+      </c>
+      <c r="N53" s="6">
         <v>2066.420664206642</v>
       </c>
-      <c r="G53" s="6">
+      <c r="O53" s="6">
         <v>2066.420664206642</v>
       </c>
-      <c r="H53" s="6">
-        <v>2310.373103731038</v>
-      </c>
-      <c r="I53" s="6">
-        <v>2554.325543255432</v>
-      </c>
-      <c r="J53" s="6">
-        <v>2798.277982779828</v>
-      </c>
-      <c r="K53" s="6">
-        <v>3042.230422304223</v>
-      </c>
-      <c r="L53" s="6">
-        <v>0</v>
-      </c>
-      <c r="M53" s="6">
-        <v>3286.182861828619</v>
-      </c>
-      <c r="N53" s="6">
-        <v>3530.135301353014</v>
-      </c>
-      <c r="O53" s="6">
-        <v>3774.087740877409</v>
-      </c>
       <c r="P53" s="6">
-        <v>1529.601893792821</v>
+        <v>1588.652482269503</v>
       </c>
       <c r="Q53" s="6">
-        <v>1529.601893792821</v>
+        <v>1588.652482269503</v>
       </c>
       <c r="R53" s="6">
-        <v>1436.832793834948</v>
+        <v>1682.294741087503</v>
       </c>
       <c r="S53" s="6">
         <v>0</v>
@@ -3874,31 +3874,31 @@
         <v>0.32</v>
       </c>
       <c r="G54" s="7">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="H54" s="7">
-        <v>0.3577777777777778</v>
+        <v>0.3955555555555555</v>
       </c>
       <c r="I54" s="7">
-        <v>0.3955555555555555</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="J54" s="7">
-        <v>0.4333333333333333</v>
+        <v>0.4711111111111111</v>
       </c>
       <c r="K54" s="7">
-        <v>0.4711111111111111</v>
+        <v>0.5088888888888889</v>
       </c>
       <c r="L54" s="7">
-        <v>0.5088888888888889</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="M54" s="7">
-        <v>0.5088888888888889</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="N54" s="7">
-        <v>0.5466666666666666</v>
+        <v>0.32</v>
       </c>
       <c r="O54" s="7">
-        <v>0.5844444444444445</v>
+        <v>0.32</v>
       </c>
       <c r="P54" s="7">
         <v>0.32</v>
@@ -3931,34 +3931,34 @@
         <v>1</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <v>3</v>
+      </c>
+      <c r="I55">
+        <v>4</v>
+      </c>
+      <c r="J55">
+        <v>5</v>
+      </c>
+      <c r="K55">
+        <v>6</v>
+      </c>
+      <c r="L55">
+        <v>7</v>
+      </c>
+      <c r="M55">
+        <v>7</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
         <v>1</v>
-      </c>
-      <c r="H55">
-        <v>2</v>
-      </c>
-      <c r="I55">
-        <v>3</v>
-      </c>
-      <c r="J55">
-        <v>4</v>
-      </c>
-      <c r="K55">
-        <v>5</v>
-      </c>
-      <c r="L55">
-        <v>6</v>
-      </c>
-      <c r="M55">
-        <v>6</v>
-      </c>
-      <c r="N55">
-        <v>7</v>
-      </c>
-      <c r="O55">
-        <v>8</v>
       </c>
       <c r="P55">
         <v>0</v>
@@ -3994,31 +3994,31 @@
         <v>0.32</v>
       </c>
       <c r="G56">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="H56">
-        <v>0.3577777777777778</v>
+        <v>0.3955555555555555</v>
       </c>
       <c r="I56">
-        <v>0.3955555555555555</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="J56">
-        <v>0.4333333333333333</v>
+        <v>0.4711111111111111</v>
       </c>
       <c r="K56">
-        <v>0.4711111111111111</v>
+        <v>0.5088888888888889</v>
       </c>
       <c r="L56">
-        <v>0.5088888888888889</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="M56">
-        <v>0.5088888888888889</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="N56">
-        <v>0.5466666666666666</v>
+        <v>0.32</v>
       </c>
       <c r="O56">
-        <v>0.5844444444444445</v>
+        <v>0.32</v>
       </c>
       <c r="P56">
         <v>0.32</v>
@@ -4085,17 +4085,17 @@
       <c r="P57" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="Q57" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="R57" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="S57" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="T57" s="4" t="s">
-        <v>46</v>
+      <c r="Q57" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R57" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="S57" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="T57" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:20">
@@ -4143,13 +4143,13 @@
         <v>3774.087740877409</v>
       </c>
       <c r="P58" s="6">
-        <v>2265.164267918103</v>
+        <v>2124.748569765485</v>
       </c>
       <c r="Q58" s="6">
-        <v>1588.652482269503</v>
+        <v>939.6366009417873</v>
       </c>
       <c r="R58" s="6">
-        <v>1491.093886552051</v>
+        <v>0</v>
       </c>
       <c r="S58" s="6">
         <v>0</v>
@@ -4212,10 +4212,10 @@
         <v>0.32</v>
       </c>
       <c r="S59" s="7">
-        <v>0.3577777777777778</v>
+        <v>0.32</v>
       </c>
       <c r="T59" s="7">
-        <v>0.3577777777777778</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="60" spans="1:20">
@@ -4272,10 +4272,10 @@
         <v>1</v>
       </c>
       <c r="S60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T60">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:20">
@@ -4332,10 +4332,10 @@
         <v>0.32</v>
       </c>
       <c r="S61">
-        <v>0.3577777777777778</v>
+        <v>0.32</v>
       </c>
       <c r="T61">
-        <v>0.3577777777777778</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="62" spans="1:20">
@@ -4354,38 +4354,38 @@
       <c r="E62" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F62" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L62" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M62" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N62" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O62" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P62" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K62" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L62" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M62" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="N62" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="O62" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="P62" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="Q62" s="4" t="s">
         <v>46</v>
@@ -4415,43 +4415,43 @@
         <v>0</v>
       </c>
       <c r="F63" s="6">
-        <v>1588.652482269503</v>
+        <v>2066.420664206642</v>
       </c>
       <c r="G63" s="6">
         <v>2066.420664206642</v>
       </c>
       <c r="H63" s="6">
-        <v>2066.420664206642</v>
+        <v>2310.373103731038</v>
       </c>
       <c r="I63" s="6">
-        <v>2310.373103731038</v>
+        <v>2554.325543255432</v>
       </c>
       <c r="J63" s="6">
+        <v>2798.277982779828</v>
+      </c>
+      <c r="K63" s="6">
+        <v>3042.230422304223</v>
+      </c>
+      <c r="L63" s="6">
+        <v>0</v>
+      </c>
+      <c r="M63" s="6">
+        <v>3286.182861828619</v>
+      </c>
+      <c r="N63" s="6">
+        <v>3530.135301353014</v>
+      </c>
+      <c r="O63" s="6">
+        <v>3774.087740877409</v>
+      </c>
+      <c r="P63" s="6">
         <v>1588.652482269503</v>
-      </c>
-      <c r="K63" s="6">
-        <v>1588.652482269503</v>
-      </c>
-      <c r="L63" s="6">
-        <v>0</v>
-      </c>
-      <c r="M63" s="6">
-        <v>2066.420664206642</v>
-      </c>
-      <c r="N63" s="6">
-        <v>2066.420664206642</v>
-      </c>
-      <c r="O63" s="6">
-        <v>2310.373103731038</v>
-      </c>
-      <c r="P63" s="6">
-        <v>1439.99728460508</v>
       </c>
       <c r="Q63" s="6">
         <v>1588.652482269503</v>
       </c>
       <c r="R63" s="6">
-        <v>1491.093886552051</v>
+        <v>1682.294741087503</v>
       </c>
       <c r="S63" s="6">
         <v>0</v>
@@ -4481,43 +4481,43 @@
         <v>0.32</v>
       </c>
       <c r="H64" s="7">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="I64" s="7">
+        <v>0.3955555555555555</v>
+      </c>
+      <c r="J64" s="7">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="K64" s="7">
+        <v>0.4711111111111111</v>
+      </c>
+      <c r="L64" s="7">
+        <v>0.5088888888888889</v>
+      </c>
+      <c r="M64" s="7">
+        <v>0.5088888888888889</v>
+      </c>
+      <c r="N64" s="7">
+        <v>0.5466666666666666</v>
+      </c>
+      <c r="O64" s="7">
+        <v>0.5844444444444445</v>
+      </c>
+      <c r="P64" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="Q64" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="R64" s="7">
         <v>0.3577777777777778</v>
       </c>
-      <c r="J64" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="K64" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="L64" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="M64" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="N64" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="O64" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="P64" s="7">
+      <c r="S64" s="7">
         <v>0.3955555555555555</v>
       </c>
-      <c r="Q64" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="R64" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="S64" s="7">
-        <v>0.3577777777777778</v>
-      </c>
       <c r="T64" s="7">
-        <v>0.3577777777777778</v>
+        <v>0.3955555555555555</v>
       </c>
     </row>
     <row r="65" spans="1:20">
@@ -4535,49 +4535,49 @@
         <v>1</v>
       </c>
       <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
         <v>1</v>
       </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
       <c r="H65">
+        <v>2</v>
+      </c>
+      <c r="I65">
+        <v>3</v>
+      </c>
+      <c r="J65">
+        <v>4</v>
+      </c>
+      <c r="K65">
+        <v>5</v>
+      </c>
+      <c r="L65">
+        <v>6</v>
+      </c>
+      <c r="M65">
+        <v>6</v>
+      </c>
+      <c r="N65">
+        <v>7</v>
+      </c>
+      <c r="O65">
+        <v>8</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
         <v>1</v>
       </c>
-      <c r="I65">
+      <c r="R65">
         <v>2</v>
       </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>1</v>
-      </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <v>1</v>
-      </c>
-      <c r="O65">
-        <v>2</v>
-      </c>
-      <c r="P65">
+      <c r="S65">
         <v>3</v>
       </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="R65">
-        <v>1</v>
-      </c>
-      <c r="S65">
-        <v>2</v>
-      </c>
       <c r="T65">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:20">
@@ -4601,43 +4601,43 @@
         <v>0.32</v>
       </c>
       <c r="H66">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="I66">
+        <v>0.3955555555555555</v>
+      </c>
+      <c r="J66">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="K66">
+        <v>0.4711111111111111</v>
+      </c>
+      <c r="L66">
+        <v>0.5088888888888889</v>
+      </c>
+      <c r="M66">
+        <v>0.5088888888888889</v>
+      </c>
+      <c r="N66">
+        <v>0.5466666666666666</v>
+      </c>
+      <c r="O66">
+        <v>0.5844444444444445</v>
+      </c>
+      <c r="P66">
+        <v>0.32</v>
+      </c>
+      <c r="Q66">
+        <v>0.32</v>
+      </c>
+      <c r="R66">
         <v>0.3577777777777778</v>
       </c>
-      <c r="J66">
-        <v>0.32</v>
-      </c>
-      <c r="K66">
-        <v>0.32</v>
-      </c>
-      <c r="L66">
-        <v>0.32</v>
-      </c>
-      <c r="M66">
-        <v>0.32</v>
-      </c>
-      <c r="N66">
-        <v>0.32</v>
-      </c>
-      <c r="O66">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="P66">
+      <c r="S66">
         <v>0.3955555555555555</v>
       </c>
-      <c r="Q66">
-        <v>0.32</v>
-      </c>
-      <c r="R66">
-        <v>0.32</v>
-      </c>
-      <c r="S66">
-        <v>0.3577777777777778</v>
-      </c>
       <c r="T66">
-        <v>0.3577777777777778</v>
+        <v>0.3955555555555555</v>
       </c>
     </row>
     <row r="67" spans="1:20">
@@ -4650,47 +4650,47 @@
       <c r="C67" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L67" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M67" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N67" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O67" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P67" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q67" s="3" t="s">
-        <v>44</v>
+      <c r="D67" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K67" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L67" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M67" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N67" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O67" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="P67" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q67" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="R67" s="3" t="s">
         <v>44</v>
@@ -4711,49 +4711,49 @@
         <v>0</v>
       </c>
       <c r="D68" s="6">
-        <v>1529.601893792821</v>
+        <v>1030.011342386806</v>
       </c>
       <c r="E68" s="6">
         <v>0</v>
       </c>
       <c r="F68" s="6">
-        <v>1710.179895143362</v>
+        <v>1030.011342386806</v>
       </c>
       <c r="G68" s="6">
-        <v>1890.757896493904</v>
+        <v>1151.609903640804</v>
       </c>
       <c r="H68" s="6">
-        <v>2071.335897844445</v>
+        <v>1273.208464894802</v>
       </c>
       <c r="I68" s="6">
-        <v>2251.913899194986</v>
+        <v>1394.8070261488</v>
       </c>
       <c r="J68" s="6">
-        <v>2432.491900545528</v>
+        <v>1516.405587402798</v>
       </c>
       <c r="K68" s="6">
-        <v>2613.069901896069</v>
+        <v>1638.004148656796</v>
       </c>
       <c r="L68" s="6">
         <v>0</v>
       </c>
       <c r="M68" s="6">
-        <v>2793.647903246611</v>
+        <v>1759.602709910793</v>
       </c>
       <c r="N68" s="6">
-        <v>2974.225904597151</v>
+        <v>1881.201271164792</v>
       </c>
       <c r="O68" s="6">
-        <v>3154.803905947693</v>
+        <v>2002.799832418789</v>
       </c>
       <c r="P68" s="6">
-        <v>3250.404024309745</v>
+        <v>2124.398393672787</v>
       </c>
       <c r="Q68" s="6">
-        <v>3346.004142671796</v>
+        <v>1996.727777001298</v>
       </c>
       <c r="R68" s="6">
-        <v>2891.514442251697</v>
+        <v>1277.300823983304</v>
       </c>
       <c r="S68" s="6">
         <v>0</v>
@@ -4774,52 +4774,52 @@
         <v>0.32</v>
       </c>
       <c r="E69" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="F69" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="G69" s="7">
         <v>0.3577777777777778</v>
       </c>
-      <c r="F69" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="G69" s="7">
+      <c r="H69" s="7">
         <v>0.3955555555555555</v>
       </c>
-      <c r="H69" s="7">
+      <c r="I69" s="7">
         <v>0.4333333333333333</v>
       </c>
-      <c r="I69" s="7">
+      <c r="J69" s="7">
         <v>0.4711111111111111</v>
       </c>
-      <c r="J69" s="7">
+      <c r="K69" s="7">
         <v>0.5088888888888889</v>
       </c>
-      <c r="K69" s="7">
+      <c r="L69" s="7">
         <v>0.5466666666666666</v>
       </c>
-      <c r="L69" s="7">
+      <c r="M69" s="7">
+        <v>0.5466666666666666</v>
+      </c>
+      <c r="N69" s="7">
         <v>0.5844444444444445</v>
       </c>
-      <c r="M69" s="7">
-        <v>0.5844444444444445</v>
-      </c>
-      <c r="N69" s="7">
+      <c r="O69" s="7">
         <v>0.6222222222222222</v>
       </c>
-      <c r="O69" s="7">
+      <c r="P69" s="7">
         <v>0.66</v>
       </c>
-      <c r="P69" s="7">
+      <c r="Q69" s="7">
         <v>0.68</v>
       </c>
-      <c r="Q69" s="7">
-        <v>0.7000000000000001</v>
-      </c>
       <c r="R69" s="7">
-        <v>0.7200000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="S69" s="7">
-        <v>0.74</v>
+        <v>0.32</v>
       </c>
       <c r="T69" s="7">
-        <v>0.74</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="70" spans="1:20">
@@ -4831,55 +4831,55 @@
         <v>1</v>
       </c>
       <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
         <v>1</v>
       </c>
-      <c r="E70">
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
         <v>2</v>
       </c>
-      <c r="F70">
-        <v>2</v>
-      </c>
-      <c r="G70">
+      <c r="H70">
         <v>3</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>4</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>5</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>6</v>
       </c>
-      <c r="K70">
+      <c r="L70">
         <v>7</v>
       </c>
-      <c r="L70">
+      <c r="M70">
+        <v>7</v>
+      </c>
+      <c r="N70">
         <v>8</v>
       </c>
-      <c r="M70">
-        <v>8</v>
-      </c>
-      <c r="N70">
+      <c r="O70">
         <v>9</v>
       </c>
-      <c r="O70">
+      <c r="P70">
         <v>10</v>
       </c>
-      <c r="P70">
+      <c r="Q70">
         <v>11</v>
       </c>
-      <c r="Q70">
-        <v>12</v>
-      </c>
       <c r="R70">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="S70">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="T70">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:20">
@@ -4894,52 +4894,52 @@
         <v>0.32</v>
       </c>
       <c r="E71">
+        <v>0.32</v>
+      </c>
+      <c r="F71">
+        <v>0.32</v>
+      </c>
+      <c r="G71">
         <v>0.3577777777777778</v>
       </c>
-      <c r="F71">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="G71">
+      <c r="H71">
         <v>0.3955555555555555</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>0.4333333333333333</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>0.4711111111111111</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>0.5088888888888889</v>
       </c>
-      <c r="K71">
+      <c r="L71">
         <v>0.5466666666666666</v>
       </c>
-      <c r="L71">
+      <c r="M71">
+        <v>0.5466666666666666</v>
+      </c>
+      <c r="N71">
         <v>0.5844444444444445</v>
       </c>
-      <c r="M71">
-        <v>0.5844444444444445</v>
-      </c>
-      <c r="N71">
+      <c r="O71">
         <v>0.6222222222222222</v>
       </c>
-      <c r="O71">
+      <c r="P71">
         <v>0.66</v>
       </c>
-      <c r="P71">
+      <c r="Q71">
         <v>0.68</v>
       </c>
-      <c r="Q71">
-        <v>0.7000000000000001</v>
-      </c>
       <c r="R71">
-        <v>0.7200000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="S71">
-        <v>0.74</v>
+        <v>0.32</v>
       </c>
       <c r="T71">
-        <v>0.74</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="72" spans="1:20">
@@ -4952,47 +4952,47 @@
       <c r="C72" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D72" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G72" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H72" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I72" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="J72" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="K72" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="L72" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="M72" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N72" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O72" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="P72" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q72" s="9" t="s">
-        <v>47</v>
+      <c r="D72" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>44</v>
@@ -5013,49 +5013,49 @@
         <v>0</v>
       </c>
       <c r="D73" s="6">
-        <v>1030.011342386806</v>
+        <v>1529.601893792821</v>
       </c>
       <c r="E73" s="6">
         <v>0</v>
       </c>
       <c r="F73" s="6">
-        <v>1030.011342386806</v>
+        <v>1710.179895143362</v>
       </c>
       <c r="G73" s="6">
-        <v>1151.609903640804</v>
+        <v>1890.757896493904</v>
       </c>
       <c r="H73" s="6">
-        <v>1273.208464894802</v>
+        <v>2071.335897844445</v>
       </c>
       <c r="I73" s="6">
-        <v>1394.8070261488</v>
+        <v>2251.913899194986</v>
       </c>
       <c r="J73" s="6">
-        <v>1516.405587402798</v>
+        <v>2432.491900545528</v>
       </c>
       <c r="K73" s="6">
-        <v>1638.004148656796</v>
+        <v>2613.069901896069</v>
       </c>
       <c r="L73" s="6">
         <v>0</v>
       </c>
       <c r="M73" s="6">
-        <v>1759.602709910793</v>
+        <v>2793.647903246611</v>
       </c>
       <c r="N73" s="6">
-        <v>1881.201271164792</v>
+        <v>2974.225904597151</v>
       </c>
       <c r="O73" s="6">
-        <v>2002.799832418789</v>
+        <v>3154.803905947693</v>
       </c>
       <c r="P73" s="6">
-        <v>2124.398393672787</v>
+        <v>3250.404024309745</v>
       </c>
       <c r="Q73" s="6">
-        <v>1996.727777001296</v>
+        <v>3346.004142671796</v>
       </c>
       <c r="R73" s="6">
-        <v>1285.117529889643</v>
+        <v>2873.926853962435</v>
       </c>
       <c r="S73" s="6">
         <v>0</v>
@@ -5076,52 +5076,52 @@
         <v>0.32</v>
       </c>
       <c r="E74" s="7">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="F74" s="7">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="G74" s="7">
-        <v>0.3577777777777778</v>
+        <v>0.3955555555555555</v>
       </c>
       <c r="H74" s="7">
-        <v>0.3955555555555555</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="I74" s="7">
-        <v>0.4333333333333333</v>
+        <v>0.4711111111111111</v>
       </c>
       <c r="J74" s="7">
-        <v>0.4711111111111111</v>
+        <v>0.5088888888888889</v>
       </c>
       <c r="K74" s="7">
-        <v>0.5088888888888889</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="L74" s="7">
-        <v>0.5466666666666666</v>
+        <v>0.5844444444444445</v>
       </c>
       <c r="M74" s="7">
-        <v>0.5466666666666666</v>
+        <v>0.5844444444444445</v>
       </c>
       <c r="N74" s="7">
-        <v>0.5844444444444445</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="O74" s="7">
-        <v>0.6222222222222222</v>
+        <v>0.66</v>
       </c>
       <c r="P74" s="7">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="Q74" s="7">
-        <v>0.68</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="R74" s="7">
-        <v>0.32</v>
+        <v>0.7200000000000001</v>
       </c>
       <c r="S74" s="7">
-        <v>0.32</v>
+        <v>0.74</v>
       </c>
       <c r="T74" s="7">
-        <v>0.32</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -5133,55 +5133,55 @@
         <v>1</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I75">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J75">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K75">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L75">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M75">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N75">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O75">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P75">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q75">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R75">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="S75">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="T75">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -5196,52 +5196,52 @@
         <v>0.32</v>
       </c>
       <c r="E76">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="F76">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="G76">
-        <v>0.3577777777777778</v>
+        <v>0.3955555555555555</v>
       </c>
       <c r="H76">
-        <v>0.3955555555555555</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="I76">
-        <v>0.4333333333333333</v>
+        <v>0.4711111111111111</v>
       </c>
       <c r="J76">
-        <v>0.4711111111111111</v>
+        <v>0.5088888888888889</v>
       </c>
       <c r="K76">
-        <v>0.5088888888888889</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="L76">
-        <v>0.5466666666666666</v>
+        <v>0.5844444444444445</v>
       </c>
       <c r="M76">
-        <v>0.5466666666666666</v>
+        <v>0.5844444444444445</v>
       </c>
       <c r="N76">
-        <v>0.5844444444444445</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="O76">
-        <v>0.6222222222222222</v>
+        <v>0.66</v>
       </c>
       <c r="P76">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="Q76">
-        <v>0.68</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="R76">
-        <v>0.32</v>
+        <v>0.7200000000000001</v>
       </c>
       <c r="S76">
-        <v>0.32</v>
+        <v>0.74</v>
       </c>
       <c r="T76">
-        <v>0.32</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -5254,56 +5254,56 @@
       <c r="C77" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D77" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G77" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H77" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I77" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="J77" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="K77" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="L77" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="M77" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N77" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O77" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="P77" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q77" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="R77" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="S77" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="T77" s="9" t="s">
-        <v>47</v>
+      <c r="D77" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M77" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N77" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O77" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P77" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q77" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R77" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S77" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T77" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -5315,49 +5315,49 @@
         <v>0</v>
       </c>
       <c r="D78" s="6">
-        <v>1030.011342386806</v>
+        <v>1529.601893792821</v>
       </c>
       <c r="E78" s="6">
         <v>0</v>
       </c>
       <c r="F78" s="6">
-        <v>1030.011342386806</v>
+        <v>1710.179895143362</v>
       </c>
       <c r="G78" s="6">
-        <v>1151.609903640804</v>
+        <v>1890.757896493904</v>
       </c>
       <c r="H78" s="6">
-        <v>1273.208464894802</v>
+        <v>2071.335897844445</v>
       </c>
       <c r="I78" s="6">
-        <v>1394.8070261488</v>
+        <v>2251.913899194986</v>
       </c>
       <c r="J78" s="6">
-        <v>1516.405587402798</v>
+        <v>2432.491900545528</v>
       </c>
       <c r="K78" s="6">
-        <v>1638.004148656796</v>
+        <v>2613.069901896069</v>
       </c>
       <c r="L78" s="6">
         <v>0</v>
       </c>
       <c r="M78" s="6">
-        <v>1759.602709910793</v>
+        <v>2793.647903246611</v>
       </c>
       <c r="N78" s="6">
-        <v>1881.201271164792</v>
+        <v>2974.225904597151</v>
       </c>
       <c r="O78" s="6">
-        <v>2002.799832418789</v>
+        <v>3154.803905947693</v>
       </c>
       <c r="P78" s="6">
-        <v>2124.398393672787</v>
+        <v>3250.404024309745</v>
       </c>
       <c r="Q78" s="6">
-        <v>1996.727777001296</v>
+        <v>3346.004142671796</v>
       </c>
       <c r="R78" s="6">
-        <v>0</v>
+        <v>2873.926853962435</v>
       </c>
       <c r="S78" s="6">
         <v>0</v>
@@ -5378,52 +5378,52 @@
         <v>0.32</v>
       </c>
       <c r="E79" s="7">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="F79" s="7">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="G79" s="7">
-        <v>0.3577777777777778</v>
+        <v>0.3955555555555555</v>
       </c>
       <c r="H79" s="7">
-        <v>0.3955555555555555</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="I79" s="7">
-        <v>0.4333333333333333</v>
+        <v>0.4711111111111111</v>
       </c>
       <c r="J79" s="7">
-        <v>0.4711111111111111</v>
+        <v>0.5088888888888889</v>
       </c>
       <c r="K79" s="7">
-        <v>0.5088888888888889</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="L79" s="7">
-        <v>0.5466666666666666</v>
+        <v>0.5844444444444445</v>
       </c>
       <c r="M79" s="7">
-        <v>0.5466666666666666</v>
+        <v>0.5844444444444445</v>
       </c>
       <c r="N79" s="7">
-        <v>0.5844444444444445</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="O79" s="7">
-        <v>0.6222222222222222</v>
+        <v>0.66</v>
       </c>
       <c r="P79" s="7">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="Q79" s="7">
-        <v>0.68</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="R79" s="7">
-        <v>0.7000000000000001</v>
+        <v>0.7200000000000001</v>
       </c>
       <c r="S79" s="7">
-        <v>0.7000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="T79" s="7">
-        <v>0.7000000000000001</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -5435,55 +5435,55 @@
         <v>1</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I80">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J80">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K80">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L80">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M80">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N80">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O80">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P80">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q80">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R80">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S80">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="T80">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:20">
@@ -5498,52 +5498,52 @@
         <v>0.32</v>
       </c>
       <c r="E81">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="F81">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="G81">
-        <v>0.3577777777777778</v>
+        <v>0.3955555555555555</v>
       </c>
       <c r="H81">
-        <v>0.3955555555555555</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="I81">
-        <v>0.4333333333333333</v>
+        <v>0.4711111111111111</v>
       </c>
       <c r="J81">
-        <v>0.4711111111111111</v>
+        <v>0.5088888888888889</v>
       </c>
       <c r="K81">
-        <v>0.5088888888888889</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="L81">
-        <v>0.5466666666666666</v>
+        <v>0.5844444444444445</v>
       </c>
       <c r="M81">
-        <v>0.5466666666666666</v>
+        <v>0.5844444444444445</v>
       </c>
       <c r="N81">
-        <v>0.5844444444444445</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="O81">
-        <v>0.6222222222222222</v>
+        <v>0.66</v>
       </c>
       <c r="P81">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="Q81">
-        <v>0.68</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="R81">
-        <v>0.7000000000000001</v>
+        <v>0.7200000000000001</v>
       </c>
       <c r="S81">
-        <v>0.7000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="T81">
-        <v>0.7000000000000001</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="82" spans="1:20">
@@ -5556,56 +5556,56 @@
       <c r="C82" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D82" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J82" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K82" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L82" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M82" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N82" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O82" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P82" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q82" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R82" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S82" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T82" s="3" t="s">
-        <v>44</v>
+      <c r="D82" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J82" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K82" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L82" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M82" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N82" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O82" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="P82" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q82" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R82" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="S82" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="T82" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="83" spans="1:20">
@@ -5617,49 +5617,49 @@
         <v>0</v>
       </c>
       <c r="D83" s="6">
-        <v>1529.601893792821</v>
+        <v>1030.011342386806</v>
       </c>
       <c r="E83" s="6">
         <v>0</v>
       </c>
       <c r="F83" s="6">
-        <v>1710.179895143362</v>
+        <v>1030.011342386806</v>
       </c>
       <c r="G83" s="6">
-        <v>1890.757896493904</v>
+        <v>1151.609903640804</v>
       </c>
       <c r="H83" s="6">
-        <v>2071.335897844445</v>
+        <v>1273.208464894802</v>
       </c>
       <c r="I83" s="6">
-        <v>2251.913899194986</v>
+        <v>1394.8070261488</v>
       </c>
       <c r="J83" s="6">
-        <v>2432.491900545528</v>
+        <v>1516.405587402798</v>
       </c>
       <c r="K83" s="6">
-        <v>2613.069901896069</v>
+        <v>1638.004148656796</v>
       </c>
       <c r="L83" s="6">
         <v>0</v>
       </c>
       <c r="M83" s="6">
-        <v>2793.647903246611</v>
+        <v>1759.602709910793</v>
       </c>
       <c r="N83" s="6">
-        <v>2974.225904597151</v>
+        <v>1881.201271164792</v>
       </c>
       <c r="O83" s="6">
-        <v>3154.803905947693</v>
+        <v>2002.799832418789</v>
       </c>
       <c r="P83" s="6">
-        <v>3250.404024309745</v>
+        <v>2124.398393672787</v>
       </c>
       <c r="Q83" s="6">
-        <v>3346.004142671796</v>
+        <v>1996.727777001298</v>
       </c>
       <c r="R83" s="6">
-        <v>2891.514442251697</v>
+        <v>0</v>
       </c>
       <c r="S83" s="6">
         <v>0</v>
@@ -5680,52 +5680,52 @@
         <v>0.32</v>
       </c>
       <c r="E84" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="F84" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="G84" s="7">
         <v>0.3577777777777778</v>
       </c>
-      <c r="F84" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="G84" s="7">
+      <c r="H84" s="7">
         <v>0.3955555555555555</v>
       </c>
-      <c r="H84" s="7">
+      <c r="I84" s="7">
         <v>0.4333333333333333</v>
       </c>
-      <c r="I84" s="7">
+      <c r="J84" s="7">
         <v>0.4711111111111111</v>
       </c>
-      <c r="J84" s="7">
+      <c r="K84" s="7">
         <v>0.5088888888888889</v>
       </c>
-      <c r="K84" s="7">
+      <c r="L84" s="7">
         <v>0.5466666666666666</v>
       </c>
-      <c r="L84" s="7">
+      <c r="M84" s="7">
+        <v>0.5466666666666666</v>
+      </c>
+      <c r="N84" s="7">
         <v>0.5844444444444445</v>
       </c>
-      <c r="M84" s="7">
-        <v>0.5844444444444445</v>
-      </c>
-      <c r="N84" s="7">
+      <c r="O84" s="7">
         <v>0.6222222222222222</v>
       </c>
-      <c r="O84" s="7">
+      <c r="P84" s="7">
         <v>0.66</v>
       </c>
-      <c r="P84" s="7">
+      <c r="Q84" s="7">
         <v>0.68</v>
       </c>
-      <c r="Q84" s="7">
+      <c r="R84" s="7">
         <v>0.7000000000000001</v>
       </c>
-      <c r="R84" s="7">
-        <v>0.7200000000000001</v>
-      </c>
       <c r="S84" s="7">
-        <v>0.74</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="T84" s="7">
-        <v>0.74</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:20">
@@ -5737,55 +5737,55 @@
         <v>1</v>
       </c>
       <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
         <v>1</v>
       </c>
-      <c r="E85">
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
         <v>2</v>
       </c>
-      <c r="F85">
-        <v>2</v>
-      </c>
-      <c r="G85">
+      <c r="H85">
         <v>3</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>4</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>5</v>
       </c>
-      <c r="J85">
+      <c r="K85">
         <v>6</v>
       </c>
-      <c r="K85">
+      <c r="L85">
         <v>7</v>
       </c>
-      <c r="L85">
+      <c r="M85">
+        <v>7</v>
+      </c>
+      <c r="N85">
         <v>8</v>
       </c>
-      <c r="M85">
-        <v>8</v>
-      </c>
-      <c r="N85">
+      <c r="O85">
         <v>9</v>
       </c>
-      <c r="O85">
+      <c r="P85">
         <v>10</v>
       </c>
-      <c r="P85">
+      <c r="Q85">
         <v>11</v>
       </c>
-      <c r="Q85">
+      <c r="R85">
         <v>12</v>
       </c>
-      <c r="R85">
-        <v>13</v>
-      </c>
       <c r="S85">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T85">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:20">
@@ -5800,52 +5800,52 @@
         <v>0.32</v>
       </c>
       <c r="E86">
+        <v>0.32</v>
+      </c>
+      <c r="F86">
+        <v>0.32</v>
+      </c>
+      <c r="G86">
         <v>0.3577777777777778</v>
       </c>
-      <c r="F86">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="G86">
+      <c r="H86">
         <v>0.3955555555555555</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>0.4333333333333333</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>0.4711111111111111</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <v>0.5088888888888889</v>
       </c>
-      <c r="K86">
+      <c r="L86">
         <v>0.5466666666666666</v>
       </c>
-      <c r="L86">
+      <c r="M86">
+        <v>0.5466666666666666</v>
+      </c>
+      <c r="N86">
         <v>0.5844444444444445</v>
       </c>
-      <c r="M86">
-        <v>0.5844444444444445</v>
-      </c>
-      <c r="N86">
+      <c r="O86">
         <v>0.6222222222222222</v>
       </c>
-      <c r="O86">
+      <c r="P86">
         <v>0.66</v>
       </c>
-      <c r="P86">
+      <c r="Q86">
         <v>0.68</v>
       </c>
-      <c r="Q86">
+      <c r="R86">
         <v>0.7000000000000001</v>
       </c>
-      <c r="R86">
-        <v>0.7200000000000001</v>
-      </c>
       <c r="S86">
-        <v>0.74</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="T86">
-        <v>0.74</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:20">
@@ -5858,56 +5858,56 @@
       <c r="C87" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D87" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E87" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F87" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G87" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H87" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I87" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="J87" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="K87" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="L87" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="M87" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N87" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O87" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="P87" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q87" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="R87" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="S87" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="T87" s="9" t="s">
-        <v>47</v>
+      <c r="D87" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M87" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N87" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O87" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P87" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q87" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R87" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S87" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T87" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="88" spans="1:20">
@@ -5919,49 +5919,49 @@
         <v>0</v>
       </c>
       <c r="D88" s="6">
-        <v>1030.011342386806</v>
+        <v>1529.601893792821</v>
       </c>
       <c r="E88" s="6">
         <v>0</v>
       </c>
       <c r="F88" s="6">
-        <v>1030.011342386806</v>
+        <v>1710.179895143362</v>
       </c>
       <c r="G88" s="6">
-        <v>1151.609903640804</v>
+        <v>1890.757896493904</v>
       </c>
       <c r="H88" s="6">
-        <v>1273.208464894802</v>
+        <v>2071.335897844445</v>
       </c>
       <c r="I88" s="6">
-        <v>1394.8070261488</v>
+        <v>2251.913899194986</v>
       </c>
       <c r="J88" s="6">
-        <v>1516.405587402798</v>
+        <v>2432.491900545528</v>
       </c>
       <c r="K88" s="6">
-        <v>1638.004148656796</v>
+        <v>2613.069901896069</v>
       </c>
       <c r="L88" s="6">
         <v>0</v>
       </c>
       <c r="M88" s="6">
-        <v>1759.602709910793</v>
+        <v>2793.647903246611</v>
       </c>
       <c r="N88" s="6">
-        <v>1881.201271164792</v>
+        <v>2974.225904597151</v>
       </c>
       <c r="O88" s="6">
-        <v>2002.799832418789</v>
+        <v>3154.803905947693</v>
       </c>
       <c r="P88" s="6">
-        <v>2124.398393672787</v>
+        <v>3250.404024309745</v>
       </c>
       <c r="Q88" s="6">
-        <v>1996.727777001296</v>
+        <v>3346.004142671796</v>
       </c>
       <c r="R88" s="6">
-        <v>0</v>
+        <v>2873.926853962435</v>
       </c>
       <c r="S88" s="6">
         <v>0</v>
@@ -5982,52 +5982,52 @@
         <v>0.32</v>
       </c>
       <c r="E89" s="7">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="F89" s="7">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="G89" s="7">
-        <v>0.3577777777777778</v>
+        <v>0.3955555555555555</v>
       </c>
       <c r="H89" s="7">
-        <v>0.3955555555555555</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="I89" s="7">
-        <v>0.4333333333333333</v>
+        <v>0.4711111111111111</v>
       </c>
       <c r="J89" s="7">
-        <v>0.4711111111111111</v>
+        <v>0.5088888888888889</v>
       </c>
       <c r="K89" s="7">
-        <v>0.5088888888888889</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="L89" s="7">
-        <v>0.5466666666666666</v>
+        <v>0.5844444444444445</v>
       </c>
       <c r="M89" s="7">
-        <v>0.5466666666666666</v>
+        <v>0.5844444444444445</v>
       </c>
       <c r="N89" s="7">
-        <v>0.5844444444444445</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="O89" s="7">
-        <v>0.6222222222222222</v>
+        <v>0.66</v>
       </c>
       <c r="P89" s="7">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="Q89" s="7">
-        <v>0.68</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="R89" s="7">
-        <v>0.7000000000000001</v>
+        <v>0.7200000000000001</v>
       </c>
       <c r="S89" s="7">
-        <v>0.7000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="T89" s="7">
-        <v>0.7000000000000001</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="90" spans="1:20">
@@ -6039,55 +6039,55 @@
         <v>1</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I90">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J90">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K90">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L90">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M90">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N90">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O90">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P90">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q90">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R90">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S90">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="T90">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:20">
@@ -6102,52 +6102,52 @@
         <v>0.32</v>
       </c>
       <c r="E91">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="F91">
-        <v>0.32</v>
+        <v>0.3577777777777778</v>
       </c>
       <c r="G91">
-        <v>0.3577777777777778</v>
+        <v>0.3955555555555555</v>
       </c>
       <c r="H91">
-        <v>0.3955555555555555</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="I91">
-        <v>0.4333333333333333</v>
+        <v>0.4711111111111111</v>
       </c>
       <c r="J91">
-        <v>0.4711111111111111</v>
+        <v>0.5088888888888889</v>
       </c>
       <c r="K91">
-        <v>0.5088888888888889</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="L91">
-        <v>0.5466666666666666</v>
+        <v>0.5844444444444445</v>
       </c>
       <c r="M91">
-        <v>0.5466666666666666</v>
+        <v>0.5844444444444445</v>
       </c>
       <c r="N91">
-        <v>0.5844444444444445</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="O91">
-        <v>0.6222222222222222</v>
+        <v>0.66</v>
       </c>
       <c r="P91">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="Q91">
-        <v>0.68</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="R91">
-        <v>0.7000000000000001</v>
+        <v>0.7200000000000001</v>
       </c>
       <c r="S91">
-        <v>0.7000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="T91">
-        <v>0.7000000000000001</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="92" spans="1:20">
@@ -6160,56 +6160,56 @@
       <c r="C92" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D92" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I92" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J92" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K92" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L92" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M92" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N92" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O92" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P92" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q92" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R92" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S92" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T92" s="3" t="s">
-        <v>44</v>
+      <c r="D92" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J92" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K92" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L92" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M92" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N92" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O92" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="P92" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q92" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R92" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="S92" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="T92" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="93" spans="1:20">
@@ -6221,49 +6221,49 @@
         <v>0</v>
       </c>
       <c r="D93" s="6">
-        <v>1529.601893792821</v>
+        <v>1030.011342386806</v>
       </c>
       <c r="E93" s="6">
         <v>0</v>
       </c>
       <c r="F93" s="6">
-        <v>1710.179895143362</v>
+        <v>1030.011342386806</v>
       </c>
       <c r="G93" s="6">
-        <v>1890.757896493904</v>
+        <v>1151.609903640804</v>
       </c>
       <c r="H93" s="6">
-        <v>2071.335897844445</v>
+        <v>1273.208464894802</v>
       </c>
       <c r="I93" s="6">
-        <v>2251.913899194986</v>
+        <v>1394.8070261488</v>
       </c>
       <c r="J93" s="6">
-        <v>2432.491900545528</v>
+        <v>1516.405587402798</v>
       </c>
       <c r="K93" s="6">
-        <v>2613.069901896069</v>
+        <v>1638.004148656796</v>
       </c>
       <c r="L93" s="6">
         <v>0</v>
       </c>
       <c r="M93" s="6">
-        <v>2793.647903246611</v>
+        <v>1759.602709910793</v>
       </c>
       <c r="N93" s="6">
-        <v>2974.225904597151</v>
+        <v>1881.201271164792</v>
       </c>
       <c r="O93" s="6">
-        <v>3154.803905947693</v>
+        <v>2002.799832418789</v>
       </c>
       <c r="P93" s="6">
-        <v>3250.404024309745</v>
+        <v>2124.398393672787</v>
       </c>
       <c r="Q93" s="6">
-        <v>3346.004142671796</v>
+        <v>1996.727777001298</v>
       </c>
       <c r="R93" s="6">
-        <v>2891.514442251697</v>
+        <v>0</v>
       </c>
       <c r="S93" s="6">
         <v>0</v>
@@ -6284,52 +6284,52 @@
         <v>0.32</v>
       </c>
       <c r="E94" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="F94" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="G94" s="7">
         <v>0.3577777777777778</v>
       </c>
-      <c r="F94" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="G94" s="7">
+      <c r="H94" s="7">
         <v>0.3955555555555555</v>
       </c>
-      <c r="H94" s="7">
+      <c r="I94" s="7">
         <v>0.4333333333333333</v>
       </c>
-      <c r="I94" s="7">
+      <c r="J94" s="7">
         <v>0.4711111111111111</v>
       </c>
-      <c r="J94" s="7">
+      <c r="K94" s="7">
         <v>0.5088888888888889</v>
       </c>
-      <c r="K94" s="7">
+      <c r="L94" s="7">
         <v>0.5466666666666666</v>
       </c>
-      <c r="L94" s="7">
+      <c r="M94" s="7">
+        <v>0.5466666666666666</v>
+      </c>
+      <c r="N94" s="7">
         <v>0.5844444444444445</v>
       </c>
-      <c r="M94" s="7">
-        <v>0.5844444444444445</v>
-      </c>
-      <c r="N94" s="7">
+      <c r="O94" s="7">
         <v>0.6222222222222222</v>
       </c>
-      <c r="O94" s="7">
+      <c r="P94" s="7">
         <v>0.66</v>
       </c>
-      <c r="P94" s="7">
+      <c r="Q94" s="7">
         <v>0.68</v>
       </c>
-      <c r="Q94" s="7">
+      <c r="R94" s="7">
         <v>0.7000000000000001</v>
       </c>
-      <c r="R94" s="7">
-        <v>0.7200000000000001</v>
-      </c>
       <c r="S94" s="7">
-        <v>0.74</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="T94" s="7">
-        <v>0.74</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:20">
@@ -6341,55 +6341,55 @@
         <v>1</v>
       </c>
       <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
         <v>1</v>
       </c>
-      <c r="E95">
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
         <v>2</v>
       </c>
-      <c r="F95">
-        <v>2</v>
-      </c>
-      <c r="G95">
+      <c r="H95">
         <v>3</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <v>4</v>
       </c>
-      <c r="I95">
+      <c r="J95">
         <v>5</v>
       </c>
-      <c r="J95">
+      <c r="K95">
         <v>6</v>
       </c>
-      <c r="K95">
+      <c r="L95">
         <v>7</v>
       </c>
-      <c r="L95">
+      <c r="M95">
+        <v>7</v>
+      </c>
+      <c r="N95">
         <v>8</v>
       </c>
-      <c r="M95">
-        <v>8</v>
-      </c>
-      <c r="N95">
+      <c r="O95">
         <v>9</v>
       </c>
-      <c r="O95">
+      <c r="P95">
         <v>10</v>
       </c>
-      <c r="P95">
+      <c r="Q95">
         <v>11</v>
       </c>
-      <c r="Q95">
+      <c r="R95">
         <v>12</v>
       </c>
-      <c r="R95">
-        <v>13</v>
-      </c>
       <c r="S95">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T95">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:20">
@@ -6404,52 +6404,52 @@
         <v>0.32</v>
       </c>
       <c r="E96">
+        <v>0.32</v>
+      </c>
+      <c r="F96">
+        <v>0.32</v>
+      </c>
+      <c r="G96">
         <v>0.3577777777777778</v>
       </c>
-      <c r="F96">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="G96">
+      <c r="H96">
         <v>0.3955555555555555</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <v>0.4333333333333333</v>
       </c>
-      <c r="I96">
+      <c r="J96">
         <v>0.4711111111111111</v>
       </c>
-      <c r="J96">
+      <c r="K96">
         <v>0.5088888888888889</v>
       </c>
-      <c r="K96">
+      <c r="L96">
         <v>0.5466666666666666</v>
       </c>
-      <c r="L96">
+      <c r="M96">
+        <v>0.5466666666666666</v>
+      </c>
+      <c r="N96">
         <v>0.5844444444444445</v>
       </c>
-      <c r="M96">
-        <v>0.5844444444444445</v>
-      </c>
-      <c r="N96">
+      <c r="O96">
         <v>0.6222222222222222</v>
       </c>
-      <c r="O96">
+      <c r="P96">
         <v>0.66</v>
       </c>
-      <c r="P96">
+      <c r="Q96">
         <v>0.68</v>
       </c>
-      <c r="Q96">
+      <c r="R96">
         <v>0.7000000000000001</v>
       </c>
-      <c r="R96">
-        <v>0.7200000000000001</v>
-      </c>
       <c r="S96">
-        <v>0.74</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="T96">
-        <v>0.74</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -7827,34 +7827,34 @@
         <v>51</v>
       </c>
       <c r="B3" s="6">
-        <v>29280</v>
+        <v>14640</v>
       </c>
       <c r="C3" s="6">
-        <v>0</v>
+        <v>14640</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
       </c>
       <c r="E3" s="6">
-        <v>5472</v>
+        <v>2736</v>
       </c>
       <c r="F3" s="6">
-        <v>0</v>
+        <v>2736</v>
       </c>
       <c r="G3" s="6">
-        <v>18480</v>
+        <v>9240</v>
       </c>
       <c r="H3" s="6">
-        <v>0</v>
+        <v>9240</v>
       </c>
       <c r="I3" s="6">
         <v>0</v>
       </c>
       <c r="J3" s="6">
-        <v>61160</v>
+        <v>30580</v>
       </c>
       <c r="K3" s="6">
-        <v>0</v>
+        <v>30580</v>
       </c>
       <c r="L3" s="6">
         <v>0</v>
@@ -7889,7 +7889,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="6">
-        <v>29280</v>
+        <v>14640</v>
       </c>
       <c r="D4" s="6">
         <v>24691.19431862154</v>
@@ -7898,22 +7898,22 @@
         <v>24691.19431862154</v>
       </c>
       <c r="F4" s="6">
-        <v>25032.65463319145</v>
+        <v>22296.65463319145</v>
       </c>
       <c r="G4" s="6">
         <v>19360.38094370974</v>
       </c>
       <c r="H4" s="6">
-        <v>31626.3732501764</v>
+        <v>22386.37325017641</v>
       </c>
       <c r="I4" s="6">
-        <v>24870.63155259144</v>
+        <v>24870.63155259145</v>
       </c>
       <c r="J4" s="6">
         <v>17573.15585095486</v>
       </c>
       <c r="K4" s="6">
-        <v>70893.94614526666</v>
+        <v>40313.94614526666</v>
       </c>
       <c r="L4" s="6">
         <v>70893.94614526666</v>
@@ -7928,16 +7928,16 @@
         <v>44125.91300389229</v>
       </c>
       <c r="P4" s="6">
-        <v>31315.49714337741</v>
+        <v>32845.09903717024</v>
       </c>
       <c r="Q4" s="6">
-        <v>16688.67903398356</v>
+        <v>15159.07714019074</v>
       </c>
       <c r="R4" s="6">
-        <v>3.637978807091713E-12</v>
+        <v>1.818989403545856E-12</v>
       </c>
       <c r="S4" s="6">
-        <v>3.637978807091713E-12</v>
+        <v>1.818989403545856E-12</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -7984,13 +7984,13 @@
         <v>9464.411717843079</v>
       </c>
       <c r="O5" s="6">
-        <v>12810.41586051488</v>
+        <v>11280.81396672205</v>
       </c>
       <c r="P5" s="6">
-        <v>14626.81810939385</v>
+        <v>17686.02189697949</v>
       </c>
       <c r="Q5" s="6">
-        <v>16688.67903398356</v>
+        <v>15159.07714019074</v>
       </c>
       <c r="R5" s="6">
         <v>0</v>
@@ -8004,7 +8004,7 @@
         <v>54</v>
       </c>
       <c r="B6" s="6">
-        <v>29280</v>
+        <v>14640</v>
       </c>
       <c r="C6" s="6">
         <v>24691.19431862154</v>
@@ -8013,22 +8013,22 @@
         <v>24691.19431862154</v>
       </c>
       <c r="E6" s="6">
-        <v>25032.65463319145</v>
+        <v>22296.65463319145</v>
       </c>
       <c r="F6" s="6">
         <v>19360.38094370974</v>
       </c>
       <c r="G6" s="6">
-        <v>31626.3732501764</v>
+        <v>22386.37325017641</v>
       </c>
       <c r="H6" s="6">
-        <v>24870.63155259144</v>
+        <v>24870.63155259145</v>
       </c>
       <c r="I6" s="6">
         <v>17573.15585095486</v>
       </c>
       <c r="J6" s="6">
-        <v>70893.94614526666</v>
+        <v>40313.94614526666</v>
       </c>
       <c r="K6" s="6">
         <v>70893.94614526666</v>
@@ -8043,19 +8043,19 @@
         <v>44125.91300389229</v>
       </c>
       <c r="O6" s="6">
-        <v>31315.49714337741</v>
+        <v>32845.09903717024</v>
       </c>
       <c r="P6" s="6">
-        <v>16688.67903398356</v>
+        <v>15159.07714019074</v>
       </c>
       <c r="Q6" s="6">
-        <v>3.637978807091713E-12</v>
+        <v>1.818989403545856E-12</v>
       </c>
       <c r="R6" s="6">
-        <v>3.637978807091713E-12</v>
+        <v>1.818989403545856E-12</v>
       </c>
       <c r="S6" s="6">
-        <v>3.637978807091713E-12</v>
+        <v>1.818989403545856E-12</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -8105,10 +8105,10 @@
         <v>35466.08699610771</v>
       </c>
       <c r="P7" s="6">
-        <v>48276.50285662259</v>
+        <v>46746.90096282976</v>
       </c>
       <c r="Q7" s="6">
-        <v>44471.32096601644</v>
+        <v>46000.92285980926</v>
       </c>
       <c r="R7" s="6">
         <v>61160</v>
@@ -8220,10 +8220,10 @@
         <v>35466.08699610771</v>
       </c>
       <c r="O9" s="6">
-        <v>48276.50285662259</v>
+        <v>46746.90096282976</v>
       </c>
       <c r="P9" s="6">
-        <v>44471.32096601644</v>
+        <v>46000.92285980926</v>
       </c>
       <c r="Q9" s="6">
         <v>61160</v>
@@ -8434,10 +8434,10 @@
         <v>51</v>
       </c>
       <c r="B3" s="6">
-        <v>25176</v>
+        <v>12588</v>
       </c>
       <c r="C3" s="6">
-        <v>0</v>
+        <v>12588</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -8446,10 +8446,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="6">
-        <v>32160</v>
+        <v>16080</v>
       </c>
       <c r="G3" s="6">
-        <v>0</v>
+        <v>16080</v>
       </c>
       <c r="H3" s="6">
         <v>0</v>
@@ -8496,7 +8496,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="6">
-        <v>25176</v>
+        <v>12588</v>
       </c>
       <c r="D4" s="6">
         <v>22085.96597283958</v>
@@ -8508,7 +8508,7 @@
         <v>18995.93194567916</v>
       </c>
       <c r="G4" s="6">
-        <v>47701.10223475675</v>
+        <v>31621.10223475675</v>
       </c>
       <c r="H4" s="6">
         <v>43881.47684007234</v>
@@ -8538,13 +8538,13 @@
         <v>6929.819931945674</v>
       </c>
       <c r="Q4" s="6">
-        <v>9.094947017729282E-13</v>
+        <v>-7.275957614183426E-12</v>
       </c>
       <c r="R4" s="6">
-        <v>9.094947017729282E-13</v>
+        <v>-7.275957614183426E-12</v>
       </c>
       <c r="S4" s="6">
-        <v>9.094947017729282E-13</v>
+        <v>-7.275957614183426E-12</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -8594,7 +8594,7 @@
         <v>6373.195181018362</v>
       </c>
       <c r="P5" s="6">
-        <v>6929.819931945673</v>
+        <v>6929.819931945682</v>
       </c>
       <c r="Q5" s="6">
         <v>0</v>
@@ -8611,7 +8611,7 @@
         <v>54</v>
       </c>
       <c r="B6" s="6">
-        <v>25176</v>
+        <v>12588</v>
       </c>
       <c r="C6" s="6">
         <v>22085.96597283958</v>
@@ -8623,7 +8623,7 @@
         <v>18995.93194567916</v>
       </c>
       <c r="F6" s="6">
-        <v>47701.10223475675</v>
+        <v>31621.10223475675</v>
       </c>
       <c r="G6" s="6">
         <v>43881.47684007234</v>
@@ -8653,16 +8653,16 @@
         <v>6929.819931945674</v>
       </c>
       <c r="P6" s="6">
-        <v>9.094947017729282E-13</v>
+        <v>-7.275957614183426E-12</v>
       </c>
       <c r="Q6" s="6">
-        <v>9.094947017729282E-13</v>
+        <v>-7.275957614183426E-12</v>
       </c>
       <c r="R6" s="6">
-        <v>9.094947017729282E-13</v>
+        <v>-7.275957614183426E-12</v>
       </c>
       <c r="S6" s="6">
-        <v>9.094947017729282E-13</v>
+        <v>-7.275957614183426E-12</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -8715,7 +8715,7 @@
         <v>25230.18006805432</v>
       </c>
       <c r="Q7" s="6">
-        <v>32159.99999999999</v>
+        <v>32160</v>
       </c>
       <c r="R7" s="6">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="6">
-        <v>32159.99999999999</v>
+        <v>32160</v>
       </c>
       <c r="R8" s="6">
         <v>0</v>
@@ -8830,7 +8830,7 @@
         <v>25230.18006805432</v>
       </c>
       <c r="P9" s="6">
-        <v>32159.99999999999</v>
+        <v>32160</v>
       </c>
       <c r="Q9" s="6">
         <v>0</v>
@@ -8892,13 +8892,13 @@
         <v>0</v>
       </c>
       <c r="Q10" s="6">
-        <v>1.091393642127514E-11</v>
+        <v>0</v>
       </c>
       <c r="R10" s="6">
-        <v>1.091393642127514E-11</v>
+        <v>0</v>
       </c>
       <c r="S10" s="6">
-        <v>1.091393642127514E-11</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9041,10 +9041,10 @@
         <v>51</v>
       </c>
       <c r="B3" s="6">
-        <v>86976</v>
+        <v>43488</v>
       </c>
       <c r="C3" s="6">
-        <v>0</v>
+        <v>43488</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -9053,19 +9053,19 @@
         <v>0</v>
       </c>
       <c r="F3" s="6">
-        <v>157152</v>
+        <v>78576</v>
       </c>
       <c r="G3" s="6">
-        <v>492</v>
+        <v>78822</v>
       </c>
       <c r="H3" s="6">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="I3" s="6">
-        <v>17352</v>
+        <v>8676</v>
       </c>
       <c r="J3" s="6">
-        <v>0</v>
+        <v>8676</v>
       </c>
       <c r="K3" s="6">
         <v>0</v>
@@ -9103,7 +9103,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="6">
-        <v>86976</v>
+        <v>43488</v>
       </c>
       <c r="D4" s="6">
         <v>86976</v>
@@ -9115,16 +9115,16 @@
         <v>68378.21402214022</v>
       </c>
       <c r="G4" s="6">
-        <v>204866.0073800738</v>
+        <v>126290.0073800738</v>
       </c>
       <c r="H4" s="6">
-        <v>182498.2287822878</v>
+        <v>182252.2287822878</v>
       </c>
       <c r="I4" s="6">
         <v>157198.9257892579</v>
       </c>
       <c r="J4" s="6">
-        <v>152164.7019270193</v>
+        <v>143488.7019270193</v>
       </c>
       <c r="K4" s="6">
         <v>127826.8585485855</v>
@@ -9136,22 +9136,22 @@
         <v>95338.13366133659</v>
       </c>
       <c r="N4" s="6">
-        <v>56764.94792947926</v>
+        <v>58831.3685936859</v>
       </c>
       <c r="O4" s="6">
-        <v>15508.28536285359</v>
+        <v>17574.70602706023</v>
       </c>
       <c r="P4" s="6">
-        <v>7.275957614183426E-12</v>
+        <v>3.637978807091713E-12</v>
       </c>
       <c r="Q4" s="6">
-        <v>7.275957614183426E-12</v>
+        <v>3.637978807091713E-12</v>
       </c>
       <c r="R4" s="6">
-        <v>7.275957614183426E-12</v>
+        <v>3.637978807091713E-12</v>
       </c>
       <c r="S4" s="6">
-        <v>7.275957614183426E-12</v>
+        <v>3.637978807091713E-12</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -9192,13 +9192,13 @@
         <v>32488.72488724888</v>
       </c>
       <c r="M5" s="6">
-        <v>38573.18573185732</v>
+        <v>36506.76506765068</v>
       </c>
       <c r="N5" s="6">
         <v>41256.66256662567</v>
       </c>
       <c r="O5" s="6">
-        <v>15508.28536285358</v>
+        <v>17574.70602706023</v>
       </c>
       <c r="P5" s="6">
         <v>0</v>
@@ -9218,7 +9218,7 @@
         <v>54</v>
       </c>
       <c r="B6" s="6">
-        <v>86976</v>
+        <v>43488</v>
       </c>
       <c r="C6" s="6">
         <v>86976</v>
@@ -9230,16 +9230,16 @@
         <v>68378.21402214022</v>
       </c>
       <c r="F6" s="6">
-        <v>204866.0073800738</v>
+        <v>126290.0073800738</v>
       </c>
       <c r="G6" s="6">
-        <v>182498.2287822878</v>
+        <v>182252.2287822878</v>
       </c>
       <c r="H6" s="6">
         <v>157198.9257892579</v>
       </c>
       <c r="I6" s="6">
-        <v>152164.7019270193</v>
+        <v>143488.7019270193</v>
       </c>
       <c r="J6" s="6">
         <v>127826.8585485855</v>
@@ -9251,25 +9251,25 @@
         <v>95338.13366133659</v>
       </c>
       <c r="M6" s="6">
-        <v>56764.94792947926</v>
+        <v>58831.3685936859</v>
       </c>
       <c r="N6" s="6">
-        <v>15508.28536285359</v>
+        <v>17574.70602706023</v>
       </c>
       <c r="O6" s="6">
-        <v>7.275957614183426E-12</v>
+        <v>3.637978807091713E-12</v>
       </c>
       <c r="P6" s="6">
-        <v>7.275957614183426E-12</v>
+        <v>3.637978807091713E-12</v>
       </c>
       <c r="Q6" s="6">
-        <v>7.275957614183426E-12</v>
+        <v>3.637978807091713E-12</v>
       </c>
       <c r="R6" s="6">
-        <v>7.275957614183426E-12</v>
+        <v>3.637978807091713E-12</v>
       </c>
       <c r="S6" s="6">
-        <v>7.275957614183426E-12</v>
+        <v>3.637978807091713E-12</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -9313,16 +9313,16 @@
         <v>79657.86633866339</v>
       </c>
       <c r="N7" s="6">
-        <v>118231.0520705207</v>
+        <v>116164.6314063141</v>
       </c>
       <c r="O7" s="6">
-        <v>159487.7146371464</v>
+        <v>157421.2939729397</v>
       </c>
       <c r="P7" s="6">
-        <v>17351.99999999997</v>
+        <v>17351.99999999994</v>
       </c>
       <c r="Q7" s="6">
-        <v>17351.99999999997</v>
+        <v>17351.99999999994</v>
       </c>
       <c r="R7" s="6">
         <v>0</v>
@@ -9381,7 +9381,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="6">
-        <v>17351.99999999997</v>
+        <v>17351.99999999994</v>
       </c>
       <c r="R8" s="6">
         <v>0</v>
@@ -9428,16 +9428,16 @@
         <v>79657.86633866339</v>
       </c>
       <c r="M9" s="6">
-        <v>118231.0520705207</v>
+        <v>116164.6314063141</v>
       </c>
       <c r="N9" s="6">
-        <v>159487.7146371464</v>
+        <v>157421.2939729397</v>
       </c>
       <c r="O9" s="6">
-        <v>17351.99999999997</v>
+        <v>17351.99999999994</v>
       </c>
       <c r="P9" s="6">
-        <v>17351.99999999997</v>
+        <v>17351.99999999994</v>
       </c>
       <c r="Q9" s="6">
         <v>0</v>
@@ -9499,13 +9499,13 @@
         <v>0</v>
       </c>
       <c r="Q10" s="6">
-        <v>2.91038304567337E-11</v>
+        <v>5.820766091346741E-11</v>
       </c>
       <c r="R10" s="6">
-        <v>2.91038304567337E-11</v>
+        <v>5.820766091346741E-11</v>
       </c>
       <c r="S10" s="6">
-        <v>2.91038304567337E-11</v>
+        <v>5.820766091346741E-11</v>
       </c>
     </row>
   </sheetData>
@@ -9648,10 +9648,10 @@
         <v>51</v>
       </c>
       <c r="B3" s="6">
-        <v>70512</v>
+        <v>35256</v>
       </c>
       <c r="C3" s="6">
-        <v>0</v>
+        <v>35256</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -9672,10 +9672,10 @@
         <v>0</v>
       </c>
       <c r="J3" s="6">
-        <v>28812</v>
+        <v>14406</v>
       </c>
       <c r="K3" s="6">
-        <v>0</v>
+        <v>14406</v>
       </c>
       <c r="L3" s="6">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="6">
-        <v>70512</v>
+        <v>35256</v>
       </c>
       <c r="D4" s="6">
         <v>49859.51773049646</v>
@@ -9734,31 +9734,31 @@
         <v>15637.29550827424</v>
       </c>
       <c r="K4" s="6">
-        <v>33692.79432624114</v>
+        <v>19286.79432624115</v>
       </c>
       <c r="L4" s="6">
-        <v>33692.79432624114</v>
+        <v>33692.79432624115</v>
       </c>
       <c r="M4" s="6">
-        <v>28264.89834515367</v>
+        <v>28264.89834515368</v>
       </c>
       <c r="N4" s="6">
-        <v>28264.89834515367</v>
+        <v>25363.40110323091</v>
       </c>
       <c r="O4" s="6">
-        <v>28264.89834515367</v>
+        <v>25363.40110323091</v>
       </c>
       <c r="P4" s="6">
-        <v>23498.94089834516</v>
+        <v>20597.44365642239</v>
       </c>
       <c r="Q4" s="6">
-        <v>10789.72104018914</v>
+        <v>11065.52876280537</v>
       </c>
       <c r="R4" s="6">
-        <v>-7.275957614183426E-12</v>
+        <v>0</v>
       </c>
       <c r="S4" s="6">
-        <v>-7.275957614183426E-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -9799,7 +9799,7 @@
         <v>5427.89598108747</v>
       </c>
       <c r="M5" s="6">
-        <v>0</v>
+        <v>2901.497241922774</v>
       </c>
       <c r="N5" s="6">
         <v>0</v>
@@ -9808,10 +9808,10 @@
         <v>4765.95744680851</v>
       </c>
       <c r="P5" s="6">
-        <v>12709.21985815603</v>
+        <v>9531.91489361702</v>
       </c>
       <c r="Q5" s="6">
-        <v>10789.72104018914</v>
+        <v>11065.52876280537</v>
       </c>
       <c r="R5" s="6">
         <v>0</v>
@@ -9825,7 +9825,7 @@
         <v>54</v>
       </c>
       <c r="B6" s="6">
-        <v>70512</v>
+        <v>35256</v>
       </c>
       <c r="C6" s="6">
         <v>49859.51773049646</v>
@@ -9849,34 +9849,34 @@
         <v>15637.29550827424</v>
       </c>
       <c r="J6" s="6">
-        <v>33692.79432624114</v>
+        <v>19286.79432624115</v>
       </c>
       <c r="K6" s="6">
-        <v>33692.79432624114</v>
+        <v>33692.79432624115</v>
       </c>
       <c r="L6" s="6">
-        <v>28264.89834515367</v>
+        <v>28264.89834515368</v>
       </c>
       <c r="M6" s="6">
-        <v>28264.89834515367</v>
+        <v>25363.40110323091</v>
       </c>
       <c r="N6" s="6">
-        <v>28264.89834515367</v>
+        <v>25363.40110323091</v>
       </c>
       <c r="O6" s="6">
-        <v>23498.94089834516</v>
+        <v>20597.44365642239</v>
       </c>
       <c r="P6" s="6">
-        <v>10789.72104018914</v>
+        <v>11065.52876280537</v>
       </c>
       <c r="Q6" s="6">
-        <v>-7.275957614183426E-12</v>
+        <v>0</v>
       </c>
       <c r="R6" s="6">
-        <v>-7.275957614183426E-12</v>
+        <v>0</v>
       </c>
       <c r="S6" s="6">
-        <v>-7.275957614183426E-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -9920,16 +9920,16 @@
         <v>547.1016548463376</v>
       </c>
       <c r="N7" s="6">
-        <v>547.1016548463376</v>
+        <v>3448.598896769111</v>
       </c>
       <c r="O7" s="6">
-        <v>547.1016548463376</v>
+        <v>3448.598896769111</v>
       </c>
       <c r="P7" s="6">
-        <v>5313.059101654848</v>
+        <v>8214.556343577622</v>
       </c>
       <c r="Q7" s="6">
-        <v>18022.27895981088</v>
+        <v>17746.47123719464</v>
       </c>
       <c r="R7" s="6">
         <v>28812.00000000002</v>
@@ -10035,16 +10035,16 @@
         <v>547.1016548463376</v>
       </c>
       <c r="M9" s="6">
-        <v>547.1016548463376</v>
+        <v>3448.598896769111</v>
       </c>
       <c r="N9" s="6">
-        <v>547.1016548463376</v>
+        <v>3448.598896769111</v>
       </c>
       <c r="O9" s="6">
-        <v>5313.059101654848</v>
+        <v>8214.556343577622</v>
       </c>
       <c r="P9" s="6">
-        <v>18022.27895981088</v>
+        <v>17746.47123719464</v>
       </c>
       <c r="Q9" s="6">
         <v>28812.00000000002</v>
@@ -10053,7 +10053,7 @@
         <v>28812.00000000002</v>
       </c>
       <c r="S9" s="6">
-        <v>2.182787284255028E-11</v>
+        <v>1.818989403545856E-11</v>
       </c>
     </row>
     <row r="10" spans="1:19">
